--- a/PayrollProject/OutPutTestResult/HMRC Payroll NI Output Test result tax year 201920.xlsx
+++ b/PayrollProject/OutPutTestResult/HMRC Payroll NI Output Test result tax year 201920.xlsx
@@ -1,53 +1,53 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AzizMugdal\git\24-7PeopleXCDPayroll\PayrollProject\OutPutTestResult\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{590B0B16-8FF6-4971-BD1C-573324BF38E1}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{590B0B16-8FF6-4971-BD1C-573324BF38E1}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1260" windowWidth="11370" windowHeight="4650" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" firstSheet="3" windowHeight="4650" windowWidth="11370" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="1260"/>
   </bookViews>
   <sheets>
-    <sheet name="NI2WeeklyCAReport" sheetId="33" r:id="rId1"/>
-    <sheet name="NI2WeeklyCBReport" sheetId="4" r:id="rId2"/>
-    <sheet name="NI2WeeklyCCReport" sheetId="5" r:id="rId3"/>
-    <sheet name="NI2WeeklyCHReport" sheetId="6" r:id="rId4"/>
-    <sheet name="NI2WeeklyCJReport" sheetId="7" r:id="rId5"/>
-    <sheet name="NI2WeeklyCMReport" sheetId="8" r:id="rId6"/>
-    <sheet name="NI2WeeklyCZReport" sheetId="9" r:id="rId7"/>
-    <sheet name="NIMonthlyCAReport" sheetId="10" r:id="rId8"/>
-    <sheet name="NIMonthlyCBReport" sheetId="11" r:id="rId9"/>
-    <sheet name="NIMonthlyCCReport" sheetId="13" r:id="rId10"/>
-    <sheet name="NIMonthlyCHReport" sheetId="35" r:id="rId11"/>
-    <sheet name="NIMonthlyCJReport" sheetId="36" r:id="rId12"/>
-    <sheet name="NIMonthlyCMReport" sheetId="16" r:id="rId13"/>
-    <sheet name="NIMonthlyCZReport" sheetId="17" r:id="rId14"/>
-    <sheet name="NIWeeklyCAReport" sheetId="18" r:id="rId15"/>
-    <sheet name="NIWeeklyCBReport" sheetId="19" r:id="rId16"/>
-    <sheet name="NIWeeklyCCReport" sheetId="20" r:id="rId17"/>
-    <sheet name="NIWeeklyCHReport" sheetId="21" r:id="rId18"/>
-    <sheet name="NIWeeklyCJReport" sheetId="22" r:id="rId19"/>
-    <sheet name="NIWeeklyCMReport" sheetId="23" r:id="rId20"/>
-    <sheet name="NIWeeklyCZReport" sheetId="24" r:id="rId21"/>
-    <sheet name="NIFourWeeklyCAReport" sheetId="25" r:id="rId22"/>
-    <sheet name="NIFourWeeklyCBReport" sheetId="26" r:id="rId23"/>
-    <sheet name="NIFourWeeklyCCReport" sheetId="27" r:id="rId24"/>
-    <sheet name="NIFourWeeklyCHReport" sheetId="28" r:id="rId25"/>
-    <sheet name="NIFourWeeklyCJReport" sheetId="29" r:id="rId26"/>
-    <sheet name="NIFourWeeklyCMReport" sheetId="34" r:id="rId27"/>
-    <sheet name="NIFourWeeklyCZReport" sheetId="31" r:id="rId28"/>
+    <sheet name="NI2WeeklyCAReport" r:id="rId1" sheetId="33"/>
+    <sheet name="NI2WeeklyCBReport" r:id="rId2" sheetId="4"/>
+    <sheet name="NI2WeeklyCCReport" r:id="rId3" sheetId="5"/>
+    <sheet name="NI2WeeklyCHReport" r:id="rId4" sheetId="6"/>
+    <sheet name="NI2WeeklyCJReport" r:id="rId5" sheetId="7"/>
+    <sheet name="NI2WeeklyCMReport" r:id="rId6" sheetId="8"/>
+    <sheet name="NI2WeeklyCZReport" r:id="rId7" sheetId="9"/>
+    <sheet name="NIMonthlyCAReport" r:id="rId8" sheetId="10"/>
+    <sheet name="NIMonthlyCBReport" r:id="rId9" sheetId="11"/>
+    <sheet name="NIMonthlyCCReport" r:id="rId10" sheetId="13"/>
+    <sheet name="NIMonthlyCHReport" r:id="rId11" sheetId="35"/>
+    <sheet name="NIMonthlyCJReport" r:id="rId12" sheetId="36"/>
+    <sheet name="NIMonthlyCMReport" r:id="rId13" sheetId="16"/>
+    <sheet name="NIMonthlyCZReport" r:id="rId14" sheetId="17"/>
+    <sheet name="NIWeeklyCAReport" r:id="rId15" sheetId="18"/>
+    <sheet name="NIWeeklyCBReport" r:id="rId16" sheetId="19"/>
+    <sheet name="NIWeeklyCCReport" r:id="rId17" sheetId="20"/>
+    <sheet name="NIWeeklyCHReport" r:id="rId18" sheetId="21"/>
+    <sheet name="NIWeeklyCJReport" r:id="rId19" sheetId="22"/>
+    <sheet name="NIWeeklyCMReport" r:id="rId20" sheetId="23"/>
+    <sheet name="NIWeeklyCZReport" r:id="rId21" sheetId="24"/>
+    <sheet name="NIFourWeeklyCAReport" r:id="rId22" sheetId="25"/>
+    <sheet name="NIFourWeeklyCBReport" r:id="rId23" sheetId="26"/>
+    <sheet name="NIFourWeeklyCCReport" r:id="rId24" sheetId="27"/>
+    <sheet name="NIFourWeeklyCHReport" r:id="rId25" sheetId="28"/>
+    <sheet name="NIFourWeeklyCJReport" r:id="rId26" sheetId="29"/>
+    <sheet name="NIFourWeeklyCMReport" r:id="rId27" sheetId="34"/>
+    <sheet name="NIFourWeeklyCZReport" r:id="rId28" sheetId="31"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3536" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3989" uniqueCount="344">
   <si>
     <t>EmployeeName</t>
   </si>
@@ -1085,11 +1085,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="&quot;£&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="###0.00"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="345">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1188,6 +1189,1986 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
   </fonts>
   <fills count="10">
@@ -1246,7 +3227,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="166">
     <border>
       <left/>
       <right/>
@@ -1254,191 +3235,1016 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="13" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="402">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="8" numFmtId="164" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="9" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="10" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="8" numFmtId="4" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="8" numFmtId="4" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="8" numFmtId="164" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="8" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="9" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyFont="1" borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="5" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="6" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="6" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="7" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="7" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="8" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="9" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyBorder="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="15" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="1" fillId="0" fontId="16" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="17" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="18" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="19" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="3" fillId="0" fontId="20" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="21" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="22" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="23" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="5" fillId="0" fontId="24" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="25" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="6" fillId="0" fontId="26" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="27" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="7" fillId="0" fontId="28" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="29" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="8" fillId="0" fontId="30" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="31" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="9" fillId="0" fontId="32" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="33" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="10" fillId="0" fontId="34" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="35" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="11" fillId="0" fontId="36" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="37" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="12" fillId="0" fontId="38" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="39" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="13" fillId="0" fontId="40" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="41" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="14" fillId="0" fontId="42" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="43" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="15" fillId="0" fontId="44" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="45" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="16" fillId="0" fontId="46" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="47" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="17" fillId="0" fontId="48" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="49" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="18" fillId="0" fontId="50" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="51" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="19" fillId="0" fontId="52" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="53" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="20" fillId="0" fontId="54" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="55" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="21" fillId="0" fontId="56" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="57" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="22" fillId="0" fontId="58" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="59" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="23" fillId="0" fontId="60" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="61" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="24" fillId="0" fontId="62" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="63" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="25" fillId="0" fontId="64" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="65" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="26" fillId="0" fontId="66" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="67" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="27" fillId="0" fontId="68" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="69" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="28" fillId="0" fontId="70" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="71" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="29" fillId="0" fontId="72" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="73" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="30" fillId="0" fontId="74" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="75" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="31" fillId="0" fontId="76" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="77" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="32" fillId="0" fontId="78" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="79" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="33" fillId="0" fontId="80" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="81" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="34" fillId="0" fontId="82" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="83" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="35" fillId="0" fontId="84" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="85" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="36" fillId="0" fontId="86" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="87" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="37" fillId="0" fontId="88" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="89" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="38" fillId="0" fontId="90" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="91" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="39" fillId="0" fontId="92" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="93" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="40" fillId="0" fontId="94" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="95" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="41" fillId="0" fontId="96" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="97" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="42" fillId="0" fontId="98" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="99" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="43" fillId="0" fontId="100" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="101" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="44" fillId="0" fontId="102" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="103" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="45" fillId="0" fontId="104" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="105" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="46" fillId="0" fontId="106" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="107" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="47" fillId="0" fontId="108" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="109" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="48" fillId="0" fontId="110" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="111" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="49" fillId="0" fontId="112" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="113" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="50" fillId="0" fontId="114" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="115" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="51" fillId="0" fontId="116" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="117" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="52" fillId="0" fontId="118" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="119" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="53" fillId="0" fontId="120" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="121" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="122" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="123" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="55" fillId="0" fontId="124" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="125" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="56" fillId="0" fontId="126" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="127" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="57" fillId="0" fontId="128" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="129" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="58" fillId="0" fontId="130" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="131" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="59" fillId="0" fontId="132" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="133" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="60" fillId="0" fontId="134" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="135" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="61" fillId="0" fontId="136" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="137" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="62" fillId="0" fontId="138" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="139" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="63" fillId="0" fontId="140" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="141" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="64" fillId="0" fontId="142" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="143" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="65" fillId="0" fontId="144" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="145" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="66" fillId="0" fontId="146" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="147" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="67" fillId="0" fontId="148" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="149" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="68" fillId="0" fontId="150" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="151" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="69" fillId="0" fontId="152" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="153" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="70" fillId="0" fontId="154" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="155" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="71" fillId="0" fontId="156" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="157" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="72" fillId="0" fontId="158" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="159" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="73" fillId="0" fontId="160" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="161" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="74" fillId="0" fontId="162" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="163" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="75" fillId="0" fontId="164" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="165" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="76" fillId="0" fontId="166" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="167" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="77" fillId="0" fontId="168" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="169" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="78" fillId="0" fontId="170" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="171" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="79" fillId="0" fontId="172" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="173" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="80" fillId="0" fontId="174" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="175" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="81" fillId="0" fontId="176" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="177" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="82" fillId="0" fontId="178" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="179" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="83" fillId="0" fontId="180" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="181" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="84" fillId="0" fontId="182" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="183" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="85" fillId="0" fontId="184" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="185" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="86" fillId="0" fontId="186" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="187" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="87" fillId="0" fontId="188" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="189" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="88" fillId="0" fontId="190" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="191" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="89" fillId="0" fontId="192" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="193" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="90" fillId="0" fontId="194" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="195" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="91" fillId="0" fontId="196" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="197" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="92" fillId="0" fontId="198" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="199" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="93" fillId="0" fontId="200" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="201" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="94" fillId="0" fontId="202" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="203" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="95" fillId="0" fontId="204" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="205" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="96" fillId="0" fontId="206" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="207" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="97" fillId="0" fontId="208" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="209" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="98" fillId="0" fontId="210" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="211" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="99" fillId="0" fontId="212" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="213" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="100" fillId="0" fontId="214" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="215" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="101" fillId="0" fontId="216" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="217" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="102" fillId="0" fontId="218" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="219" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="103" fillId="0" fontId="220" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="221" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="104" fillId="0" fontId="222" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="223" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="105" fillId="0" fontId="224" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="225" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="106" fillId="0" fontId="226" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="227" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="107" fillId="0" fontId="228" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="229" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="108" fillId="0" fontId="230" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="231" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="109" fillId="0" fontId="232" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="233" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="110" fillId="0" fontId="234" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="235" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="111" fillId="0" fontId="236" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="237" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="112" fillId="0" fontId="238" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="239" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="113" fillId="0" fontId="240" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="241" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="114" fillId="0" fontId="242" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="243" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="115" fillId="0" fontId="244" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="245" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="116" fillId="0" fontId="246" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="247" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="117" fillId="0" fontId="248" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="249" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="118" fillId="0" fontId="250" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="251" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="119" fillId="0" fontId="252" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="253" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="120" fillId="0" fontId="254" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="255" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="121" fillId="0" fontId="256" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="257" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="122" fillId="0" fontId="258" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="259" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="123" fillId="0" fontId="260" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="261" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="124" fillId="0" fontId="262" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="263" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="125" fillId="0" fontId="264" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="265" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="126" fillId="0" fontId="266" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="267" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="127" fillId="0" fontId="268" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="269" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="128" fillId="0" fontId="270" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="271" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="129" fillId="0" fontId="272" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="273" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="130" fillId="0" fontId="274" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="275" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="131" fillId="0" fontId="276" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="277" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="132" fillId="0" fontId="278" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="279" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="133" fillId="0" fontId="280" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="281" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="134" fillId="0" fontId="282" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="283" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="135" fillId="0" fontId="284" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="285" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="136" fillId="0" fontId="286" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="287" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="137" fillId="0" fontId="288" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="289" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="138" fillId="0" fontId="290" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="291" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="139" fillId="0" fontId="292" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="293" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="140" fillId="0" fontId="294" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="295" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="141" fillId="0" fontId="296" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="297" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="142" fillId="0" fontId="298" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="299" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="143" fillId="0" fontId="300" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="301" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="144" fillId="0" fontId="302" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="303" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="145" fillId="0" fontId="304" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="305" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="146" fillId="0" fontId="306" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="307" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="147" fillId="0" fontId="308" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="309" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="148" fillId="0" fontId="310" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="311" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="149" fillId="0" fontId="312" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="313" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="150" fillId="0" fontId="314" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="315" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="151" fillId="0" fontId="316" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="317" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="152" fillId="0" fontId="318" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="319" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="153" fillId="0" fontId="320" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="321" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="154" fillId="0" fontId="322" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="323" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="155" fillId="0" fontId="324" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="325" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="156" fillId="0" fontId="326" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="327" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="157" fillId="0" fontId="328" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="329" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="158" fillId="0" fontId="330" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="331" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="159" fillId="0" fontId="332" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="333" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="160" fillId="0" fontId="334" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="335" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="161" fillId="0" fontId="336" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="337" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="162" fillId="0" fontId="338" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="339" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="163" fillId="0" fontId="340" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="341" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="164" fillId="0" fontId="342" numFmtId="49" xfId="0"/>
+    <xf numFmtId="166" fontId="343" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="344" fillId="0" borderId="165" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1455,10 +4261,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1622,21 +4428,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1653,7 +4459,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1707,7 +4513,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34F72FA2-57A0-4B2D-A21C-941F8BC29773}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34F72FA2-57A0-4B2D-A21C-941F8BC29773}">
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView topLeftCell="G4" workbookViewId="0">
@@ -1716,22 +4522,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="37.07421875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.04296875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.50390625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.13671875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="19.71484375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="17.17578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="25.94921875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="23.4296875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="20.890625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5390625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="29.7734375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="30.75" customHeight="1">
+    <row customHeight="1" ht="30.75" r="1" spans="1:13">
       <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
@@ -1772,7 +4578,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="29.25" customHeight="1">
+    <row customHeight="1" ht="29.25" r="2" spans="1:13">
       <c r="A2" s="22" t="s">
         <v>2</v>
       </c>
@@ -1813,7 +4619,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="24.75" customHeight="1">
+    <row customHeight="1" ht="24.75" r="3" spans="1:13">
       <c r="A3" s="22" t="s">
         <v>3</v>
       </c>
@@ -1854,7 +4660,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="30.75" customHeight="1">
+    <row customHeight="1" ht="30.75" r="4" spans="1:13">
       <c r="A4" s="22" t="s">
         <v>4</v>
       </c>
@@ -1895,7 +4701,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="30.75" customHeight="1">
+    <row customHeight="1" ht="30.75" r="5" spans="1:13">
       <c r="A5" s="22" t="s">
         <v>5</v>
       </c>
@@ -1936,7 +4742,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="25.5" customHeight="1">
+    <row customHeight="1" ht="25.5" r="6" spans="1:13">
       <c r="A6" s="22" t="s">
         <v>6</v>
       </c>
@@ -1977,7 +4783,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="24.75" customHeight="1">
+    <row customHeight="1" ht="24.75" r="7" spans="1:13">
       <c r="A7" s="22" t="s">
         <v>7</v>
       </c>
@@ -2018,7 +4824,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="24" customHeight="1">
+    <row customHeight="1" ht="24" r="8" spans="1:13">
       <c r="A8" s="22" t="s">
         <v>8</v>
       </c>
@@ -2059,7 +4865,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="33" customHeight="1">
+    <row customHeight="1" ht="33" r="9" spans="1:13">
       <c r="A9" s="22" t="s">
         <v>9</v>
       </c>
@@ -2100,7 +4906,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="24" customHeight="1">
+    <row customHeight="1" ht="24" r="10" spans="1:13">
       <c r="A10" s="22" t="s">
         <v>10</v>
       </c>
@@ -2141,7 +4947,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="27" customHeight="1">
+    <row customHeight="1" ht="27" r="11" spans="1:13">
       <c r="A11" s="1" t="s">
         <v>263</v>
       </c>
@@ -2182,7 +4988,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="23.25" customHeight="1">
+    <row customHeight="1" ht="23.25" r="12" spans="1:13">
       <c r="A12" s="1" t="s">
         <v>264</v>
       </c>
@@ -2224,12 +5030,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD509B95-552A-4B73-AAA1-3B581A11A07B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD509B95-552A-4B73-AAA1-3B581A11A07B}">
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2238,22 +5044,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="25.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="37.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="25.42578125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="47.25" customHeight="1">
+    <row customHeight="1" ht="47.25" r="1" spans="1:13">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -2705,12 +5511,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{734F0C59-6E5F-4AE9-A477-05F4174621EE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{734F0C59-6E5F-4AE9-A477-05F4174621EE}">
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2719,22 +5525,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="37.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="57" customFormat="1" ht="47.25" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="47.25" r="1" s="57" spans="1:13">
       <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
@@ -2775,7 +5581,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="60" customFormat="1">
+    <row customFormat="1" r="2" s="60" spans="1:13">
       <c r="A2" s="58" t="s">
         <v>86</v>
       </c>
@@ -2816,7 +5622,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="60" customFormat="1">
+    <row customFormat="1" r="3" s="60" spans="1:13">
       <c r="A3" s="58" t="s">
         <v>87</v>
       </c>
@@ -2857,7 +5663,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="60" customFormat="1">
+    <row customFormat="1" r="4" s="60" spans="1:13">
       <c r="A4" s="58" t="s">
         <v>88</v>
       </c>
@@ -2898,7 +5704,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="60" customFormat="1">
+    <row customFormat="1" r="5" s="60" spans="1:13">
       <c r="A5" s="58" t="s">
         <v>89</v>
       </c>
@@ -2939,7 +5745,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="60" customFormat="1">
+    <row customFormat="1" r="6" s="60" spans="1:13">
       <c r="A6" s="58" t="s">
         <v>90</v>
       </c>
@@ -2980,7 +5786,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="60" customFormat="1">
+    <row customFormat="1" r="7" s="60" spans="1:13">
       <c r="A7" s="58" t="s">
         <v>91</v>
       </c>
@@ -3021,7 +5827,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="60" customFormat="1">
+    <row customFormat="1" r="8" s="60" spans="1:13">
       <c r="A8" s="58" t="s">
         <v>92</v>
       </c>
@@ -3062,7 +5868,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="60" customFormat="1">
+    <row customFormat="1" r="9" s="60" spans="1:13">
       <c r="A9" s="60" t="s">
         <v>289</v>
       </c>
@@ -3103,7 +5909,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="60" customFormat="1">
+    <row customFormat="1" r="10" s="60" spans="1:13">
       <c r="A10" s="60" t="s">
         <v>290</v>
       </c>
@@ -3144,7 +5950,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="60" customFormat="1">
+    <row customFormat="1" r="11" s="60" spans="1:13">
       <c r="A11" s="60" t="s">
         <v>291</v>
       </c>
@@ -3186,12 +5992,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F489B8B4-03B0-4C90-9420-E0AB22EC195E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F489B8B4-03B0-4C90-9420-E0AB22EC195E}">
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3200,22 +6006,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="37.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="4" customFormat="1" ht="33.75" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="33.75" r="1" s="4" spans="1:13">
       <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
@@ -3667,12 +6473,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDCB0BEA-C4D2-4659-9D1C-5D3C4EE914D8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDCB0BEA-C4D2-4659-9D1C-5D3C4EE914D8}">
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
@@ -3681,22 +6487,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="37.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="4" customFormat="1" ht="47.25" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="47.25" r="1" s="4" spans="1:13">
       <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
@@ -4148,40 +6954,40 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3D4A22B-419C-4744-AB85-C09E8204D0B2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3D4A22B-419C-4744-AB85-C09E8204D0B2}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView workbookViewId="0" zoomScaleNormal="100">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.140625" style="65" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20" style="65" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.5703125" style="65" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27.140625" style="65" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.7109375" style="65" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.140625" style="65" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26" style="65" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="23.42578125" style="65" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="20.85546875" style="65" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="29.7109375" style="65" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.5703125" style="65" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="21" style="65" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="29.7109375" style="65" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="16384" width="9.140625" style="65" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="65" width="37.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="65" width="20.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="65" width="17.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="65" width="27.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="65" width="19.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="65" width="17.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="65" width="26.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="65" width="23.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="65" width="20.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="65" width="29.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="65" width="23.5703125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="65" width="21.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="65" width="29.7109375" collapsed="true"/>
+    <col min="14" max="16384" style="65" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="62" customFormat="1" ht="27.75" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="27.75" r="1" s="62" spans="1:13">
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
@@ -4222,7 +7028,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="26.25" customHeight="1">
+    <row customHeight="1" ht="26.25" r="2" spans="1:13">
       <c r="A2" s="63" t="s">
         <v>109</v>
       </c>
@@ -4263,7 +7069,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="26.25" customHeight="1">
+    <row customHeight="1" ht="26.25" r="3" spans="1:13">
       <c r="A3" s="63" t="s">
         <v>110</v>
       </c>
@@ -4304,7 +7110,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="23.25" customHeight="1">
+    <row customHeight="1" ht="23.25" r="4" spans="1:13">
       <c r="A4" s="63" t="s">
         <v>111</v>
       </c>
@@ -4345,7 +7151,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="25.5" customHeight="1">
+    <row customHeight="1" ht="25.5" r="5" spans="1:13">
       <c r="A5" s="63" t="s">
         <v>112</v>
       </c>
@@ -4386,7 +7192,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="23.25" customHeight="1">
+    <row customHeight="1" ht="23.25" r="6" spans="1:13">
       <c r="A6" s="63" t="s">
         <v>113</v>
       </c>
@@ -4427,7 +7233,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="24" customHeight="1">
+    <row customHeight="1" ht="24" r="7" spans="1:13">
       <c r="A7" s="63" t="s">
         <v>114</v>
       </c>
@@ -4468,7 +7274,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="24" customHeight="1">
+    <row customHeight="1" ht="24" r="8" spans="1:13">
       <c r="A8" s="63" t="s">
         <v>115</v>
       </c>
@@ -4509,7 +7315,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="22.5" customHeight="1">
+    <row customHeight="1" ht="22.5" r="9" spans="1:13">
       <c r="A9" s="65" t="s">
         <v>296</v>
       </c>
@@ -4550,7 +7356,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="27" customHeight="1">
+    <row customHeight="1" ht="27" r="10" spans="1:13">
       <c r="A10" s="65" t="s">
         <v>297</v>
       </c>
@@ -4591,7 +7397,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="22.5" customHeight="1">
+    <row customHeight="1" ht="22.5" r="11" spans="1:13">
       <c r="A11" s="65" t="s">
         <v>298</v>
       </c>
@@ -4642,13 +7448,13 @@
       <c r="I17" s="70"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46F959A7-BC56-497D-B8C5-7F4054119E8D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46F959A7-BC56-497D-B8C5-7F4054119E8D}">
   <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView topLeftCell="G4" workbookViewId="0">
@@ -4657,23 +7463,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="35.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="75.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="35.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="75.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="4" customFormat="1" ht="32.25" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="32.25" r="1" s="4" spans="1:15">
       <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
@@ -4715,7 +7521,7 @@
       </c>
       <c r="O1" s="31"/>
     </row>
-    <row r="2" spans="1:15" ht="30">
+    <row ht="30" r="2" spans="1:15">
       <c r="A2" s="22" t="s">
         <v>2</v>
       </c>
@@ -4756,7 +7562,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="30">
+    <row ht="30" r="3" spans="1:15">
       <c r="A3" s="22" t="s">
         <v>3</v>
       </c>
@@ -4797,7 +7603,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="30">
+    <row ht="30" r="4" spans="1:15">
       <c r="A4" s="22" t="s">
         <v>4</v>
       </c>
@@ -4838,7 +7644,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="30">
+    <row ht="30" r="5" spans="1:15">
       <c r="A5" s="22" t="s">
         <v>5</v>
       </c>
@@ -4879,7 +7685,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="30">
+    <row ht="30" r="6" spans="1:15">
       <c r="A6" s="22" t="s">
         <v>6</v>
       </c>
@@ -4920,7 +7726,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="30">
+    <row ht="30" r="7" spans="1:15">
       <c r="A7" s="22" t="s">
         <v>7</v>
       </c>
@@ -4961,7 +7767,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="30">
+    <row ht="30" r="8" spans="1:15">
       <c r="A8" s="22" t="s">
         <v>8</v>
       </c>
@@ -5002,7 +7808,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="30">
+    <row ht="30" r="9" spans="1:15">
       <c r="A9" s="22" t="s">
         <v>9</v>
       </c>
@@ -5043,7 +7849,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="30">
+    <row ht="30" r="10" spans="1:15">
       <c r="A10" s="22" t="s">
         <v>10</v>
       </c>
@@ -5180,13 +7986,13 @@
       <c r="L13" s="25"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6693F9A1-2D12-4878-8B10-57875A837F73}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6693F9A1-2D12-4878-8B10-57875A837F73}">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5195,22 +8001,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="39.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="39.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="4" customFormat="1" ht="36.75" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="36.75" r="1" s="4" spans="1:13">
       <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
@@ -5671,13 +8477,13 @@
       <c r="J16" s="71"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CCAF450-D838-4D0A-9377-0C9688C59049}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CCAF450-D838-4D0A-9377-0C9688C59049}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -5689,22 +8495,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="39.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="39.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="47.25" customHeight="1">
+    <row customHeight="1" ht="47.25" r="1" spans="1:13">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -6156,12 +8962,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AA0DF4E-EF72-4E33-A5FC-C9EB633E9A47}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AA0DF4E-EF72-4E33-A5FC-C9EB633E9A47}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -6173,22 +8979,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="39.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="39.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="47.25" customHeight="1">
+    <row customHeight="1" ht="47.25" r="1" spans="1:13">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -6640,12 +9446,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBD33C00-F8EF-4387-8505-A5B3395811FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBD33C00-F8EF-4387-8505-A5B3395811FB}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -6657,22 +9463,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="39.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="39.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="47.25" customHeight="1">
+    <row customHeight="1" ht="47.25" r="1" spans="1:13">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -7124,12 +9930,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DCC897F-D1E0-4A96-B2EE-32DA2865AE79}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DCC897F-D1E0-4A96-B2EE-32DA2865AE79}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -7141,22 +9947,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="37.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="47.25" customHeight="1">
+    <row customHeight="1" ht="47.25" r="1" spans="1:13">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -7377,12 +10183,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{081CF5B3-B626-4823-9177-2583326D20ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{081CF5B3-B626-4823-9177-2583326D20ED}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -7394,22 +10200,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="39.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="39.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="47.25" customHeight="1">
+    <row customHeight="1" ht="47.25" r="1" spans="1:13">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -7737,7 +10543,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="21.75" customHeight="1">
+    <row customHeight="1" ht="21.75" r="9" spans="1:13">
       <c r="A9" s="21" t="s">
         <v>239</v>
       </c>
@@ -7778,7 +10584,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="24.75" customHeight="1">
+    <row customHeight="1" ht="24.75" r="10" spans="1:13">
       <c r="A10" s="21" t="s">
         <v>240</v>
       </c>
@@ -7819,7 +10625,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="23.25" customHeight="1">
+    <row customHeight="1" ht="23.25" r="11" spans="1:13">
       <c r="A11" s="21" t="s">
         <v>241</v>
       </c>
@@ -7861,12 +10667,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AE77434-BDB6-4925-8AEB-DF38B4AD3203}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AE77434-BDB6-4925-8AEB-DF38B4AD3203}">
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7875,22 +10681,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="39.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="39.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="47.25" customHeight="1">
+    <row customHeight="1" ht="47.25" r="1" spans="1:13">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -8342,13 +11148,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54AE7F14-C03B-419D-9FD0-0B4AC5880298}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54AE7F14-C03B-419D-9FD0-0B4AC5880298}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -8360,22 +11166,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="39.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="39.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="47.25" customHeight="1">
+    <row customHeight="1" ht="47.25" r="1" spans="1:13">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -8868,13 +11674,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{432CEA1D-6991-4BC1-AFF9-9C3BF074AE0D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{432CEA1D-6991-4BC1-AFF9-9C3BF074AE0D}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -8886,22 +11692,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="23.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="19.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="22.140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="24.7109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="21.140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="29.140625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="28.85546875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="25.140625" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="30.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="37.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="24.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="29.140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="28.85546875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="25.140625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="30.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="47.25" customHeight="1">
+    <row customHeight="1" ht="47.25" r="1" spans="1:13">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -9365,12 +12171,12 @@
       <c r="E13" s="11"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{928D7B68-3D2E-4B39-AD3A-4761C2BD9933}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{928D7B68-3D2E-4B39-AD3A-4761C2BD9933}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -9382,22 +12188,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="39.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="39.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="47.25" customHeight="1">
+    <row customHeight="1" ht="47.25" r="1" spans="1:13">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -9855,13 +12661,13 @@
       <c r="G14" s="39"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EDDD2D8-453C-4BBB-89CA-194FD7B751CF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EDDD2D8-453C-4BBB-89CA-194FD7B751CF}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -9873,22 +12679,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="39.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="39.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="47.25" customHeight="1">
+    <row customHeight="1" ht="47.25" r="1" spans="1:13">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -10340,12 +13146,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06C48AC9-F330-4A09-80E5-D6F115B6D1F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06C48AC9-F330-4A09-80E5-D6F115B6D1F9}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -10357,22 +13163,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="39.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="39.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="47.25" customHeight="1">
+    <row customHeight="1" ht="47.25" r="1" spans="1:13">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -10824,12 +13630,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D072EF3-C383-438B-A84C-F3EBA934BAA2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D072EF3-C383-438B-A84C-F3EBA934BAA2}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -10841,22 +13647,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="39.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="39.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="4" customFormat="1" ht="31.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="31.5" r="1" s="4" spans="1:13">
       <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
@@ -10897,7 +13703,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="4" customFormat="1">
+    <row customFormat="1" r="2" s="4" spans="1:13">
       <c r="A2" s="1" t="s">
         <v>199</v>
       </c>
@@ -10938,7 +13744,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="4" customFormat="1">
+    <row customFormat="1" r="3" s="4" spans="1:13">
       <c r="A3" s="1" t="s">
         <v>200</v>
       </c>
@@ -10979,7 +13785,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="4" customFormat="1">
+    <row customFormat="1" r="4" s="4" spans="1:13">
       <c r="A4" s="1" t="s">
         <v>201</v>
       </c>
@@ -11020,7 +13826,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="4" customFormat="1">
+    <row customFormat="1" r="5" s="4" spans="1:13">
       <c r="A5" s="1" t="s">
         <v>202</v>
       </c>
@@ -11061,7 +13867,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="4" customFormat="1">
+    <row customFormat="1" r="6" s="4" spans="1:13">
       <c r="A6" s="1" t="s">
         <v>203</v>
       </c>
@@ -11102,7 +13908,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="4" customFormat="1">
+    <row customFormat="1" r="7" s="4" spans="1:13">
       <c r="A7" s="1" t="s">
         <v>204</v>
       </c>
@@ -11143,7 +13949,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="4" customFormat="1">
+    <row customFormat="1" r="8" s="4" spans="1:13">
       <c r="A8" s="1" t="s">
         <v>205</v>
       </c>
@@ -11184,7 +13990,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="4" customFormat="1">
+    <row customFormat="1" r="9" s="4" spans="1:13">
       <c r="A9" s="21" t="s">
         <v>257</v>
       </c>
@@ -11225,7 +14031,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="4" customFormat="1">
+    <row customFormat="1" r="10" s="4" spans="1:13">
       <c r="A10" s="21" t="s">
         <v>258</v>
       </c>
@@ -11266,7 +14072,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="4" customFormat="1">
+    <row customFormat="1" r="11" s="4" spans="1:13">
       <c r="A11" s="21" t="s">
         <v>259</v>
       </c>
@@ -11308,12 +14114,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EA6F492-DB74-41B2-BCBA-D107A1D751F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EA6F492-DB74-41B2-BCBA-D107A1D751F7}">
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11322,22 +14128,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="39.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="39.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="47.25" customHeight="1">
+    <row customHeight="1" ht="47.25" r="1" spans="1:13">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -11789,12 +14595,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12DC616B-EF69-4B57-BFAA-C71392BCCD82}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12DC616B-EF69-4B57-BFAA-C71392BCCD82}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -11806,25 +14612,25 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="17" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="37.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="16" max="17" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="47.25" customHeight="1">
+    <row customHeight="1" ht="47.25" r="1" spans="1:13">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -12046,13 +14852,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7C21921-00C3-49CD-A01C-12068C7F0F90}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7C21921-00C3-49CD-A01C-12068C7F0F90}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -12064,22 +14870,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="37.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="47.25" customHeight="1">
+    <row customHeight="1" ht="47.25" r="1" spans="1:13">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -12363,12 +15169,12 @@
       <c r="K23" s="12"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FBB53FB-4204-4CEE-B9D2-B379A803B8D4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FBB53FB-4204-4CEE-B9D2-B379A803B8D4}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -12380,22 +15186,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="37.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="47.25" customHeight="1">
+    <row customHeight="1" ht="47.25" r="1" spans="1:13">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -12617,12 +15423,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05FC4E69-FC21-418E-B95D-0A0DB70ECA1C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05FC4E69-FC21-418E-B95D-0A0DB70ECA1C}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -12634,22 +15440,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="37.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="47.25" customHeight="1">
+    <row customHeight="1" ht="47.25" r="1" spans="1:13">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -12871,12 +15677,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B2EDAAE-63E8-4E33-BC6C-1DA5EB4B4213}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B2EDAAE-63E8-4E33-BC6C-1DA5EB4B4213}">
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -12885,22 +15691,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="37.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="47.25" customHeight="1">
+    <row customHeight="1" ht="47.25" r="1" spans="1:13">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -13122,12 +15928,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A8D3B25-1D37-4A76-96CB-CE96D5B7495D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A8D3B25-1D37-4A76-96CB-CE96D5B7495D}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -13139,22 +15945,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="37.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="47.25" customHeight="1">
+    <row customHeight="1" ht="47.25" r="1" spans="1:13">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -13564,7 +16370,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="20.25" customHeight="1">
+    <row customHeight="1" ht="20.25" r="11" spans="1:13">
       <c r="A11" t="s">
         <v>281</v>
       </c>
@@ -13605,7 +16411,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="19.5" customHeight="1">
+    <row customHeight="1" ht="19.5" r="12" spans="1:13">
       <c r="A12" t="s">
         <v>282</v>
       </c>
@@ -13653,13 +16459,13 @@
       <c r="D15" s="34"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{084EB483-EA10-4F7B-A86C-815ADF0A22BD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{084EB483-EA10-4F7B-A86C-815ADF0A22BD}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -13671,22 +16477,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="37.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="47.25" customHeight="1">
+    <row customHeight="1" ht="47.25" r="1" spans="1:13">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -14138,6 +16944,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/PayrollProject/OutPutTestResult/HMRC Payroll NI Output Test result tax year 201920.xlsx
+++ b/PayrollProject/OutPutTestResult/HMRC Payroll NI Output Test result tax year 201920.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AzizMugdal\git\24-7PeopleXCDPayroll\PayrollProject\OutPutTestResult\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{590B0B16-8FF6-4971-BD1C-573324BF38E1}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37"/>
+  <xr:revisionPtr documentId="13_ncr:1_{B7A9C84F-0B0C-44E1-8C63-F84AD6A5DF61}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37"/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="3" windowHeight="4650" windowWidth="11370" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="1260"/>
+    <workbookView activeTab="23" firstSheet="22" windowHeight="4650" windowWidth="11370" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="1890"/>
   </bookViews>
   <sheets>
     <sheet name="NI2WeeklyCAReport" r:id="rId1" sheetId="33"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3989" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3673" uniqueCount="344">
   <si>
     <t>EmployeeName</t>
   </si>
@@ -1090,7 +1090,7 @@
     <numFmt numFmtId="165" formatCode="###0.00"/>
     <numFmt numFmtId="166" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="345">
+  <fonts count="325">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1189,126 +1189,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3227,7 +3107,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="166">
+  <borders count="156">
     <border>
       <left/>
       <right/>
@@ -3700,42 +3580,12 @@
     <border>
       <bottom style="thin"/>
     </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="13" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="402">
+  <cellXfs count="382">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="8" numFmtId="164" xfId="0">
@@ -4216,28 +4066,8 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="153" fillId="0" fontId="320" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="321" numFmtId="166" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="154" fillId="0" fontId="322" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="323" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="155" fillId="0" fontId="324" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="325" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="156" fillId="0" fontId="326" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="327" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="157" fillId="0" fontId="328" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="329" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="158" fillId="0" fontId="330" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="331" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="159" fillId="0" fontId="332" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="333" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="160" fillId="0" fontId="334" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="335" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="161" fillId="0" fontId="336" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="337" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="162" fillId="0" fontId="338" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="339" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="163" fillId="0" fontId="340" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="341" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="164" fillId="0" fontId="342" numFmtId="49" xfId="0"/>
-    <xf numFmtId="166" fontId="343" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="344" fillId="0" borderId="165" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="166" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="324" fillId="0" borderId="155" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -4522,19 +4352,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="37.07421875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="20.04296875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="17.50390625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="27.13671875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="19.71484375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="17.17578125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="25.94921875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="23.4296875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="20.890625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5390625" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="37.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
     <col min="12" max="12" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="29.7734375" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="30.75" r="1" spans="1:13">
@@ -11160,8 +10990,1521 @@
   </sheetPr>
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="39.12890625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.04296875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.50390625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.13671875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="19.71484375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="17.17578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="25.94921875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="23.4296875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="20.890625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5390625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="29.7734375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row customHeight="1" ht="47.25" r="1" spans="1:13">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>303</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>213</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>213</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>213</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>213</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="C6" t="s">
+        <v>214</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" t="s">
+        <v>213</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="L6" t="s">
+        <v>214</v>
+      </c>
+      <c r="M6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" t="s">
+        <v>213</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="L7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="C8" t="s">
+        <v>320</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="F8" t="s">
+        <v>321</v>
+      </c>
+      <c r="G8" t="s">
+        <v>213</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="L8" t="s">
+        <v>320</v>
+      </c>
+      <c r="M8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="C9" t="s">
+        <v>320</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="F9" t="s">
+        <v>322</v>
+      </c>
+      <c r="G9" t="s">
+        <v>213</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="L9" t="s">
+        <v>320</v>
+      </c>
+      <c r="M9" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="C10" t="s">
+        <v>320</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="F10" t="s">
+        <v>323</v>
+      </c>
+      <c r="G10" t="s">
+        <v>213</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="K10" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="L10" t="s">
+        <v>320</v>
+      </c>
+      <c r="M10" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="C11" t="s">
+        <v>324</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="F11" t="s">
+        <v>323</v>
+      </c>
+      <c r="G11" t="s">
+        <v>213</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="L11" t="s">
+        <v>324</v>
+      </c>
+      <c r="M11" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>325</v>
+      </c>
+      <c r="C12" t="s">
+        <v>325</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="F12" t="s">
+        <v>326</v>
+      </c>
+      <c r="G12" t="s">
+        <v>213</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="K12" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="L12" t="s">
+        <v>325</v>
+      </c>
+      <c r="M12" t="s">
+        <v>213</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{432CEA1D-6991-4BC1-AFF9-9C3BF074AE0D}">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:M11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="39.12890625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.04296875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.50390625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.13671875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="19.71484375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="17.17578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="25.94921875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="23.4296875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="20.890625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5390625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="29.7734375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row customHeight="1" ht="47.25" r="1" spans="1:13">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>303</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="L4" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="L6" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="L7" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="L8" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="L9" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="K10" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="L10" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{928D7B68-3D2E-4B39-AD3A-4761C2BD9933}">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:M14"/>
+  <sheetViews>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="39.12890625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.04296875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.50390625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.13671875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="19.71484375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="17.17578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="25.94921875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="23.4296875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="20.890625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5390625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="29.7734375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row customHeight="1" ht="47.25" r="1" spans="1:13">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>303</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>213</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" t="s">
+        <v>213</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>213</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="I3" t="s">
+        <v>221</v>
+      </c>
+      <c r="J3" t="s">
+        <v>213</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>213</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="I4" t="s">
+        <v>222</v>
+      </c>
+      <c r="J4" t="s">
+        <v>213</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="L4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>213</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="I5" t="s">
+        <v>223</v>
+      </c>
+      <c r="J5" t="s">
+        <v>213</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="L5" t="s">
+        <v>1</v>
+      </c>
+      <c r="M5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" t="s">
+        <v>213</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="I6" t="s">
+        <v>224</v>
+      </c>
+      <c r="J6" t="s">
+        <v>213</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="L6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" t="s">
+        <v>213</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="I7" t="s">
+        <v>225</v>
+      </c>
+      <c r="J7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="L7" t="s">
+        <v>1</v>
+      </c>
+      <c r="M7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="21" t="s">
+        <v>249</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="F8" t="s">
+        <v>321</v>
+      </c>
+      <c r="G8" t="s">
+        <v>213</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="I8" t="s">
+        <v>327</v>
+      </c>
+      <c r="J8" t="s">
+        <v>213</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="L8" t="s">
+        <v>1</v>
+      </c>
+      <c r="M8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="F9" t="s">
+        <v>322</v>
+      </c>
+      <c r="G9" t="s">
+        <v>213</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="I9" t="s">
+        <v>327</v>
+      </c>
+      <c r="J9" t="s">
+        <v>213</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="L9" t="s">
+        <v>1</v>
+      </c>
+      <c r="M9" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="21" t="s">
+        <v>251</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="F10" t="s">
+        <v>323</v>
+      </c>
+      <c r="G10" t="s">
+        <v>213</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="I10" t="s">
+        <v>327</v>
+      </c>
+      <c r="J10" t="s">
+        <v>213</v>
+      </c>
+      <c r="K10" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="L10" t="s">
+        <v>1</v>
+      </c>
+      <c r="M10" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>213</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="F11" t="s">
+        <v>323</v>
+      </c>
+      <c r="G11" t="s">
+        <v>213</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="I11" t="s">
+        <v>327</v>
+      </c>
+      <c r="J11" t="s">
+        <v>213</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="L11" t="s">
+        <v>1</v>
+      </c>
+      <c r="M11" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="G13" s="39"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="G14" s="39"/>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EDDD2D8-453C-4BBB-89CA-194FD7B751CF}">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:M11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11224,1556 +12567,20 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>213</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2"/>
       <c r="E2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="F2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>213</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>213</v>
+      <c r="H2" s="33" t="s">
+        <v>37</v>
       </c>
       <c r="K2" s="15" t="s">
         <v>1</v>
-      </c>
-      <c r="L2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s">
-        <v>213</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="K3" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="L3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>213</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s">
-        <v>213</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="K4" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="L4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M4" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s">
-        <v>213</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="K5" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="L5" t="s">
-        <v>11</v>
-      </c>
-      <c r="M5" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="C6" t="s">
-        <v>214</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" t="s">
-        <v>213</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="J6" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="K6" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="L6" t="s">
-        <v>214</v>
-      </c>
-      <c r="M6" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" t="s">
-        <v>213</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="K7" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="L7" t="s">
-        <v>37</v>
-      </c>
-      <c r="M7" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>320</v>
-      </c>
-      <c r="C8" t="s">
-        <v>320</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>321</v>
-      </c>
-      <c r="F8" t="s">
-        <v>321</v>
-      </c>
-      <c r="G8" t="s">
-        <v>213</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>327</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>327</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="K8" s="15" t="s">
-        <v>320</v>
-      </c>
-      <c r="L8" t="s">
-        <v>320</v>
-      </c>
-      <c r="M8" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>320</v>
-      </c>
-      <c r="C9" t="s">
-        <v>320</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>322</v>
-      </c>
-      <c r="F9" t="s">
-        <v>322</v>
-      </c>
-      <c r="G9" t="s">
-        <v>213</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>327</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>327</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="K9" s="15" t="s">
-        <v>320</v>
-      </c>
-      <c r="L9" t="s">
-        <v>320</v>
-      </c>
-      <c r="M9" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>320</v>
-      </c>
-      <c r="C10" t="s">
-        <v>320</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>323</v>
-      </c>
-      <c r="F10" t="s">
-        <v>323</v>
-      </c>
-      <c r="G10" t="s">
-        <v>213</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>327</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>327</v>
-      </c>
-      <c r="J10" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="K10" s="15" t="s">
-        <v>320</v>
-      </c>
-      <c r="L10" t="s">
-        <v>320</v>
-      </c>
-      <c r="M10" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="21" t="s">
-        <v>245</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>324</v>
-      </c>
-      <c r="C11" t="s">
-        <v>324</v>
-      </c>
-      <c r="D11" s="34" t="s">
-        <v>213</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>323</v>
-      </c>
-      <c r="F11" t="s">
-        <v>323</v>
-      </c>
-      <c r="G11" t="s">
-        <v>213</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>327</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>327</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="K11" s="15" t="s">
-        <v>324</v>
-      </c>
-      <c r="L11" t="s">
-        <v>324</v>
-      </c>
-      <c r="M11" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="21" t="s">
-        <v>246</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>325</v>
-      </c>
-      <c r="C12" t="s">
-        <v>325</v>
-      </c>
-      <c r="D12" s="34" t="s">
-        <v>213</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>326</v>
-      </c>
-      <c r="F12" t="s">
-        <v>326</v>
-      </c>
-      <c r="G12" t="s">
-        <v>213</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>327</v>
-      </c>
-      <c r="I12" s="12" t="s">
-        <v>327</v>
-      </c>
-      <c r="J12" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="K12" s="15" t="s">
-        <v>325</v>
-      </c>
-      <c r="L12" t="s">
-        <v>325</v>
-      </c>
-      <c r="M12" t="s">
-        <v>213</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{432CEA1D-6991-4BC1-AFF9-9C3BF074AE0D}">
-  <sheetPr>
-    <tabColor rgb="FF00B050"/>
-  </sheetPr>
-  <dimension ref="A1:M13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="37.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="23.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="22.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="18.7109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="24.7109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="21.140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="29.140625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="28.85546875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="25.140625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="30.140625" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row customHeight="1" ht="47.25" r="1" spans="1:13">
-      <c r="A1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>302</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="K1" s="18" t="s">
-        <v>303</v>
-      </c>
-      <c r="L1" s="18" t="s">
-        <v>304</v>
-      </c>
-      <c r="M1" s="18" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="J2" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="L2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="J3" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="K3" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="L3" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="M3" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="J4" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="K4" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="L4" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="M4" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="I5" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="J5" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="K5" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="L5" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="M5" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="D6" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="J6" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="K6" s="15" t="s">
-        <v>226</v>
-      </c>
-      <c r="L6" s="15" t="s">
-        <v>226</v>
-      </c>
-      <c r="M6" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="D7" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="J7" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="K7" s="15" t="s">
-        <v>226</v>
-      </c>
-      <c r="L7" s="15" t="s">
-        <v>226</v>
-      </c>
-      <c r="M7" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>328</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>328</v>
-      </c>
-      <c r="D8" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>321</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>321</v>
-      </c>
-      <c r="G8" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>327</v>
-      </c>
-      <c r="I8" s="12" t="s">
-        <v>327</v>
-      </c>
-      <c r="J8" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="K8" s="15" t="s">
-        <v>328</v>
-      </c>
-      <c r="L8" s="15" t="s">
-        <v>328</v>
-      </c>
-      <c r="M8" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>328</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>328</v>
-      </c>
-      <c r="D9" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>322</v>
-      </c>
-      <c r="F9" s="15" t="s">
-        <v>322</v>
-      </c>
-      <c r="G9" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>327</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>327</v>
-      </c>
-      <c r="J9" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="K9" s="15" t="s">
-        <v>328</v>
-      </c>
-      <c r="L9" s="15" t="s">
-        <v>328</v>
-      </c>
-      <c r="M9" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>328</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>328</v>
-      </c>
-      <c r="D10" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>323</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>323</v>
-      </c>
-      <c r="G10" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>327</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>327</v>
-      </c>
-      <c r="J10" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="K10" s="15" t="s">
-        <v>328</v>
-      </c>
-      <c r="L10" s="15" t="s">
-        <v>328</v>
-      </c>
-      <c r="M10" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="21" t="s">
-        <v>247</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>329</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>329</v>
-      </c>
-      <c r="D11" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>323</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>323</v>
-      </c>
-      <c r="G11" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>327</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>327</v>
-      </c>
-      <c r="J11" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="K11" s="15" t="s">
-        <v>329</v>
-      </c>
-      <c r="L11" s="15" t="s">
-        <v>329</v>
-      </c>
-      <c r="M11" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{928D7B68-3D2E-4B39-AD3A-4761C2BD9933}">
-  <sheetPr>
-    <tabColor rgb="FF00B050"/>
-  </sheetPr>
-  <dimension ref="A1:M14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="39.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="17.140625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row customHeight="1" ht="47.25" r="1" spans="1:13">
-      <c r="A1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="38" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>302</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="K1" s="18" t="s">
-        <v>303</v>
-      </c>
-      <c r="L1" s="18" t="s">
-        <v>304</v>
-      </c>
-      <c r="M1" s="18" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>213</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J2" t="s">
-        <v>213</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="L2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s">
-        <v>213</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="I3" t="s">
-        <v>221</v>
-      </c>
-      <c r="J3" t="s">
-        <v>213</v>
-      </c>
-      <c r="K3" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="L3" t="s">
-        <v>1</v>
-      </c>
-      <c r="M3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s">
-        <v>213</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="I4" t="s">
-        <v>222</v>
-      </c>
-      <c r="J4" t="s">
-        <v>213</v>
-      </c>
-      <c r="K4" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="L4" t="s">
-        <v>1</v>
-      </c>
-      <c r="M4" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s">
-        <v>213</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="I5" t="s">
-        <v>223</v>
-      </c>
-      <c r="J5" t="s">
-        <v>213</v>
-      </c>
-      <c r="K5" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="L5" t="s">
-        <v>1</v>
-      </c>
-      <c r="M5" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" t="s">
-        <v>213</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="I6" t="s">
-        <v>224</v>
-      </c>
-      <c r="J6" t="s">
-        <v>213</v>
-      </c>
-      <c r="K6" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="L6" t="s">
-        <v>1</v>
-      </c>
-      <c r="M6" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="21" t="s">
-        <v>248</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="34" t="s">
-        <v>213</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" t="s">
-        <v>213</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="I7" t="s">
-        <v>225</v>
-      </c>
-      <c r="J7" t="s">
-        <v>213</v>
-      </c>
-      <c r="K7" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="L7" t="s">
-        <v>1</v>
-      </c>
-      <c r="M7" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="21" t="s">
-        <v>249</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>213</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>321</v>
-      </c>
-      <c r="F8" t="s">
-        <v>321</v>
-      </c>
-      <c r="G8" t="s">
-        <v>213</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>327</v>
-      </c>
-      <c r="I8" t="s">
-        <v>327</v>
-      </c>
-      <c r="J8" t="s">
-        <v>213</v>
-      </c>
-      <c r="K8" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="L8" t="s">
-        <v>1</v>
-      </c>
-      <c r="M8" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="21" t="s">
-        <v>250</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="34" t="s">
-        <v>213</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>322</v>
-      </c>
-      <c r="F9" t="s">
-        <v>322</v>
-      </c>
-      <c r="G9" t="s">
-        <v>213</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>327</v>
-      </c>
-      <c r="I9" t="s">
-        <v>327</v>
-      </c>
-      <c r="J9" t="s">
-        <v>213</v>
-      </c>
-      <c r="K9" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="L9" t="s">
-        <v>1</v>
-      </c>
-      <c r="M9" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="21" t="s">
-        <v>251</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="34" t="s">
-        <v>213</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>323</v>
-      </c>
-      <c r="F10" t="s">
-        <v>323</v>
-      </c>
-      <c r="G10" t="s">
-        <v>213</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>327</v>
-      </c>
-      <c r="I10" t="s">
-        <v>327</v>
-      </c>
-      <c r="J10" t="s">
-        <v>213</v>
-      </c>
-      <c r="K10" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="L10" t="s">
-        <v>1</v>
-      </c>
-      <c r="M10" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="21" t="s">
-        <v>252</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="34" t="s">
-        <v>213</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>323</v>
-      </c>
-      <c r="F11" t="s">
-        <v>323</v>
-      </c>
-      <c r="G11" t="s">
-        <v>213</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>327</v>
-      </c>
-      <c r="I11" t="s">
-        <v>327</v>
-      </c>
-      <c r="J11" t="s">
-        <v>213</v>
-      </c>
-      <c r="K11" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="L11" t="s">
-        <v>1</v>
-      </c>
-      <c r="M11" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="G13" s="39"/>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="G14" s="39"/>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EDDD2D8-453C-4BBB-89CA-194FD7B751CF}">
-  <sheetPr>
-    <tabColor rgb="FF00B050"/>
-  </sheetPr>
-  <dimension ref="A1:M11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="39.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="17.140625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row customHeight="1" ht="47.25" r="1" spans="1:13">
-      <c r="A1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>301</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>302</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="K1" s="18" t="s">
-        <v>303</v>
-      </c>
-      <c r="L1" s="18" t="s">
-        <v>304</v>
-      </c>
-      <c r="M1" s="18" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>213</v>
-      </c>
-      <c r="H2" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J2" t="s">
-        <v>213</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="L2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -12783,38 +12590,15 @@
       <c r="B3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>213</v>
-      </c>
+      <c r="D3" s="2"/>
       <c r="E3" s="15" t="s">
         <v>1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" t="s">
-        <v>213</v>
       </c>
       <c r="H3" s="33" t="s">
         <v>221</v>
       </c>
-      <c r="I3" t="s">
-        <v>221</v>
-      </c>
-      <c r="J3" t="s">
-        <v>213</v>
-      </c>
       <c r="K3" s="15" t="s">
         <v>11</v>
-      </c>
-      <c r="L3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M3" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -12824,38 +12608,15 @@
       <c r="B4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>213</v>
-      </c>
+      <c r="D4" s="2"/>
       <c r="E4" s="15" t="s">
         <v>1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s">
-        <v>213</v>
       </c>
       <c r="H4" s="33" t="s">
         <v>222</v>
       </c>
-      <c r="I4" t="s">
-        <v>222</v>
-      </c>
-      <c r="J4" t="s">
-        <v>213</v>
-      </c>
       <c r="K4" s="15" t="s">
         <v>11</v>
-      </c>
-      <c r="L4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M4" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -12865,38 +12626,15 @@
       <c r="B5" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>213</v>
-      </c>
+      <c r="D5" s="2"/>
       <c r="E5" s="15" t="s">
         <v>1</v>
-      </c>
-      <c r="F5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s">
-        <v>213</v>
       </c>
       <c r="H5" s="33" t="s">
         <v>223</v>
       </c>
-      <c r="I5" t="s">
-        <v>223</v>
-      </c>
-      <c r="J5" t="s">
-        <v>213</v>
-      </c>
       <c r="K5" s="15" t="s">
         <v>11</v>
-      </c>
-      <c r="L5" t="s">
-        <v>11</v>
-      </c>
-      <c r="M5" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -12906,38 +12644,15 @@
       <c r="B6" s="15" t="s">
         <v>214</v>
       </c>
-      <c r="C6" t="s">
-        <v>214</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>213</v>
-      </c>
+      <c r="D6" s="2"/>
       <c r="E6" s="15" t="s">
         <v>1</v>
-      </c>
-      <c r="F6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" t="s">
-        <v>213</v>
       </c>
       <c r="H6" s="33" t="s">
         <v>224</v>
       </c>
-      <c r="I6" t="s">
-        <v>224</v>
-      </c>
-      <c r="J6" t="s">
-        <v>213</v>
-      </c>
       <c r="K6" s="33" t="s">
         <v>214</v>
-      </c>
-      <c r="L6" t="s">
-        <v>214</v>
-      </c>
-      <c r="M6" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -12947,38 +12662,15 @@
       <c r="B7" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="C7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>213</v>
-      </c>
+      <c r="D7" s="2"/>
       <c r="E7" s="15" t="s">
         <v>1</v>
-      </c>
-      <c r="F7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G7" t="s">
-        <v>213</v>
       </c>
       <c r="H7" s="33" t="s">
         <v>225</v>
       </c>
-      <c r="I7" t="s">
-        <v>225</v>
-      </c>
-      <c r="J7" t="s">
-        <v>213</v>
-      </c>
       <c r="K7" s="33" t="s">
         <v>37</v>
-      </c>
-      <c r="L7" t="s">
-        <v>37</v>
-      </c>
-      <c r="M7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -12988,38 +12680,15 @@
       <c r="B8" s="15" t="s">
         <v>320</v>
       </c>
-      <c r="C8" t="s">
-        <v>320</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>213</v>
-      </c>
+      <c r="D8" s="2"/>
       <c r="E8" s="15" t="s">
         <v>1</v>
-      </c>
-      <c r="F8" t="s">
-        <v>1</v>
-      </c>
-      <c r="G8" t="s">
-        <v>213</v>
       </c>
       <c r="H8" s="33" t="s">
         <v>327</v>
       </c>
-      <c r="I8" t="s">
-        <v>327</v>
-      </c>
-      <c r="J8" t="s">
-        <v>213</v>
-      </c>
       <c r="K8" s="33" t="s">
         <v>320</v>
-      </c>
-      <c r="L8" t="s">
-        <v>320</v>
-      </c>
-      <c r="M8" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -13029,38 +12698,15 @@
       <c r="B9" s="15" t="s">
         <v>320</v>
       </c>
-      <c r="C9" t="s">
-        <v>320</v>
-      </c>
-      <c r="D9" s="34" t="s">
-        <v>213</v>
-      </c>
+      <c r="D9" s="34"/>
       <c r="E9" s="15" t="s">
         <v>11</v>
-      </c>
-      <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s">
-        <v>213</v>
       </c>
       <c r="H9" s="33" t="s">
         <v>327</v>
       </c>
-      <c r="I9" t="s">
-        <v>327</v>
-      </c>
-      <c r="J9" t="s">
-        <v>213</v>
-      </c>
       <c r="K9" s="33" t="s">
         <v>320</v>
-      </c>
-      <c r="L9" t="s">
-        <v>320</v>
-      </c>
-      <c r="M9" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -13070,38 +12716,15 @@
       <c r="B10" s="15" t="s">
         <v>320</v>
       </c>
-      <c r="C10" t="s">
-        <v>320</v>
-      </c>
-      <c r="D10" s="34" t="s">
-        <v>213</v>
-      </c>
+      <c r="D10" s="34"/>
       <c r="E10" s="15" t="s">
         <v>37</v>
-      </c>
-      <c r="F10" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" t="s">
-        <v>213</v>
       </c>
       <c r="H10" s="33" t="s">
         <v>327</v>
       </c>
-      <c r="I10" t="s">
-        <v>327</v>
-      </c>
-      <c r="J10" t="s">
-        <v>213</v>
-      </c>
       <c r="K10" s="33" t="s">
         <v>320</v>
-      </c>
-      <c r="L10" t="s">
-        <v>320</v>
-      </c>
-      <c r="M10" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -13111,38 +12734,15 @@
       <c r="B11" s="15" t="s">
         <v>324</v>
       </c>
-      <c r="C11" t="s">
-        <v>324</v>
-      </c>
-      <c r="D11" s="34" t="s">
-        <v>213</v>
-      </c>
+      <c r="D11" s="34"/>
       <c r="E11" s="15" t="s">
         <v>37</v>
-      </c>
-      <c r="F11" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11" t="s">
-        <v>213</v>
       </c>
       <c r="H11" s="33" t="s">
         <v>327</v>
       </c>
-      <c r="I11" t="s">
-        <v>327</v>
-      </c>
-      <c r="J11" t="s">
-        <v>213</v>
-      </c>
       <c r="K11" s="33" t="s">
         <v>324</v>
-      </c>
-      <c r="L11" t="s">
-        <v>324</v>
-      </c>
-      <c r="M11" t="s">
-        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -15685,8 +15285,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B2EDAAE-63E8-4E33-BC6C-1DA5EB4B4213}">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/PayrollProject/OutPutTestResult/HMRC Payroll NI Output Test result tax year 201920.xlsx
+++ b/PayrollProject/OutPutTestResult/HMRC Payroll NI Output Test result tax year 201920.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr documentId="13_ncr:1_{B7A9C84F-0B0C-44E1-8C63-F84AD6A5DF61}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37"/>
   <bookViews>
-    <workbookView activeTab="23" firstSheet="22" windowHeight="4650" windowWidth="11370" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="1890"/>
+    <workbookView activeTab="0" firstSheet="22" windowHeight="4650" windowWidth="11370" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="1890"/>
   </bookViews>
   <sheets>
     <sheet name="NI2WeeklyCAReport" r:id="rId1" sheetId="33"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3673" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3824" uniqueCount="344">
   <si>
     <t>EmployeeName</t>
   </si>
@@ -1090,7 +1090,7 @@
     <numFmt numFmtId="165" formatCode="###0.00"/>
     <numFmt numFmtId="166" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="325">
+  <fonts count="435">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1189,6 +1189,666 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3107,7 +3767,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="156">
+  <borders count="211">
     <border>
       <left/>
       <right/>
@@ -3580,12 +4240,177 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="13" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="382">
+  <cellXfs count="492">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="8" numFmtId="164" xfId="0">
@@ -4066,8 +4891,118 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="153" fillId="0" fontId="320" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="321" numFmtId="166" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="154" fillId="0" fontId="322" numFmtId="49" xfId="0"/>
-    <xf numFmtId="166" fontId="323" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="324" fillId="0" borderId="155" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="323" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="155" fillId="0" fontId="324" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="325" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="156" fillId="0" fontId="326" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="327" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="157" fillId="0" fontId="328" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="329" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="158" fillId="0" fontId="330" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="331" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="159" fillId="0" fontId="332" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="333" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="160" fillId="0" fontId="334" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="335" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="161" fillId="0" fontId="336" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="337" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="162" fillId="0" fontId="338" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="339" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="163" fillId="0" fontId="340" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="341" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="164" fillId="0" fontId="342" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="343" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="165" fillId="0" fontId="344" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="345" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="166" fillId="0" fontId="346" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="347" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="167" fillId="0" fontId="348" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="349" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="168" fillId="0" fontId="350" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="351" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="169" fillId="0" fontId="352" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="353" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="170" fillId="0" fontId="354" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="355" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="171" fillId="0" fontId="356" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="357" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="172" fillId="0" fontId="358" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="359" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="173" fillId="0" fontId="360" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="361" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="174" fillId="0" fontId="362" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="363" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="175" fillId="0" fontId="364" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="365" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="176" fillId="0" fontId="366" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="367" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="177" fillId="0" fontId="368" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="369" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="178" fillId="0" fontId="370" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="371" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="179" fillId="0" fontId="372" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="373" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="180" fillId="0" fontId="374" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="375" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="181" fillId="0" fontId="376" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="377" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="182" fillId="0" fontId="378" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="379" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="183" fillId="0" fontId="380" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="381" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="184" fillId="0" fontId="382" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="383" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="185" fillId="0" fontId="384" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="385" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="186" fillId="0" fontId="386" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="387" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="187" fillId="0" fontId="388" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="389" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="188" fillId="0" fontId="390" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="391" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="189" fillId="0" fontId="392" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="393" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="190" fillId="0" fontId="394" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="395" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="191" fillId="0" fontId="396" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="397" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="192" fillId="0" fontId="398" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="399" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="193" fillId="0" fontId="400" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="401" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="194" fillId="0" fontId="402" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="403" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="195" fillId="0" fontId="404" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="405" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="196" fillId="0" fontId="406" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="407" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="197" fillId="0" fontId="408" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="409" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="198" fillId="0" fontId="410" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="411" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="199" fillId="0" fontId="412" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="413" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="200" fillId="0" fontId="414" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="415" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="201" fillId="0" fontId="416" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="417" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="202" fillId="0" fontId="418" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="419" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="203" fillId="0" fontId="420" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="421" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="204" fillId="0" fontId="422" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="423" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="205" fillId="0" fontId="424" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="425" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="206" fillId="0" fontId="426" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="427" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="207" fillId="0" fontId="428" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="429" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="208" fillId="0" fontId="430" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="431" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="209" fillId="0" fontId="432" numFmtId="49" xfId="0"/>
+    <xf numFmtId="166" fontId="433" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="434" fillId="0" borderId="210" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -4352,19 +5287,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="37.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="17.140625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="37.07421875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.04296875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.50390625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.13671875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="19.71484375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="17.17578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="25.94921875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="23.4296875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="20.890625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5390625" collapsed="true"/>
     <col min="12" max="12" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="29.7734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="30.75" r="1" spans="1:13">

--- a/PayrollProject/OutPutTestResult/HMRC Payroll NI Output Test result tax year 201920.xlsx
+++ b/PayrollProject/OutPutTestResult/HMRC Payroll NI Output Test result tax year 201920.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AzizMugdal\git\24-7PeopleXCDPayroll\PayrollProject\OutPutTestResult\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{B7A9C84F-0B0C-44E1-8C63-F84AD6A5DF61}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37"/>
+  <xr:revisionPtr documentId="13_ncr:1_{ED243A53-A6A0-4A8D-BD39-26164E53EEA9}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37"/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="22" windowHeight="4650" windowWidth="11370" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="1890"/>
+    <workbookView activeTab="0" firstSheet="3" windowHeight="4650" windowWidth="11370" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="3780"/>
   </bookViews>
   <sheets>
     <sheet name="NI2WeeklyCAReport" r:id="rId1" sheetId="33"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3824" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4127" uniqueCount="344">
   <si>
     <t>EmployeeName</t>
   </si>
@@ -1090,7 +1090,7 @@
     <numFmt numFmtId="165" formatCode="###0.00"/>
     <numFmt numFmtId="166" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="435">
+  <fonts count="125">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1850,1866 +1850,6 @@
       <color indexed="10"/>
       <b val="true"/>
     </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -3767,7 +1907,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="211">
+  <borders count="56">
     <border>
       <left/>
       <right/>
@@ -3940,477 +2080,12 @@
     <border>
       <bottom style="thin"/>
     </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="13" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="492">
+  <cellXfs count="182">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="8" numFmtId="164" xfId="0">
@@ -4691,318 +2366,8 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="53" fillId="0" fontId="120" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="121" numFmtId="166" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="122" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="123" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="55" fillId="0" fontId="124" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="125" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="56" fillId="0" fontId="126" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="127" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="57" fillId="0" fontId="128" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="129" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="58" fillId="0" fontId="130" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="131" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="59" fillId="0" fontId="132" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="133" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="60" fillId="0" fontId="134" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="135" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="61" fillId="0" fontId="136" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="137" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="62" fillId="0" fontId="138" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="139" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="63" fillId="0" fontId="140" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="141" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="64" fillId="0" fontId="142" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="143" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="65" fillId="0" fontId="144" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="145" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="66" fillId="0" fontId="146" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="147" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="67" fillId="0" fontId="148" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="149" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="68" fillId="0" fontId="150" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="151" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="69" fillId="0" fontId="152" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="153" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="70" fillId="0" fontId="154" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="155" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="71" fillId="0" fontId="156" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="157" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="72" fillId="0" fontId="158" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="159" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="73" fillId="0" fontId="160" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="161" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="74" fillId="0" fontId="162" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="163" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="75" fillId="0" fontId="164" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="165" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="76" fillId="0" fontId="166" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="167" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="77" fillId="0" fontId="168" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="169" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="78" fillId="0" fontId="170" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="171" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="79" fillId="0" fontId="172" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="173" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="80" fillId="0" fontId="174" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="175" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="81" fillId="0" fontId="176" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="177" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="82" fillId="0" fontId="178" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="179" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="83" fillId="0" fontId="180" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="181" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="84" fillId="0" fontId="182" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="183" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="85" fillId="0" fontId="184" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="185" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="86" fillId="0" fontId="186" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="187" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="87" fillId="0" fontId="188" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="189" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="88" fillId="0" fontId="190" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="191" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="89" fillId="0" fontId="192" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="193" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="90" fillId="0" fontId="194" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="195" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="91" fillId="0" fontId="196" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="197" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="92" fillId="0" fontId="198" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="199" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="93" fillId="0" fontId="200" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="201" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="94" fillId="0" fontId="202" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="203" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="95" fillId="0" fontId="204" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="205" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="96" fillId="0" fontId="206" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="207" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="97" fillId="0" fontId="208" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="209" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="98" fillId="0" fontId="210" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="211" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="99" fillId="0" fontId="212" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="213" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="100" fillId="0" fontId="214" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="215" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="101" fillId="0" fontId="216" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="217" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="102" fillId="0" fontId="218" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="219" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="103" fillId="0" fontId="220" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="221" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="104" fillId="0" fontId="222" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="223" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="105" fillId="0" fontId="224" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="225" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="106" fillId="0" fontId="226" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="227" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="107" fillId="0" fontId="228" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="229" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="108" fillId="0" fontId="230" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="231" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="109" fillId="0" fontId="232" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="233" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="110" fillId="0" fontId="234" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="235" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="111" fillId="0" fontId="236" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="237" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="112" fillId="0" fontId="238" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="239" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="113" fillId="0" fontId="240" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="241" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="114" fillId="0" fontId="242" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="243" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="115" fillId="0" fontId="244" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="245" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="116" fillId="0" fontId="246" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="247" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="117" fillId="0" fontId="248" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="249" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="118" fillId="0" fontId="250" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="251" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="119" fillId="0" fontId="252" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="253" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="120" fillId="0" fontId="254" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="255" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="121" fillId="0" fontId="256" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="257" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="122" fillId="0" fontId="258" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="259" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="123" fillId="0" fontId="260" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="261" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="124" fillId="0" fontId="262" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="263" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="125" fillId="0" fontId="264" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="265" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="126" fillId="0" fontId="266" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="267" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="127" fillId="0" fontId="268" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="269" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="128" fillId="0" fontId="270" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="271" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="129" fillId="0" fontId="272" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="273" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="130" fillId="0" fontId="274" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="275" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="131" fillId="0" fontId="276" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="277" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="132" fillId="0" fontId="278" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="279" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="133" fillId="0" fontId="280" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="281" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="134" fillId="0" fontId="282" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="283" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="135" fillId="0" fontId="284" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="285" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="136" fillId="0" fontId="286" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="287" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="137" fillId="0" fontId="288" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="289" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="138" fillId="0" fontId="290" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="291" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="139" fillId="0" fontId="292" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="293" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="140" fillId="0" fontId="294" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="295" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="141" fillId="0" fontId="296" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="297" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="142" fillId="0" fontId="298" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="299" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="143" fillId="0" fontId="300" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="301" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="144" fillId="0" fontId="302" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="303" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="145" fillId="0" fontId="304" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="305" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="146" fillId="0" fontId="306" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="307" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="147" fillId="0" fontId="308" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="309" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="148" fillId="0" fontId="310" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="311" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="149" fillId="0" fontId="312" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="313" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="150" fillId="0" fontId="314" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="315" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="151" fillId="0" fontId="316" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="317" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="152" fillId="0" fontId="318" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="319" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="153" fillId="0" fontId="320" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="321" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="154" fillId="0" fontId="322" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="323" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="155" fillId="0" fontId="324" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="325" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="156" fillId="0" fontId="326" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="327" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="157" fillId="0" fontId="328" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="329" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="158" fillId="0" fontId="330" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="331" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="159" fillId="0" fontId="332" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="333" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="160" fillId="0" fontId="334" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="335" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="161" fillId="0" fontId="336" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="337" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="162" fillId="0" fontId="338" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="339" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="163" fillId="0" fontId="340" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="341" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="164" fillId="0" fontId="342" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="343" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="165" fillId="0" fontId="344" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="345" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="166" fillId="0" fontId="346" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="347" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="167" fillId="0" fontId="348" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="349" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="168" fillId="0" fontId="350" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="351" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="169" fillId="0" fontId="352" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="353" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="170" fillId="0" fontId="354" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="355" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="171" fillId="0" fontId="356" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="357" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="172" fillId="0" fontId="358" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="359" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="173" fillId="0" fontId="360" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="361" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="174" fillId="0" fontId="362" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="363" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="175" fillId="0" fontId="364" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="365" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="176" fillId="0" fontId="366" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="367" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="177" fillId="0" fontId="368" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="369" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="178" fillId="0" fontId="370" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="371" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="179" fillId="0" fontId="372" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="373" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="180" fillId="0" fontId="374" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="375" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="181" fillId="0" fontId="376" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="377" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="182" fillId="0" fontId="378" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="379" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="183" fillId="0" fontId="380" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="381" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="184" fillId="0" fontId="382" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="383" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="185" fillId="0" fontId="384" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="385" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="186" fillId="0" fontId="386" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="387" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="187" fillId="0" fontId="388" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="389" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="188" fillId="0" fontId="390" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="391" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="189" fillId="0" fontId="392" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="393" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="190" fillId="0" fontId="394" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="395" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="191" fillId="0" fontId="396" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="397" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="192" fillId="0" fontId="398" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="399" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="193" fillId="0" fontId="400" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="401" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="194" fillId="0" fontId="402" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="403" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="195" fillId="0" fontId="404" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="405" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="196" fillId="0" fontId="406" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="407" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="197" fillId="0" fontId="408" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="409" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="198" fillId="0" fontId="410" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="411" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="199" fillId="0" fontId="412" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="413" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="200" fillId="0" fontId="414" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="415" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="201" fillId="0" fontId="416" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="417" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="202" fillId="0" fontId="418" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="419" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="203" fillId="0" fontId="420" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="421" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="204" fillId="0" fontId="422" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="423" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="205" fillId="0" fontId="424" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="425" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="206" fillId="0" fontId="426" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="427" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="207" fillId="0" fontId="428" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="429" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="208" fillId="0" fontId="430" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="431" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="209" fillId="0" fontId="432" numFmtId="49" xfId="0"/>
-    <xf numFmtId="166" fontId="433" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="434" fillId="0" borderId="210" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="166" fontId="123" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="124" fillId="0" borderId="55" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -5281,8 +2646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34F72FA2-57A0-4B2D-A21C-941F8BC29773}">
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView topLeftCell="G4" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10706,7 +8071,7 @@
   </sheetPr>
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
@@ -10775,15 +8140,38 @@
       <c r="B2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="5"/>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>213</v>
+      </c>
       <c r="E2" s="15" t="s">
         <v>1</v>
       </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>213</v>
+      </c>
       <c r="H2" s="12" t="s">
         <v>37</v>
       </c>
+      <c r="I2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" t="s">
+        <v>213</v>
+      </c>
       <c r="K2" s="15" t="s">
         <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -10793,15 +8181,38 @@
       <c r="B3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="5"/>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>213</v>
+      </c>
       <c r="E3" s="15" t="s">
         <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>213</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>221</v>
       </c>
+      <c r="I3" t="s">
+        <v>221</v>
+      </c>
+      <c r="J3" t="s">
+        <v>213</v>
+      </c>
       <c r="K3" s="15" t="s">
         <v>1</v>
+      </c>
+      <c r="L3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -10811,15 +8222,38 @@
       <c r="B4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="5"/>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>213</v>
+      </c>
       <c r="E4" s="15" t="s">
         <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>213</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>222</v>
       </c>
+      <c r="I4" t="s">
+        <v>222</v>
+      </c>
+      <c r="J4" t="s">
+        <v>213</v>
+      </c>
       <c r="K4" s="15" t="s">
         <v>1</v>
+      </c>
+      <c r="L4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M4" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -10829,15 +8263,38 @@
       <c r="B5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="5"/>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>213</v>
+      </c>
       <c r="E5" s="15" t="s">
         <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>213</v>
       </c>
       <c r="H5" s="12" t="s">
         <v>223</v>
       </c>
+      <c r="I5" t="s">
+        <v>223</v>
+      </c>
+      <c r="J5" t="s">
+        <v>213</v>
+      </c>
       <c r="K5" s="33" t="s">
         <v>11</v>
+      </c>
+      <c r="L5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -10847,15 +8304,38 @@
       <c r="B6" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="D6" s="5"/>
+      <c r="C6" t="s">
+        <v>226</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>213</v>
+      </c>
       <c r="E6" s="15" t="s">
         <v>37</v>
+      </c>
+      <c r="F6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" t="s">
+        <v>213</v>
       </c>
       <c r="H6" s="12" t="s">
         <v>224</v>
       </c>
+      <c r="I6" t="s">
+        <v>224</v>
+      </c>
+      <c r="J6" t="s">
+        <v>213</v>
+      </c>
       <c r="K6" s="33" t="s">
         <v>226</v>
+      </c>
+      <c r="L6" t="s">
+        <v>226</v>
+      </c>
+      <c r="M6" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -10865,15 +8345,38 @@
       <c r="B7" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="D7" s="5"/>
+      <c r="C7" t="s">
+        <v>226</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>213</v>
+      </c>
       <c r="E7" s="15" t="s">
         <v>37</v>
+      </c>
+      <c r="F7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" t="s">
+        <v>213</v>
       </c>
       <c r="H7" s="12" t="s">
         <v>225</v>
       </c>
+      <c r="I7" t="s">
+        <v>225</v>
+      </c>
+      <c r="J7" t="s">
+        <v>213</v>
+      </c>
       <c r="K7" s="33" t="s">
         <v>226</v>
+      </c>
+      <c r="L7" t="s">
+        <v>226</v>
+      </c>
+      <c r="M7" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -10883,15 +8386,38 @@
       <c r="B8" s="12" t="s">
         <v>315</v>
       </c>
-      <c r="D8" s="5"/>
+      <c r="C8" t="s">
+        <v>315</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>213</v>
+      </c>
       <c r="E8" s="15" t="s">
         <v>316</v>
       </c>
+      <c r="F8" t="s">
+        <v>316</v>
+      </c>
+      <c r="G8" t="s">
+        <v>213</v>
+      </c>
       <c r="H8" s="34" t="s">
         <v>314</v>
       </c>
+      <c r="I8" t="s">
+        <v>314</v>
+      </c>
+      <c r="J8" t="s">
+        <v>213</v>
+      </c>
       <c r="K8" s="33" t="s">
         <v>315</v>
+      </c>
+      <c r="L8" t="s">
+        <v>315</v>
+      </c>
+      <c r="M8" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -10901,15 +8427,38 @@
       <c r="B9" s="12" t="s">
         <v>315</v>
       </c>
-      <c r="D9" s="5"/>
+      <c r="C9" t="s">
+        <v>315</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>213</v>
+      </c>
       <c r="E9" s="15" t="s">
         <v>309</v>
       </c>
+      <c r="F9" t="s">
+        <v>309</v>
+      </c>
+      <c r="G9" t="s">
+        <v>213</v>
+      </c>
       <c r="H9" s="34" t="s">
         <v>314</v>
       </c>
+      <c r="I9" t="s">
+        <v>314</v>
+      </c>
+      <c r="J9" t="s">
+        <v>213</v>
+      </c>
       <c r="K9" s="33" t="s">
         <v>315</v>
+      </c>
+      <c r="L9" t="s">
+        <v>315</v>
+      </c>
+      <c r="M9" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -10919,15 +8468,38 @@
       <c r="B10" s="12" t="s">
         <v>315</v>
       </c>
-      <c r="D10" s="5"/>
+      <c r="C10" t="s">
+        <v>315</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>213</v>
+      </c>
       <c r="E10" s="15" t="s">
         <v>310</v>
       </c>
+      <c r="F10" t="s">
+        <v>310</v>
+      </c>
+      <c r="G10" t="s">
+        <v>213</v>
+      </c>
       <c r="H10" s="34" t="s">
         <v>314</v>
       </c>
+      <c r="I10" t="s">
+        <v>314</v>
+      </c>
+      <c r="J10" t="s">
+        <v>213</v>
+      </c>
       <c r="K10" s="33" t="s">
         <v>315</v>
+      </c>
+      <c r="L10" t="s">
+        <v>315</v>
+      </c>
+      <c r="M10" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -10937,14 +8509,38 @@
       <c r="B11" s="12" t="s">
         <v>317</v>
       </c>
+      <c r="C11" t="s">
+        <v>317</v>
+      </c>
+      <c r="D11" t="s">
+        <v>213</v>
+      </c>
       <c r="E11" s="15" t="s">
         <v>310</v>
       </c>
+      <c r="F11" t="s">
+        <v>310</v>
+      </c>
+      <c r="G11" t="s">
+        <v>213</v>
+      </c>
       <c r="H11" s="34" t="s">
         <v>314</v>
       </c>
+      <c r="I11" t="s">
+        <v>314</v>
+      </c>
+      <c r="J11" t="s">
+        <v>213</v>
+      </c>
       <c r="K11" s="33" t="s">
         <v>317</v>
+      </c>
+      <c r="L11" t="s">
+        <v>317</v>
+      </c>
+      <c r="M11" t="s">
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -11931,19 +9527,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="39.12890625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="20.04296875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="17.50390625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="27.13671875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="19.71484375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="17.17578125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="25.94921875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="23.4296875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="20.890625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5390625" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="39.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
     <col min="12" max="12" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="29.7734375" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="47.25" r="1" spans="1:13">
@@ -12457,19 +10053,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="39.12890625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="20.04296875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="17.50390625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="27.13671875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="19.71484375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="17.17578125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="25.94921875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="23.4296875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="20.890625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5390625" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="39.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
     <col min="12" max="12" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="29.7734375" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="47.25" r="1" spans="1:13">
@@ -12953,19 +10549,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="39.12890625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="20.04296875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="17.50390625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="27.13671875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="19.71484375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="17.17578125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="25.94921875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="23.4296875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="20.890625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5390625" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="39.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
     <col min="12" max="12" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="29.7734375" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="47.25" r="1" spans="1:13">
@@ -13438,8 +11034,8 @@
   </sheetPr>
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15141,8 +12737,8 @@
   </sheetPr>
   <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView topLeftCell="G2" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15213,15 +12809,38 @@
       <c r="B2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>213</v>
+      </c>
       <c r="E2" s="15" t="s">
         <v>1</v>
       </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>213</v>
+      </c>
       <c r="H2" s="12" t="s">
         <v>37</v>
       </c>
+      <c r="I2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" t="s">
+        <v>213</v>
+      </c>
       <c r="K2" s="15" t="s">
         <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -15231,15 +12850,38 @@
       <c r="B3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>213</v>
+      </c>
       <c r="E3" s="15" t="s">
         <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>213</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>221</v>
       </c>
+      <c r="I3" t="s">
+        <v>221</v>
+      </c>
+      <c r="J3" t="s">
+        <v>213</v>
+      </c>
       <c r="K3" s="15" t="s">
         <v>1</v>
+      </c>
+      <c r="L3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -15249,15 +12891,38 @@
       <c r="B4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>213</v>
+      </c>
       <c r="E4" s="15" t="s">
         <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>213</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>222</v>
       </c>
+      <c r="I4" t="s">
+        <v>222</v>
+      </c>
+      <c r="J4" t="s">
+        <v>213</v>
+      </c>
       <c r="K4" s="15" t="s">
         <v>1</v>
+      </c>
+      <c r="L4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M4" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -15267,15 +12932,38 @@
       <c r="B5" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>213</v>
+      </c>
       <c r="E5" s="15" t="s">
         <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>213</v>
       </c>
       <c r="H5" s="12" t="s">
         <v>223</v>
       </c>
+      <c r="I5" t="s">
+        <v>223</v>
+      </c>
+      <c r="J5" t="s">
+        <v>213</v>
+      </c>
       <c r="K5" s="15" t="s">
         <v>1</v>
+      </c>
+      <c r="L5" t="s">
+        <v>1</v>
+      </c>
+      <c r="M5" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -15285,15 +12973,38 @@
       <c r="B6" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>213</v>
+      </c>
       <c r="E6" s="15" t="s">
         <v>37</v>
+      </c>
+      <c r="F6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" t="s">
+        <v>213</v>
       </c>
       <c r="H6" s="12" t="s">
         <v>224</v>
       </c>
+      <c r="I6" t="s">
+        <v>224</v>
+      </c>
+      <c r="J6" t="s">
+        <v>213</v>
+      </c>
       <c r="K6" s="15" t="s">
         <v>1</v>
+      </c>
+      <c r="L6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M6" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -15303,15 +13014,38 @@
       <c r="B7" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="34"/>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>213</v>
+      </c>
       <c r="E7" s="15" t="s">
         <v>37</v>
+      </c>
+      <c r="F7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" t="s">
+        <v>213</v>
       </c>
       <c r="H7" s="12" t="s">
         <v>225</v>
       </c>
+      <c r="I7" t="s">
+        <v>225</v>
+      </c>
+      <c r="J7" t="s">
+        <v>213</v>
+      </c>
       <c r="K7" s="15" t="s">
         <v>1</v>
+      </c>
+      <c r="L7" t="s">
+        <v>1</v>
+      </c>
+      <c r="M7" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -15321,15 +13055,38 @@
       <c r="B8" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="34"/>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>213</v>
+      </c>
       <c r="E8" s="15" t="s">
         <v>316</v>
       </c>
+      <c r="F8" t="s">
+        <v>316</v>
+      </c>
+      <c r="G8" t="s">
+        <v>213</v>
+      </c>
       <c r="H8" s="12" t="s">
         <v>314</v>
       </c>
+      <c r="I8" t="s">
+        <v>314</v>
+      </c>
+      <c r="J8" t="s">
+        <v>213</v>
+      </c>
       <c r="K8" s="15" t="s">
         <v>1</v>
+      </c>
+      <c r="L8" t="s">
+        <v>1</v>
+      </c>
+      <c r="M8" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -15339,15 +13096,38 @@
       <c r="B9" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="34"/>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>213</v>
+      </c>
       <c r="E9" s="15" t="s">
         <v>309</v>
       </c>
+      <c r="F9" t="s">
+        <v>309</v>
+      </c>
+      <c r="G9" t="s">
+        <v>213</v>
+      </c>
       <c r="H9" s="12" t="s">
         <v>314</v>
       </c>
+      <c r="I9" t="s">
+        <v>314</v>
+      </c>
+      <c r="J9" t="s">
+        <v>213</v>
+      </c>
       <c r="K9" s="15" t="s">
         <v>1</v>
+      </c>
+      <c r="L9" t="s">
+        <v>1</v>
+      </c>
+      <c r="M9" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -15357,15 +13137,38 @@
       <c r="B10" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="34"/>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>213</v>
+      </c>
       <c r="E10" s="15" t="s">
         <v>310</v>
       </c>
+      <c r="F10" t="s">
+        <v>310</v>
+      </c>
+      <c r="G10" t="s">
+        <v>213</v>
+      </c>
       <c r="H10" s="12" t="s">
         <v>314</v>
       </c>
+      <c r="I10" t="s">
+        <v>314</v>
+      </c>
+      <c r="J10" t="s">
+        <v>213</v>
+      </c>
       <c r="K10" s="15" t="s">
         <v>1</v>
+      </c>
+      <c r="L10" t="s">
+        <v>1</v>
+      </c>
+      <c r="M10" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -15375,15 +13178,38 @@
       <c r="B11" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="34"/>
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>213</v>
+      </c>
       <c r="E11" s="15" t="s">
         <v>310</v>
       </c>
+      <c r="F11" t="s">
+        <v>310</v>
+      </c>
+      <c r="G11" t="s">
+        <v>213</v>
+      </c>
       <c r="H11" s="12" t="s">
         <v>314</v>
       </c>
+      <c r="I11" t="s">
+        <v>314</v>
+      </c>
+      <c r="J11" t="s">
+        <v>213</v>
+      </c>
       <c r="K11" s="15" t="s">
         <v>1</v>
+      </c>
+      <c r="L11" t="s">
+        <v>1</v>
+      </c>
+      <c r="M11" t="s">
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -15399,7 +13225,7 @@
   </sheetPr>
   <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
@@ -15468,15 +13294,38 @@
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="35"/>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>213</v>
+      </c>
       <c r="E2" t="s">
         <v>1</v>
       </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>213</v>
+      </c>
       <c r="H2" t="s">
         <v>37</v>
       </c>
+      <c r="I2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" t="s">
+        <v>213</v>
+      </c>
       <c r="K2" t="s">
         <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -15486,15 +13335,38 @@
       <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="35"/>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>213</v>
+      </c>
       <c r="E3" t="s">
         <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>213</v>
       </c>
       <c r="H3" t="s">
         <v>221</v>
       </c>
+      <c r="I3" t="s">
+        <v>221</v>
+      </c>
+      <c r="J3" t="s">
+        <v>213</v>
+      </c>
       <c r="K3" t="s">
         <v>11</v>
+      </c>
+      <c r="L3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -15504,15 +13376,38 @@
       <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="35"/>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>213</v>
+      </c>
       <c r="E4" t="s">
         <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>213</v>
       </c>
       <c r="H4" t="s">
         <v>222</v>
       </c>
+      <c r="I4" t="s">
+        <v>222</v>
+      </c>
+      <c r="J4" t="s">
+        <v>213</v>
+      </c>
       <c r="K4" t="s">
         <v>11</v>
+      </c>
+      <c r="L4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -15522,15 +13417,38 @@
       <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="35"/>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>213</v>
+      </c>
       <c r="E5" t="s">
         <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>213</v>
       </c>
       <c r="H5" t="s">
         <v>223</v>
       </c>
+      <c r="I5" t="s">
+        <v>223</v>
+      </c>
+      <c r="J5" t="s">
+        <v>213</v>
+      </c>
       <c r="K5" t="s">
         <v>11</v>
+      </c>
+      <c r="L5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -15540,15 +13458,38 @@
       <c r="B6" t="s">
         <v>214</v>
       </c>
-      <c r="D6" s="35"/>
+      <c r="C6" t="s">
+        <v>214</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>213</v>
+      </c>
       <c r="E6" t="s">
         <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>213</v>
       </c>
       <c r="H6" t="s">
         <v>224</v>
       </c>
+      <c r="I6" t="s">
+        <v>224</v>
+      </c>
+      <c r="J6" t="s">
+        <v>213</v>
+      </c>
       <c r="K6" t="s">
         <v>214</v>
+      </c>
+      <c r="L6" t="s">
+        <v>214</v>
+      </c>
+      <c r="M6" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -15558,15 +13499,38 @@
       <c r="B7" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="36"/>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>213</v>
+      </c>
       <c r="E7" t="s">
         <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>213</v>
       </c>
       <c r="H7" t="s">
         <v>225</v>
       </c>
+      <c r="I7" t="s">
+        <v>225</v>
+      </c>
+      <c r="J7" t="s">
+        <v>213</v>
+      </c>
       <c r="K7" t="s">
         <v>37</v>
+      </c>
+      <c r="L7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M7" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -15576,15 +13540,38 @@
       <c r="B8" t="s">
         <v>307</v>
       </c>
-      <c r="D8" s="36"/>
+      <c r="C8" t="s">
+        <v>307</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>213</v>
+      </c>
       <c r="E8" t="s">
         <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>213</v>
       </c>
       <c r="H8" t="s">
         <v>314</v>
       </c>
+      <c r="I8" t="s">
+        <v>314</v>
+      </c>
+      <c r="J8" t="s">
+        <v>213</v>
+      </c>
       <c r="K8" t="s">
         <v>307</v>
+      </c>
+      <c r="L8" t="s">
+        <v>307</v>
+      </c>
+      <c r="M8" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -15594,15 +13581,38 @@
       <c r="B9" t="s">
         <v>307</v>
       </c>
-      <c r="D9" s="37"/>
+      <c r="C9" t="s">
+        <v>307</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>213</v>
+      </c>
       <c r="E9" t="s">
         <v>11</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" t="s">
+        <v>213</v>
       </c>
       <c r="H9" t="s">
         <v>314</v>
       </c>
+      <c r="I9" t="s">
+        <v>314</v>
+      </c>
+      <c r="J9" t="s">
+        <v>213</v>
+      </c>
       <c r="K9" t="s">
         <v>307</v>
+      </c>
+      <c r="L9" t="s">
+        <v>307</v>
+      </c>
+      <c r="M9" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -15612,15 +13622,38 @@
       <c r="B10" t="s">
         <v>307</v>
       </c>
-      <c r="D10" s="37"/>
+      <c r="C10" t="s">
+        <v>307</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>213</v>
+      </c>
       <c r="E10" t="s">
         <v>37</v>
+      </c>
+      <c r="F10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" t="s">
+        <v>213</v>
       </c>
       <c r="H10" t="s">
         <v>314</v>
       </c>
+      <c r="I10" t="s">
+        <v>314</v>
+      </c>
+      <c r="J10" t="s">
+        <v>213</v>
+      </c>
       <c r="K10" t="s">
         <v>307</v>
+      </c>
+      <c r="L10" t="s">
+        <v>307</v>
+      </c>
+      <c r="M10" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -15630,15 +13663,38 @@
       <c r="B11" t="s">
         <v>311</v>
       </c>
-      <c r="D11" s="37"/>
+      <c r="C11" t="s">
+        <v>311</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>213</v>
+      </c>
       <c r="E11" t="s">
         <v>37</v>
+      </c>
+      <c r="F11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" t="s">
+        <v>213</v>
       </c>
       <c r="H11" t="s">
         <v>314</v>
       </c>
+      <c r="I11" t="s">
+        <v>314</v>
+      </c>
+      <c r="J11" t="s">
+        <v>213</v>
+      </c>
       <c r="K11" t="s">
         <v>311</v>
+      </c>
+      <c r="L11" t="s">
+        <v>311</v>
+      </c>
+      <c r="M11" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -15715,8 +13771,8 @@
   </sheetPr>
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15784,15 +13840,38 @@
       <c r="B2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>213</v>
+      </c>
       <c r="E2" s="15" t="s">
         <v>1</v>
       </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>213</v>
+      </c>
       <c r="H2" s="12" t="s">
         <v>37</v>
       </c>
+      <c r="I2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" t="s">
+        <v>213</v>
+      </c>
       <c r="K2" s="15" t="s">
         <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -15802,15 +13881,38 @@
       <c r="B3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>213</v>
+      </c>
       <c r="E3" s="15" t="s">
         <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>213</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>221</v>
       </c>
+      <c r="I3" t="s">
+        <v>221</v>
+      </c>
+      <c r="J3" t="s">
+        <v>213</v>
+      </c>
       <c r="K3" s="15" t="s">
         <v>1</v>
+      </c>
+      <c r="L3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -15820,15 +13922,38 @@
       <c r="B4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>213</v>
+      </c>
       <c r="E4" s="15" t="s">
         <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>213</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>222</v>
       </c>
+      <c r="I4" t="s">
+        <v>222</v>
+      </c>
+      <c r="J4" t="s">
+        <v>213</v>
+      </c>
       <c r="K4" s="15" t="s">
         <v>1</v>
+      </c>
+      <c r="L4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M4" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -15838,15 +13963,38 @@
       <c r="B5" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>213</v>
+      </c>
       <c r="E5" s="15" t="s">
         <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>213</v>
       </c>
       <c r="H5" s="12" t="s">
         <v>223</v>
       </c>
+      <c r="I5" t="s">
+        <v>223</v>
+      </c>
+      <c r="J5" t="s">
+        <v>213</v>
+      </c>
       <c r="K5" s="15" t="s">
         <v>1</v>
+      </c>
+      <c r="L5" t="s">
+        <v>1</v>
+      </c>
+      <c r="M5" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -15856,15 +14004,38 @@
       <c r="B6" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>213</v>
+      </c>
       <c r="E6" s="15" t="s">
         <v>37</v>
+      </c>
+      <c r="F6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" t="s">
+        <v>213</v>
       </c>
       <c r="H6" s="12" t="s">
         <v>224</v>
       </c>
+      <c r="I6" t="s">
+        <v>224</v>
+      </c>
+      <c r="J6" t="s">
+        <v>213</v>
+      </c>
       <c r="K6" s="15" t="s">
         <v>1</v>
+      </c>
+      <c r="L6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M6" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -15874,15 +14045,38 @@
       <c r="B7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>213</v>
+      </c>
       <c r="E7" s="15" t="s">
         <v>37</v>
+      </c>
+      <c r="F7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" t="s">
+        <v>213</v>
       </c>
       <c r="H7" s="12" t="s">
         <v>225</v>
       </c>
+      <c r="I7" t="s">
+        <v>225</v>
+      </c>
+      <c r="J7" t="s">
+        <v>213</v>
+      </c>
       <c r="K7" s="33" t="s">
         <v>11</v>
+      </c>
+      <c r="L7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M7" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -15892,15 +14086,38 @@
       <c r="B8" s="12" t="s">
         <v>318</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="C8" t="s">
+        <v>318</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>213</v>
+      </c>
       <c r="E8" s="15" t="s">
         <v>316</v>
       </c>
+      <c r="F8" t="s">
+        <v>316</v>
+      </c>
+      <c r="G8" t="s">
+        <v>213</v>
+      </c>
       <c r="H8" s="12" t="s">
         <v>314</v>
       </c>
+      <c r="I8" t="s">
+        <v>314</v>
+      </c>
+      <c r="J8" t="s">
+        <v>213</v>
+      </c>
       <c r="K8" s="33" t="s">
         <v>318</v>
+      </c>
+      <c r="L8" t="s">
+        <v>318</v>
+      </c>
+      <c r="M8" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -15910,15 +14127,38 @@
       <c r="B9" s="12" t="s">
         <v>318</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="C9" t="s">
+        <v>318</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>213</v>
+      </c>
       <c r="E9" s="15" t="s">
         <v>309</v>
       </c>
+      <c r="F9" t="s">
+        <v>309</v>
+      </c>
+      <c r="G9" t="s">
+        <v>213</v>
+      </c>
       <c r="H9" s="12" t="s">
         <v>314</v>
       </c>
+      <c r="I9" t="s">
+        <v>314</v>
+      </c>
+      <c r="J9" t="s">
+        <v>213</v>
+      </c>
       <c r="K9" s="33" t="s">
         <v>318</v>
+      </c>
+      <c r="L9" t="s">
+        <v>318</v>
+      </c>
+      <c r="M9" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -15928,15 +14168,38 @@
       <c r="B10" s="12" t="s">
         <v>318</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="C10" t="s">
+        <v>318</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>213</v>
+      </c>
       <c r="E10" s="15" t="s">
         <v>310</v>
       </c>
+      <c r="F10" t="s">
+        <v>310</v>
+      </c>
+      <c r="G10" t="s">
+        <v>213</v>
+      </c>
       <c r="H10" s="12" t="s">
         <v>314</v>
       </c>
+      <c r="I10" t="s">
+        <v>314</v>
+      </c>
+      <c r="J10" t="s">
+        <v>213</v>
+      </c>
       <c r="K10" s="33" t="s">
         <v>318</v>
+      </c>
+      <c r="L10" t="s">
+        <v>318</v>
+      </c>
+      <c r="M10" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -15946,15 +14209,38 @@
       <c r="B11" s="12" t="s">
         <v>319</v>
       </c>
-      <c r="D11" s="34"/>
+      <c r="C11" t="s">
+        <v>319</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>213</v>
+      </c>
       <c r="E11" s="15" t="s">
         <v>310</v>
       </c>
+      <c r="F11" t="s">
+        <v>310</v>
+      </c>
+      <c r="G11" t="s">
+        <v>213</v>
+      </c>
       <c r="H11" s="12" t="s">
         <v>314</v>
       </c>
+      <c r="I11" t="s">
+        <v>314</v>
+      </c>
+      <c r="J11" t="s">
+        <v>213</v>
+      </c>
       <c r="K11" s="33" t="s">
         <v>319</v>
+      </c>
+      <c r="L11" t="s">
+        <v>319</v>
+      </c>
+      <c r="M11" t="s">
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -15969,8 +14255,8 @@
   </sheetPr>
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView topLeftCell="G2" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16038,15 +14324,38 @@
       <c r="B2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="26"/>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>213</v>
+      </c>
       <c r="E2" s="15" t="s">
         <v>1</v>
       </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>213</v>
+      </c>
       <c r="H2" s="12" t="s">
         <v>37</v>
       </c>
+      <c r="I2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" t="s">
+        <v>213</v>
+      </c>
       <c r="K2" s="33" t="s">
         <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -16056,15 +14365,38 @@
       <c r="B3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="26"/>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>213</v>
+      </c>
       <c r="E3" s="15" t="s">
         <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>213</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>221</v>
       </c>
+      <c r="I3" t="s">
+        <v>221</v>
+      </c>
+      <c r="J3" t="s">
+        <v>213</v>
+      </c>
       <c r="K3" s="15" t="s">
         <v>11</v>
+      </c>
+      <c r="L3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -16074,15 +14406,38 @@
       <c r="B4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="26"/>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>213</v>
+      </c>
       <c r="E4" s="15" t="s">
         <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>213</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>222</v>
       </c>
+      <c r="I4" t="s">
+        <v>222</v>
+      </c>
+      <c r="J4" t="s">
+        <v>213</v>
+      </c>
       <c r="K4" s="15" t="s">
         <v>11</v>
+      </c>
+      <c r="L4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -16092,15 +14447,38 @@
       <c r="B5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="26"/>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>213</v>
+      </c>
       <c r="E5" s="15" t="s">
         <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>213</v>
       </c>
       <c r="H5" s="12" t="s">
         <v>223</v>
       </c>
+      <c r="I5" t="s">
+        <v>223</v>
+      </c>
+      <c r="J5" t="s">
+        <v>213</v>
+      </c>
       <c r="K5" s="15" t="s">
         <v>11</v>
+      </c>
+      <c r="L5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -16110,15 +14488,38 @@
       <c r="B6" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="D6" s="26"/>
+      <c r="C6" t="s">
+        <v>214</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>213</v>
+      </c>
       <c r="E6" s="15" t="s">
         <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>213</v>
       </c>
       <c r="H6" s="12" t="s">
         <v>224</v>
       </c>
+      <c r="I6" t="s">
+        <v>224</v>
+      </c>
+      <c r="J6" t="s">
+        <v>213</v>
+      </c>
       <c r="K6" s="15" t="s">
         <v>214</v>
+      </c>
+      <c r="L6" t="s">
+        <v>214</v>
+      </c>
+      <c r="M6" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -16128,15 +14529,38 @@
       <c r="B7" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="26"/>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>213</v>
+      </c>
       <c r="E7" s="15" t="s">
         <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>213</v>
       </c>
       <c r="H7" s="12" t="s">
         <v>225</v>
       </c>
+      <c r="I7" t="s">
+        <v>225</v>
+      </c>
+      <c r="J7" t="s">
+        <v>213</v>
+      </c>
       <c r="K7" s="15" t="s">
         <v>37</v>
+      </c>
+      <c r="L7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M7" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -16146,15 +14570,38 @@
       <c r="B8" s="12" t="s">
         <v>307</v>
       </c>
-      <c r="D8" s="26"/>
+      <c r="C8" t="s">
+        <v>307</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>213</v>
+      </c>
       <c r="E8" s="15" t="s">
         <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>213</v>
       </c>
       <c r="H8" s="12" t="s">
         <v>314</v>
       </c>
+      <c r="I8" t="s">
+        <v>314</v>
+      </c>
+      <c r="J8" t="s">
+        <v>213</v>
+      </c>
       <c r="K8" s="15" t="s">
         <v>307</v>
+      </c>
+      <c r="L8" t="s">
+        <v>307</v>
+      </c>
+      <c r="M8" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -16164,15 +14611,38 @@
       <c r="B9" s="12" t="s">
         <v>307</v>
       </c>
-      <c r="D9" s="27"/>
+      <c r="C9" t="s">
+        <v>307</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>213</v>
+      </c>
       <c r="E9" s="15" t="s">
         <v>11</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" t="s">
+        <v>213</v>
       </c>
       <c r="H9" s="12" t="s">
         <v>314</v>
       </c>
+      <c r="I9" t="s">
+        <v>314</v>
+      </c>
+      <c r="J9" t="s">
+        <v>213</v>
+      </c>
       <c r="K9" s="15" t="s">
         <v>307</v>
+      </c>
+      <c r="L9" t="s">
+        <v>307</v>
+      </c>
+      <c r="M9" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -16182,15 +14652,38 @@
       <c r="B10" s="12" t="s">
         <v>307</v>
       </c>
-      <c r="D10" s="27"/>
+      <c r="C10" t="s">
+        <v>307</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>213</v>
+      </c>
       <c r="E10" s="15" t="s">
         <v>37</v>
+      </c>
+      <c r="F10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" t="s">
+        <v>213</v>
       </c>
       <c r="H10" s="12" t="s">
         <v>314</v>
       </c>
+      <c r="I10" t="s">
+        <v>314</v>
+      </c>
+      <c r="J10" t="s">
+        <v>213</v>
+      </c>
       <c r="K10" s="15" t="s">
         <v>307</v>
+      </c>
+      <c r="L10" t="s">
+        <v>307</v>
+      </c>
+      <c r="M10" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -16200,15 +14693,38 @@
       <c r="B11" s="12" t="s">
         <v>311</v>
       </c>
-      <c r="D11" s="27"/>
+      <c r="C11" t="s">
+        <v>311</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>213</v>
+      </c>
       <c r="E11" s="15" t="s">
         <v>37</v>
+      </c>
+      <c r="F11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" t="s">
+        <v>213</v>
       </c>
       <c r="H11" s="12" t="s">
         <v>314</v>
       </c>
+      <c r="I11" t="s">
+        <v>314</v>
+      </c>
+      <c r="J11" t="s">
+        <v>213</v>
+      </c>
       <c r="K11" s="15" t="s">
         <v>311</v>
+      </c>
+      <c r="L11" t="s">
+        <v>311</v>
+      </c>
+      <c r="M11" t="s">
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -16221,7 +14737,7 @@
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16289,15 +14805,38 @@
       <c r="B2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="7"/>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>213</v>
+      </c>
       <c r="E2" s="15" t="s">
         <v>1</v>
       </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>213</v>
+      </c>
       <c r="H2" s="12" t="s">
         <v>37</v>
       </c>
+      <c r="I2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" t="s">
+        <v>213</v>
+      </c>
       <c r="K2" s="15" t="s">
         <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -16307,15 +14846,38 @@
       <c r="B3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="7"/>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>213</v>
+      </c>
       <c r="E3" s="15" t="s">
         <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>213</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>221</v>
       </c>
+      <c r="I3" t="s">
+        <v>221</v>
+      </c>
+      <c r="J3" t="s">
+        <v>213</v>
+      </c>
       <c r="K3" s="15" t="s">
         <v>1</v>
+      </c>
+      <c r="L3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -16325,15 +14887,38 @@
       <c r="B4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>213</v>
+      </c>
       <c r="E4" s="15" t="s">
         <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>213</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>222</v>
       </c>
+      <c r="I4" t="s">
+        <v>222</v>
+      </c>
+      <c r="J4" t="s">
+        <v>213</v>
+      </c>
       <c r="K4" s="15" t="s">
         <v>1</v>
+      </c>
+      <c r="L4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M4" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -16343,15 +14928,38 @@
       <c r="B5" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>213</v>
+      </c>
       <c r="E5" s="15" t="s">
         <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>213</v>
       </c>
       <c r="H5" s="12" t="s">
         <v>223</v>
       </c>
+      <c r="I5" t="s">
+        <v>223</v>
+      </c>
+      <c r="J5" t="s">
+        <v>213</v>
+      </c>
       <c r="K5" s="15" t="s">
         <v>1</v>
+      </c>
+      <c r="L5" t="s">
+        <v>1</v>
+      </c>
+      <c r="M5" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -16361,15 +14969,38 @@
       <c r="B6" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="7"/>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>213</v>
+      </c>
       <c r="E6" s="15" t="s">
         <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>213</v>
       </c>
       <c r="H6" s="12" t="s">
         <v>224</v>
       </c>
+      <c r="I6" t="s">
+        <v>224</v>
+      </c>
+      <c r="J6" t="s">
+        <v>213</v>
+      </c>
       <c r="K6" s="15" t="s">
         <v>1</v>
+      </c>
+      <c r="L6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M6" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -16379,15 +15010,38 @@
       <c r="B7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="7"/>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>213</v>
+      </c>
       <c r="E7" s="15" t="s">
         <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>213</v>
       </c>
       <c r="H7" s="12" t="s">
         <v>225</v>
       </c>
+      <c r="I7" t="s">
+        <v>225</v>
+      </c>
+      <c r="J7" t="s">
+        <v>213</v>
+      </c>
       <c r="K7" s="15" t="s">
         <v>11</v>
+      </c>
+      <c r="L7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M7" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -16397,15 +15051,38 @@
       <c r="B8" s="12" t="s">
         <v>318</v>
       </c>
-      <c r="D8" s="7"/>
+      <c r="C8" t="s">
+        <v>318</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>213</v>
+      </c>
       <c r="E8" s="15" t="s">
         <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>213</v>
       </c>
       <c r="H8" s="12" t="s">
         <v>314</v>
       </c>
+      <c r="I8" t="s">
+        <v>314</v>
+      </c>
+      <c r="J8" t="s">
+        <v>213</v>
+      </c>
       <c r="K8" s="15" t="s">
         <v>318</v>
+      </c>
+      <c r="L8" t="s">
+        <v>318</v>
+      </c>
+      <c r="M8" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -16415,15 +15092,38 @@
       <c r="B9" s="12" t="s">
         <v>318</v>
       </c>
-      <c r="D9" s="34"/>
+      <c r="C9" t="s">
+        <v>318</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>213</v>
+      </c>
       <c r="E9" s="15" t="s">
         <v>11</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" t="s">
+        <v>213</v>
       </c>
       <c r="H9" s="12" t="s">
         <v>314</v>
       </c>
+      <c r="I9" t="s">
+        <v>314</v>
+      </c>
+      <c r="J9" t="s">
+        <v>213</v>
+      </c>
       <c r="K9" s="15" t="s">
         <v>318</v>
+      </c>
+      <c r="L9" t="s">
+        <v>318</v>
+      </c>
+      <c r="M9" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -16433,15 +15133,38 @@
       <c r="B10" s="12" t="s">
         <v>318</v>
       </c>
-      <c r="D10" s="34"/>
+      <c r="C10" t="s">
+        <v>318</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>213</v>
+      </c>
       <c r="E10" s="15" t="s">
         <v>37</v>
+      </c>
+      <c r="F10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" t="s">
+        <v>213</v>
       </c>
       <c r="H10" s="12" t="s">
         <v>314</v>
       </c>
+      <c r="I10" t="s">
+        <v>314</v>
+      </c>
+      <c r="J10" t="s">
+        <v>213</v>
+      </c>
       <c r="K10" s="15" t="s">
         <v>318</v>
+      </c>
+      <c r="L10" t="s">
+        <v>318</v>
+      </c>
+      <c r="M10" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -16451,15 +15174,38 @@
       <c r="B11" s="12" t="s">
         <v>319</v>
       </c>
-      <c r="D11" s="34"/>
+      <c r="C11" t="s">
+        <v>319</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>213</v>
+      </c>
       <c r="E11" s="15" t="s">
         <v>37</v>
+      </c>
+      <c r="F11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" t="s">
+        <v>213</v>
       </c>
       <c r="H11" s="12" t="s">
         <v>314</v>
       </c>
+      <c r="I11" t="s">
+        <v>314</v>
+      </c>
+      <c r="J11" t="s">
+        <v>213</v>
+      </c>
       <c r="K11" s="15" t="s">
         <v>319</v>
+      </c>
+      <c r="L11" t="s">
+        <v>319</v>
+      </c>
+      <c r="M11" t="s">
+        <v>213</v>
       </c>
     </row>
   </sheetData>

--- a/PayrollProject/OutPutTestResult/HMRC Payroll NI Output Test result tax year 201920.xlsx
+++ b/PayrollProject/OutPutTestResult/HMRC Payroll NI Output Test result tax year 201920.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr documentId="13_ncr:1_{ED243A53-A6A0-4A8D-BD39-26164E53EEA9}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37"/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="3" windowHeight="4650" windowWidth="11370" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="3780"/>
+    <workbookView activeTab="21" firstSheet="3" windowHeight="4650" windowWidth="11370" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="3780"/>
   </bookViews>
   <sheets>
     <sheet name="NI2WeeklyCAReport" r:id="rId1" sheetId="33"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4127" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4278" uniqueCount="344">
   <si>
     <t>EmployeeName</t>
   </si>
@@ -1090,7 +1090,7 @@
     <numFmt numFmtId="165" formatCode="###0.00"/>
     <numFmt numFmtId="166" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="125">
+  <fonts count="235">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1189,6 +1189,666 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1907,7 +2567,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="56">
+  <borders count="111">
     <border>
       <left/>
       <right/>
@@ -2080,12 +2740,177 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="13" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="182">
+  <cellXfs count="292">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="8" numFmtId="164" xfId="0">
@@ -2366,8 +3191,118 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="53" fillId="0" fontId="120" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="121" numFmtId="166" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="122" numFmtId="49" xfId="0"/>
-    <xf numFmtId="166" fontId="123" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="124" fillId="0" borderId="55" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="123" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="55" fillId="0" fontId="124" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="125" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="56" fillId="0" fontId="126" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="127" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="57" fillId="0" fontId="128" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="129" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="58" fillId="0" fontId="130" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="131" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="59" fillId="0" fontId="132" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="133" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="60" fillId="0" fontId="134" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="135" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="61" fillId="0" fontId="136" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="137" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="62" fillId="0" fontId="138" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="139" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="63" fillId="0" fontId="140" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="141" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="64" fillId="0" fontId="142" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="143" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="65" fillId="0" fontId="144" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="145" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="66" fillId="0" fontId="146" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="147" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="67" fillId="0" fontId="148" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="149" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="68" fillId="0" fontId="150" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="151" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="69" fillId="0" fontId="152" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="153" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="70" fillId="0" fontId="154" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="155" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="71" fillId="0" fontId="156" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="157" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="72" fillId="0" fontId="158" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="159" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="73" fillId="0" fontId="160" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="161" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="74" fillId="0" fontId="162" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="163" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="75" fillId="0" fontId="164" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="165" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="76" fillId="0" fontId="166" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="167" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="77" fillId="0" fontId="168" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="169" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="78" fillId="0" fontId="170" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="171" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="79" fillId="0" fontId="172" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="173" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="80" fillId="0" fontId="174" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="175" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="81" fillId="0" fontId="176" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="177" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="82" fillId="0" fontId="178" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="179" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="83" fillId="0" fontId="180" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="181" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="84" fillId="0" fontId="182" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="183" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="85" fillId="0" fontId="184" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="185" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="86" fillId="0" fontId="186" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="187" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="87" fillId="0" fontId="188" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="189" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="88" fillId="0" fontId="190" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="191" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="89" fillId="0" fontId="192" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="193" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="90" fillId="0" fontId="194" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="195" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="91" fillId="0" fontId="196" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="197" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="92" fillId="0" fontId="198" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="199" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="93" fillId="0" fontId="200" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="201" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="94" fillId="0" fontId="202" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="203" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="95" fillId="0" fontId="204" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="205" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="96" fillId="0" fontId="206" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="207" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="97" fillId="0" fontId="208" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="209" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="98" fillId="0" fontId="210" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="211" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="99" fillId="0" fontId="212" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="213" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="100" fillId="0" fontId="214" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="215" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="101" fillId="0" fontId="216" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="217" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="102" fillId="0" fontId="218" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="219" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="103" fillId="0" fontId="220" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="221" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="104" fillId="0" fontId="222" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="223" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="105" fillId="0" fontId="224" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="225" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="106" fillId="0" fontId="226" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="227" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="107" fillId="0" fontId="228" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="229" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="108" fillId="0" fontId="230" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="231" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="109" fillId="0" fontId="232" numFmtId="49" xfId="0"/>
+    <xf numFmtId="166" fontId="233" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="234" fillId="0" borderId="110" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -9527,19 +10462,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="39.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="17.140625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="39.12890625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.04296875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.50390625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.13671875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="19.71484375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="17.17578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="25.94921875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="23.4296875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="20.890625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5390625" collapsed="true"/>
     <col min="12" max="12" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="29.7734375" collapsed="true"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="47.25" r="1" spans="1:13">

--- a/PayrollProject/OutPutTestResult/HMRC Payroll NI Output Test result tax year 201920.xlsx
+++ b/PayrollProject/OutPutTestResult/HMRC Payroll NI Output Test result tax year 201920.xlsx
@@ -1,53 +1,53 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AzizMugdal\git\24-7PeopleXCDPayroll\PayrollProject\OutPutTestResult\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{ED243A53-A6A0-4A8D-BD39-26164E53EEA9}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C9607CC-43F1-4BEF-BED8-50B61297A0D6}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="21" firstSheet="3" windowHeight="4650" windowWidth="11370" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="3780"/>
+    <workbookView xWindow="0" yWindow="5040" windowWidth="11370" windowHeight="4650" firstSheet="25" activeTab="27" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="NI2WeeklyCAReport" r:id="rId1" sheetId="33"/>
-    <sheet name="NI2WeeklyCBReport" r:id="rId2" sheetId="4"/>
-    <sheet name="NI2WeeklyCCReport" r:id="rId3" sheetId="5"/>
-    <sheet name="NI2WeeklyCHReport" r:id="rId4" sheetId="6"/>
-    <sheet name="NI2WeeklyCJReport" r:id="rId5" sheetId="7"/>
-    <sheet name="NI2WeeklyCMReport" r:id="rId6" sheetId="8"/>
-    <sheet name="NI2WeeklyCZReport" r:id="rId7" sheetId="9"/>
-    <sheet name="NIMonthlyCAReport" r:id="rId8" sheetId="10"/>
-    <sheet name="NIMonthlyCBReport" r:id="rId9" sheetId="11"/>
-    <sheet name="NIMonthlyCCReport" r:id="rId10" sheetId="13"/>
-    <sheet name="NIMonthlyCHReport" r:id="rId11" sheetId="35"/>
-    <sheet name="NIMonthlyCJReport" r:id="rId12" sheetId="36"/>
-    <sheet name="NIMonthlyCMReport" r:id="rId13" sheetId="16"/>
-    <sheet name="NIMonthlyCZReport" r:id="rId14" sheetId="17"/>
-    <sheet name="NIWeeklyCAReport" r:id="rId15" sheetId="18"/>
-    <sheet name="NIWeeklyCBReport" r:id="rId16" sheetId="19"/>
-    <sheet name="NIWeeklyCCReport" r:id="rId17" sheetId="20"/>
-    <sheet name="NIWeeklyCHReport" r:id="rId18" sheetId="21"/>
-    <sheet name="NIWeeklyCJReport" r:id="rId19" sheetId="22"/>
-    <sheet name="NIWeeklyCMReport" r:id="rId20" sheetId="23"/>
-    <sheet name="NIWeeklyCZReport" r:id="rId21" sheetId="24"/>
-    <sheet name="NIFourWeeklyCAReport" r:id="rId22" sheetId="25"/>
-    <sheet name="NIFourWeeklyCBReport" r:id="rId23" sheetId="26"/>
-    <sheet name="NIFourWeeklyCCReport" r:id="rId24" sheetId="27"/>
-    <sheet name="NIFourWeeklyCHReport" r:id="rId25" sheetId="28"/>
-    <sheet name="NIFourWeeklyCJReport" r:id="rId26" sheetId="29"/>
-    <sheet name="NIFourWeeklyCMReport" r:id="rId27" sheetId="34"/>
-    <sheet name="NIFourWeeklyCZReport" r:id="rId28" sheetId="31"/>
+    <sheet name="NI2WeeklyCAReport" sheetId="33" r:id="rId1"/>
+    <sheet name="NI2WeeklyCBReport" sheetId="4" r:id="rId2"/>
+    <sheet name="NI2WeeklyCCReport" sheetId="5" r:id="rId3"/>
+    <sheet name="NI2WeeklyCHReport" sheetId="6" r:id="rId4"/>
+    <sheet name="NI2WeeklyCJReport" sheetId="7" r:id="rId5"/>
+    <sheet name="NI2WeeklyCMReport" sheetId="8" r:id="rId6"/>
+    <sheet name="NI2WeeklyCZReport" sheetId="9" r:id="rId7"/>
+    <sheet name="NIMonthlyCAReport" sheetId="10" r:id="rId8"/>
+    <sheet name="NIMonthlyCBReport" sheetId="11" r:id="rId9"/>
+    <sheet name="NIMonthlyCCReport" sheetId="13" r:id="rId10"/>
+    <sheet name="NIMonthlyCHReport" sheetId="35" r:id="rId11"/>
+    <sheet name="NIMonthlyCJReport" sheetId="36" r:id="rId12"/>
+    <sheet name="NIMonthlyCMReport" sheetId="16" r:id="rId13"/>
+    <sheet name="NIMonthlyCZReport" sheetId="17" r:id="rId14"/>
+    <sheet name="NIWeeklyCAReport" sheetId="18" r:id="rId15"/>
+    <sheet name="NIWeeklyCBReport" sheetId="19" r:id="rId16"/>
+    <sheet name="NIWeeklyCCReport" sheetId="20" r:id="rId17"/>
+    <sheet name="NIWeeklyCHReport" sheetId="21" r:id="rId18"/>
+    <sheet name="NIWeeklyCJReport" sheetId="22" r:id="rId19"/>
+    <sheet name="NIWeeklyCMReport" sheetId="23" r:id="rId20"/>
+    <sheet name="NIWeeklyCZReport" sheetId="24" r:id="rId21"/>
+    <sheet name="NIFourWeeklyCAReport" sheetId="25" r:id="rId22"/>
+    <sheet name="NIFourWeeklyCBReport" sheetId="26" r:id="rId23"/>
+    <sheet name="NIFourWeeklyCCReport" sheetId="27" r:id="rId24"/>
+    <sheet name="NIFourWeeklyCHReport" sheetId="28" r:id="rId25"/>
+    <sheet name="NIFourWeeklyCJReport" sheetId="29" r:id="rId26"/>
+    <sheet name="NIFourWeeklyCMReport" sheetId="34" r:id="rId27"/>
+    <sheet name="NIFourWeeklyCZReport" sheetId="31" r:id="rId28"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4278" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3976" uniqueCount="344">
   <si>
     <t>EmployeeName</t>
   </si>
@@ -1085,12 +1085,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;£&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="###0.00"/>
-    <numFmt numFmtId="166" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="235">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1190,1326 +1189,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="12.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="10.0"/>
-      <color indexed="10"/>
-      <b val="true"/>
-    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -2567,7 +1246,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="111">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -2575,741 +1254,191 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="13" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="292">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="8" numFmtId="164" xfId="0">
+  <cellXfs count="72">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="9" numFmtId="49" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="10" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="8" numFmtId="4" xfId="0">
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="5" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="8" numFmtId="4" xfId="0">
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="8" numFmtId="164" xfId="0">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="8" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="9" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="3" numFmtId="49" xfId="0">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="5" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="6" fontId="3" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="6" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="7" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="7" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="8" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="9" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyBorder="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="15" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="1" fillId="0" fontId="16" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="17" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="18" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="19" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="3" fillId="0" fontId="20" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="21" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="22" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="23" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="5" fillId="0" fontId="24" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="25" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="6" fillId="0" fontId="26" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="27" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="7" fillId="0" fontId="28" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="29" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="8" fillId="0" fontId="30" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="31" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="9" fillId="0" fontId="32" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="33" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="10" fillId="0" fontId="34" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="35" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="11" fillId="0" fontId="36" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="37" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="12" fillId="0" fontId="38" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="39" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="13" fillId="0" fontId="40" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="41" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="14" fillId="0" fontId="42" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="43" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="15" fillId="0" fontId="44" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="45" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="16" fillId="0" fontId="46" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="47" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="17" fillId="0" fontId="48" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="49" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="18" fillId="0" fontId="50" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="51" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="19" fillId="0" fontId="52" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="53" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="20" fillId="0" fontId="54" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="55" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="21" fillId="0" fontId="56" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="57" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="22" fillId="0" fontId="58" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="59" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="23" fillId="0" fontId="60" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="61" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="24" fillId="0" fontId="62" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="63" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="25" fillId="0" fontId="64" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="65" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="26" fillId="0" fontId="66" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="67" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="27" fillId="0" fontId="68" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="69" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="28" fillId="0" fontId="70" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="71" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="29" fillId="0" fontId="72" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="73" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="30" fillId="0" fontId="74" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="75" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="31" fillId="0" fontId="76" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="77" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="32" fillId="0" fontId="78" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="79" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="33" fillId="0" fontId="80" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="81" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="34" fillId="0" fontId="82" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="83" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="35" fillId="0" fontId="84" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="85" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="36" fillId="0" fontId="86" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="87" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="37" fillId="0" fontId="88" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="89" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="38" fillId="0" fontId="90" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="91" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="39" fillId="0" fontId="92" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="93" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="40" fillId="0" fontId="94" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="95" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="41" fillId="0" fontId="96" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="97" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="42" fillId="0" fontId="98" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="99" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="43" fillId="0" fontId="100" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="101" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="44" fillId="0" fontId="102" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="103" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="45" fillId="0" fontId="104" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="105" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="46" fillId="0" fontId="106" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="107" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="47" fillId="0" fontId="108" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="109" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="48" fillId="0" fontId="110" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="111" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="49" fillId="0" fontId="112" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="113" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="50" fillId="0" fontId="114" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="115" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="51" fillId="0" fontId="116" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="117" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="52" fillId="0" fontId="118" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="119" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="53" fillId="0" fontId="120" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="121" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="122" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="123" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="55" fillId="0" fontId="124" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="125" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="56" fillId="0" fontId="126" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="127" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="57" fillId="0" fontId="128" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="129" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="58" fillId="0" fontId="130" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="131" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="59" fillId="0" fontId="132" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="133" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="60" fillId="0" fontId="134" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="135" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="61" fillId="0" fontId="136" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="137" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="62" fillId="0" fontId="138" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="139" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="63" fillId="0" fontId="140" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="141" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="64" fillId="0" fontId="142" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="143" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="65" fillId="0" fontId="144" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="145" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="66" fillId="0" fontId="146" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="147" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="67" fillId="0" fontId="148" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="149" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="68" fillId="0" fontId="150" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="151" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="69" fillId="0" fontId="152" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="153" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="70" fillId="0" fontId="154" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="155" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="71" fillId="0" fontId="156" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="157" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="72" fillId="0" fontId="158" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="159" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="73" fillId="0" fontId="160" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="161" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="74" fillId="0" fontId="162" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="163" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="75" fillId="0" fontId="164" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="165" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="76" fillId="0" fontId="166" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="167" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="77" fillId="0" fontId="168" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="169" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="78" fillId="0" fontId="170" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="171" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="79" fillId="0" fontId="172" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="173" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="80" fillId="0" fontId="174" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="175" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="81" fillId="0" fontId="176" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="177" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="82" fillId="0" fontId="178" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="179" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="83" fillId="0" fontId="180" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="181" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="84" fillId="0" fontId="182" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="183" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="85" fillId="0" fontId="184" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="185" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="86" fillId="0" fontId="186" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="187" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="87" fillId="0" fontId="188" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="189" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="88" fillId="0" fontId="190" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="191" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="89" fillId="0" fontId="192" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="193" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="90" fillId="0" fontId="194" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="195" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="91" fillId="0" fontId="196" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="197" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="92" fillId="0" fontId="198" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="199" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="93" fillId="0" fontId="200" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="201" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="94" fillId="0" fontId="202" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="203" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="95" fillId="0" fontId="204" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="205" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="96" fillId="0" fontId="206" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="207" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="97" fillId="0" fontId="208" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="209" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="98" fillId="0" fontId="210" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="211" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="99" fillId="0" fontId="212" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="213" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="100" fillId="0" fontId="214" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="215" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="101" fillId="0" fontId="216" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="217" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="102" fillId="0" fontId="218" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="219" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="103" fillId="0" fontId="220" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="221" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="104" fillId="0" fontId="222" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="223" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="105" fillId="0" fontId="224" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="225" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="106" fillId="0" fontId="226" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="227" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="107" fillId="0" fontId="228" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="229" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="108" fillId="0" fontId="230" numFmtId="49" xfId="0"/>
-    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="231" numFmtId="166" xfId="0"/>
-    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="109" fillId="0" fontId="232" numFmtId="49" xfId="0"/>
-    <xf numFmtId="166" fontId="233" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="234" fillId="0" borderId="110" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -3326,10 +1455,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -3493,21 +1622,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -3524,7 +1653,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -3578,7 +1707,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34F72FA2-57A0-4B2D-A21C-941F8BC29773}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34F72FA2-57A0-4B2D-A21C-941F8BC29773}">
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3587,22 +1716,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="37.07421875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="20.04296875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="17.50390625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="27.13671875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="19.71484375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="17.17578125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="25.94921875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="23.4296875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="20.890625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5390625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="29.7734375" collapsed="true"/>
+    <col min="1" max="1" width="37.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="21" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="30.75" r="1" spans="1:13">
+    <row r="1" spans="1:13" ht="30.75" customHeight="1">
       <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
@@ -3643,7 +1772,7 @@
         <v>299</v>
       </c>
     </row>
-    <row customHeight="1" ht="29.25" r="2" spans="1:13">
+    <row r="2" spans="1:13" ht="29.25" customHeight="1">
       <c r="A2" s="22" t="s">
         <v>2</v>
       </c>
@@ -3684,7 +1813,7 @@
         <v>213</v>
       </c>
     </row>
-    <row customHeight="1" ht="24.75" r="3" spans="1:13">
+    <row r="3" spans="1:13" ht="24.75" customHeight="1">
       <c r="A3" s="22" t="s">
         <v>3</v>
       </c>
@@ -3725,7 +1854,7 @@
         <v>213</v>
       </c>
     </row>
-    <row customHeight="1" ht="30.75" r="4" spans="1:13">
+    <row r="4" spans="1:13" ht="30.75" customHeight="1">
       <c r="A4" s="22" t="s">
         <v>4</v>
       </c>
@@ -3766,7 +1895,7 @@
         <v>213</v>
       </c>
     </row>
-    <row customHeight="1" ht="30.75" r="5" spans="1:13">
+    <row r="5" spans="1:13" ht="30.75" customHeight="1">
       <c r="A5" s="22" t="s">
         <v>5</v>
       </c>
@@ -3807,7 +1936,7 @@
         <v>213</v>
       </c>
     </row>
-    <row customHeight="1" ht="25.5" r="6" spans="1:13">
+    <row r="6" spans="1:13" ht="25.5" customHeight="1">
       <c r="A6" s="22" t="s">
         <v>6</v>
       </c>
@@ -3848,7 +1977,7 @@
         <v>213</v>
       </c>
     </row>
-    <row customHeight="1" ht="24.75" r="7" spans="1:13">
+    <row r="7" spans="1:13" ht="24.75" customHeight="1">
       <c r="A7" s="22" t="s">
         <v>7</v>
       </c>
@@ -3889,7 +2018,7 @@
         <v>213</v>
       </c>
     </row>
-    <row customHeight="1" ht="24" r="8" spans="1:13">
+    <row r="8" spans="1:13" ht="24" customHeight="1">
       <c r="A8" s="22" t="s">
         <v>8</v>
       </c>
@@ -3930,7 +2059,7 @@
         <v>213</v>
       </c>
     </row>
-    <row customHeight="1" ht="33" r="9" spans="1:13">
+    <row r="9" spans="1:13" ht="33" customHeight="1">
       <c r="A9" s="22" t="s">
         <v>9</v>
       </c>
@@ -3971,7 +2100,7 @@
         <v>213</v>
       </c>
     </row>
-    <row customHeight="1" ht="24" r="10" spans="1:13">
+    <row r="10" spans="1:13" ht="24" customHeight="1">
       <c r="A10" s="22" t="s">
         <v>10</v>
       </c>
@@ -4012,7 +2141,7 @@
         <v>213</v>
       </c>
     </row>
-    <row customHeight="1" ht="27" r="11" spans="1:13">
+    <row r="11" spans="1:13" ht="27" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>263</v>
       </c>
@@ -4053,7 +2182,7 @@
         <v>213</v>
       </c>
     </row>
-    <row customHeight="1" ht="23.25" r="12" spans="1:13">
+    <row r="12" spans="1:13" ht="23.25" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>264</v>
       </c>
@@ -4095,12 +2224,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD509B95-552A-4B73-AAA1-3B581A11A07B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD509B95-552A-4B73-AAA1-3B581A11A07B}">
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4109,22 +2238,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="37.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="17.140625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="25.42578125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="1" max="1" width="37.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="25.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="21" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="47.25" r="1" spans="1:13">
+    <row r="1" spans="1:13" ht="47.25" customHeight="1">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -4576,12 +2705,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{734F0C59-6E5F-4AE9-A477-05F4174621EE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{734F0C59-6E5F-4AE9-A477-05F4174621EE}">
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4590,22 +2719,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="37.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="17.140625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="1" max="1" width="37.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="21" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="47.25" r="1" s="57" spans="1:13">
+    <row r="1" spans="1:13" s="57" customFormat="1" ht="47.25" customHeight="1">
       <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
@@ -4646,7 +2775,7 @@
         <v>299</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="60" spans="1:13">
+    <row r="2" spans="1:13" s="60" customFormat="1">
       <c r="A2" s="58" t="s">
         <v>86</v>
       </c>
@@ -4687,7 +2816,7 @@
         <v>213</v>
       </c>
     </row>
-    <row customFormat="1" r="3" s="60" spans="1:13">
+    <row r="3" spans="1:13" s="60" customFormat="1">
       <c r="A3" s="58" t="s">
         <v>87</v>
       </c>
@@ -4728,7 +2857,7 @@
         <v>213</v>
       </c>
     </row>
-    <row customFormat="1" r="4" s="60" spans="1:13">
+    <row r="4" spans="1:13" s="60" customFormat="1">
       <c r="A4" s="58" t="s">
         <v>88</v>
       </c>
@@ -4769,7 +2898,7 @@
         <v>213</v>
       </c>
     </row>
-    <row customFormat="1" r="5" s="60" spans="1:13">
+    <row r="5" spans="1:13" s="60" customFormat="1">
       <c r="A5" s="58" t="s">
         <v>89</v>
       </c>
@@ -4810,7 +2939,7 @@
         <v>213</v>
       </c>
     </row>
-    <row customFormat="1" r="6" s="60" spans="1:13">
+    <row r="6" spans="1:13" s="60" customFormat="1">
       <c r="A6" s="58" t="s">
         <v>90</v>
       </c>
@@ -4851,7 +2980,7 @@
         <v>213</v>
       </c>
     </row>
-    <row customFormat="1" r="7" s="60" spans="1:13">
+    <row r="7" spans="1:13" s="60" customFormat="1">
       <c r="A7" s="58" t="s">
         <v>91</v>
       </c>
@@ -4892,7 +3021,7 @@
         <v>213</v>
       </c>
     </row>
-    <row customFormat="1" r="8" s="60" spans="1:13">
+    <row r="8" spans="1:13" s="60" customFormat="1">
       <c r="A8" s="58" t="s">
         <v>92</v>
       </c>
@@ -4933,7 +3062,7 @@
         <v>213</v>
       </c>
     </row>
-    <row customFormat="1" r="9" s="60" spans="1:13">
+    <row r="9" spans="1:13" s="60" customFormat="1">
       <c r="A9" s="60" t="s">
         <v>289</v>
       </c>
@@ -4974,7 +3103,7 @@
         <v>213</v>
       </c>
     </row>
-    <row customFormat="1" r="10" s="60" spans="1:13">
+    <row r="10" spans="1:13" s="60" customFormat="1">
       <c r="A10" s="60" t="s">
         <v>290</v>
       </c>
@@ -5015,7 +3144,7 @@
         <v>213</v>
       </c>
     </row>
-    <row customFormat="1" r="11" s="60" spans="1:13">
+    <row r="11" spans="1:13" s="60" customFormat="1">
       <c r="A11" s="60" t="s">
         <v>291</v>
       </c>
@@ -5057,12 +3186,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F489B8B4-03B0-4C90-9420-E0AB22EC195E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F489B8B4-03B0-4C90-9420-E0AB22EC195E}">
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5071,22 +3200,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="37.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="17.140625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="1" max="1" width="37.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="21" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="33.75" r="1" s="4" spans="1:13">
+    <row r="1" spans="1:13" s="4" customFormat="1" ht="33.75" customHeight="1">
       <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
@@ -5538,12 +3667,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDCB0BEA-C4D2-4659-9D1C-5D3C4EE914D8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDCB0BEA-C4D2-4659-9D1C-5D3C4EE914D8}">
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
@@ -5552,22 +3681,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="37.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="17.140625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="1" max="1" width="37.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="21" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="47.25" r="1" s="4" spans="1:13">
+    <row r="1" spans="1:13" s="4" customFormat="1" ht="47.25" customHeight="1">
       <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
@@ -6019,40 +4148,40 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3D4A22B-419C-4744-AB85-C09E8204D0B2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3D4A22B-419C-4744-AB85-C09E8204D0B2}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScaleNormal="100">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="65" width="37.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="65" width="20.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="65" width="17.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="65" width="27.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="65" width="19.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="65" width="17.140625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="65" width="26.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="65" width="23.42578125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="65" width="20.85546875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="65" width="29.7109375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="65" width="23.5703125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="65" width="21.0" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" style="65" width="29.7109375" collapsed="true"/>
-    <col min="14" max="16384" style="65" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="37.140625" style="65" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20" style="65" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.5703125" style="65" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="27.140625" style="65" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.7109375" style="65" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.140625" style="65" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26" style="65" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="23.42578125" style="65" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="20.85546875" style="65" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="29.7109375" style="65" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.5703125" style="65" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="21" style="65" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="29.7109375" style="65" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="16384" width="9.140625" style="65" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="27.75" r="1" s="62" spans="1:13">
+    <row r="1" spans="1:13" s="62" customFormat="1" ht="27.75" customHeight="1">
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
@@ -6093,7 +4222,7 @@
         <v>299</v>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="2" spans="1:13">
+    <row r="2" spans="1:13" ht="26.25" customHeight="1">
       <c r="A2" s="63" t="s">
         <v>109</v>
       </c>
@@ -6134,7 +4263,7 @@
         <v>213</v>
       </c>
     </row>
-    <row customHeight="1" ht="26.25" r="3" spans="1:13">
+    <row r="3" spans="1:13" ht="26.25" customHeight="1">
       <c r="A3" s="63" t="s">
         <v>110</v>
       </c>
@@ -6175,7 +4304,7 @@
         <v>213</v>
       </c>
     </row>
-    <row customHeight="1" ht="23.25" r="4" spans="1:13">
+    <row r="4" spans="1:13" ht="23.25" customHeight="1">
       <c r="A4" s="63" t="s">
         <v>111</v>
       </c>
@@ -6216,7 +4345,7 @@
         <v>213</v>
       </c>
     </row>
-    <row customHeight="1" ht="25.5" r="5" spans="1:13">
+    <row r="5" spans="1:13" ht="25.5" customHeight="1">
       <c r="A5" s="63" t="s">
         <v>112</v>
       </c>
@@ -6257,7 +4386,7 @@
         <v>213</v>
       </c>
     </row>
-    <row customHeight="1" ht="23.25" r="6" spans="1:13">
+    <row r="6" spans="1:13" ht="23.25" customHeight="1">
       <c r="A6" s="63" t="s">
         <v>113</v>
       </c>
@@ -6298,7 +4427,7 @@
         <v>213</v>
       </c>
     </row>
-    <row customHeight="1" ht="24" r="7" spans="1:13">
+    <row r="7" spans="1:13" ht="24" customHeight="1">
       <c r="A7" s="63" t="s">
         <v>114</v>
       </c>
@@ -6339,7 +4468,7 @@
         <v>213</v>
       </c>
     </row>
-    <row customHeight="1" ht="24" r="8" spans="1:13">
+    <row r="8" spans="1:13" ht="24" customHeight="1">
       <c r="A8" s="63" t="s">
         <v>115</v>
       </c>
@@ -6380,7 +4509,7 @@
         <v>213</v>
       </c>
     </row>
-    <row customHeight="1" ht="22.5" r="9" spans="1:13">
+    <row r="9" spans="1:13" ht="22.5" customHeight="1">
       <c r="A9" s="65" t="s">
         <v>296</v>
       </c>
@@ -6421,7 +4550,7 @@
         <v>213</v>
       </c>
     </row>
-    <row customHeight="1" ht="27" r="10" spans="1:13">
+    <row r="10" spans="1:13" ht="27" customHeight="1">
       <c r="A10" s="65" t="s">
         <v>297</v>
       </c>
@@ -6462,7 +4591,7 @@
         <v>213</v>
       </c>
     </row>
-    <row customHeight="1" ht="22.5" r="11" spans="1:13">
+    <row r="11" spans="1:13" ht="22.5" customHeight="1">
       <c r="A11" s="65" t="s">
         <v>298</v>
       </c>
@@ -6513,13 +4642,13 @@
       <c r="I17" s="70"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46F959A7-BC56-497D-B8C5-7F4054119E8D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46F959A7-BC56-497D-B8C5-7F4054119E8D}">
   <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView topLeftCell="G4" workbookViewId="0">
@@ -6528,23 +4657,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="35.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="17.140625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="75.140625" collapsed="true"/>
+    <col min="1" max="1" width="35.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="21" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="75.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="32.25" r="1" s="4" spans="1:15">
+    <row r="1" spans="1:15" s="4" customFormat="1" ht="32.25" customHeight="1">
       <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
@@ -6586,7 +4715,7 @@
       </c>
       <c r="O1" s="31"/>
     </row>
-    <row ht="30" r="2" spans="1:15">
+    <row r="2" spans="1:15" ht="30">
       <c r="A2" s="22" t="s">
         <v>2</v>
       </c>
@@ -6627,7 +4756,7 @@
         <v>213</v>
       </c>
     </row>
-    <row ht="30" r="3" spans="1:15">
+    <row r="3" spans="1:15" ht="30">
       <c r="A3" s="22" t="s">
         <v>3</v>
       </c>
@@ -6668,7 +4797,7 @@
         <v>213</v>
       </c>
     </row>
-    <row ht="30" r="4" spans="1:15">
+    <row r="4" spans="1:15" ht="30">
       <c r="A4" s="22" t="s">
         <v>4</v>
       </c>
@@ -6709,7 +4838,7 @@
         <v>213</v>
       </c>
     </row>
-    <row ht="30" r="5" spans="1:15">
+    <row r="5" spans="1:15" ht="30">
       <c r="A5" s="22" t="s">
         <v>5</v>
       </c>
@@ -6750,7 +4879,7 @@
         <v>213</v>
       </c>
     </row>
-    <row ht="30" r="6" spans="1:15">
+    <row r="6" spans="1:15" ht="30">
       <c r="A6" s="22" t="s">
         <v>6</v>
       </c>
@@ -6791,7 +4920,7 @@
         <v>213</v>
       </c>
     </row>
-    <row ht="30" r="7" spans="1:15">
+    <row r="7" spans="1:15" ht="30">
       <c r="A7" s="22" t="s">
         <v>7</v>
       </c>
@@ -6832,7 +4961,7 @@
         <v>213</v>
       </c>
     </row>
-    <row ht="30" r="8" spans="1:15">
+    <row r="8" spans="1:15" ht="30">
       <c r="A8" s="22" t="s">
         <v>8</v>
       </c>
@@ -6873,7 +5002,7 @@
         <v>213</v>
       </c>
     </row>
-    <row ht="30" r="9" spans="1:15">
+    <row r="9" spans="1:15" ht="30">
       <c r="A9" s="22" t="s">
         <v>9</v>
       </c>
@@ -6914,7 +5043,7 @@
         <v>213</v>
       </c>
     </row>
-    <row ht="30" r="10" spans="1:15">
+    <row r="10" spans="1:15" ht="30">
       <c r="A10" s="22" t="s">
         <v>10</v>
       </c>
@@ -7051,13 +5180,13 @@
       <c r="L13" s="25"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6693F9A1-2D12-4878-8B10-57875A837F73}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6693F9A1-2D12-4878-8B10-57875A837F73}">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7066,22 +5195,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="39.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="17.140625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="1" max="1" width="39.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="21" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="36.75" r="1" s="4" spans="1:13">
+    <row r="1" spans="1:13" s="4" customFormat="1" ht="36.75" customHeight="1">
       <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
@@ -7542,13 +5671,13 @@
       <c r="J16" s="71"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CCAF450-D838-4D0A-9377-0C9688C59049}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CCAF450-D838-4D0A-9377-0C9688C59049}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -7560,22 +5689,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="39.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="17.140625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="1" max="1" width="39.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="21" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="47.25" r="1" spans="1:13">
+    <row r="1" spans="1:13" ht="47.25" customHeight="1">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -8027,12 +6156,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AA0DF4E-EF72-4E33-A5FC-C9EB633E9A47}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AA0DF4E-EF72-4E33-A5FC-C9EB633E9A47}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -8044,22 +6173,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="39.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="17.140625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="1" max="1" width="39.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="21" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="47.25" r="1" spans="1:13">
+    <row r="1" spans="1:13" ht="47.25" customHeight="1">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -8511,12 +6640,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBD33C00-F8EF-4387-8505-A5B3395811FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBD33C00-F8EF-4387-8505-A5B3395811FB}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -8528,22 +6657,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="39.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="17.140625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="1" max="1" width="39.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="21" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="47.25" r="1" spans="1:13">
+    <row r="1" spans="1:13" ht="47.25" customHeight="1">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -8995,12 +7124,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DCC897F-D1E0-4A96-B2EE-32DA2865AE79}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DCC897F-D1E0-4A96-B2EE-32DA2865AE79}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -9012,22 +7141,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="37.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="17.140625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="1" max="1" width="37.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="21" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="47.25" r="1" spans="1:13">
+    <row r="1" spans="1:13" ht="47.25" customHeight="1">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -9479,12 +7608,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{081CF5B3-B626-4823-9177-2583326D20ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{081CF5B3-B626-4823-9177-2583326D20ED}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -9496,22 +7625,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="39.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="17.140625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="1" max="1" width="39.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="21" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="47.25" r="1" spans="1:13">
+    <row r="1" spans="1:13" ht="47.25" customHeight="1">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -9839,7 +7968,7 @@
         <v>213</v>
       </c>
     </row>
-    <row customHeight="1" ht="21.75" r="9" spans="1:13">
+    <row r="9" spans="1:13" ht="21.75" customHeight="1">
       <c r="A9" s="21" t="s">
         <v>239</v>
       </c>
@@ -9880,7 +8009,7 @@
         <v>213</v>
       </c>
     </row>
-    <row customHeight="1" ht="24.75" r="10" spans="1:13">
+    <row r="10" spans="1:13" ht="24.75" customHeight="1">
       <c r="A10" s="21" t="s">
         <v>240</v>
       </c>
@@ -9921,7 +8050,7 @@
         <v>213</v>
       </c>
     </row>
-    <row customHeight="1" ht="23.25" r="11" spans="1:13">
+    <row r="11" spans="1:13" ht="23.25" customHeight="1">
       <c r="A11" s="21" t="s">
         <v>241</v>
       </c>
@@ -9963,12 +8092,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AE77434-BDB6-4925-8AEB-DF38B4AD3203}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AE77434-BDB6-4925-8AEB-DF38B4AD3203}">
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9977,22 +8106,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="39.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="17.140625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="1" max="1" width="39.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="21" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="47.25" r="1" spans="1:13">
+    <row r="1" spans="1:13" ht="47.25" customHeight="1">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -10444,40 +8573,40 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54AE7F14-C03B-419D-9FD0-0B4AC5880298}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54AE7F14-C03B-419D-9FD0-0B4AC5880298}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="39.12890625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="20.04296875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="17.50390625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="27.13671875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="19.71484375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="17.17578125" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="25.94921875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="23.4296875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="20.890625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5390625" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="29.7734375" collapsed="true"/>
+    <col min="1" max="1" width="39.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="21" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="47.25" r="1" spans="1:13">
+    <row r="1" spans="1:13" ht="47.25" customHeight="1">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -10970,40 +9099,40 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{432CEA1D-6991-4BC1-AFF9-9C3BF074AE0D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{432CEA1D-6991-4BC1-AFF9-9C3BF074AE0D}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:M11"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="39.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="17.140625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="1" max="1" width="39.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="21" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="47.25" r="1" spans="1:13">
+    <row r="1" spans="1:13" ht="47.25" customHeight="1">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -11467,39 +9596,39 @@
       <c r="E13" s="11"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{928D7B68-3D2E-4B39-AD3A-4761C2BD9933}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{928D7B68-3D2E-4B39-AD3A-4761C2BD9933}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="39.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="17.140625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="1" max="1" width="39.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="21" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="47.25" r="1" spans="1:13">
+    <row r="1" spans="1:13" ht="47.25" customHeight="1">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -11957,13 +10086,13 @@
       <c r="G14" s="39"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EDDD2D8-453C-4BBB-89CA-194FD7B751CF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EDDD2D8-453C-4BBB-89CA-194FD7B751CF}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -11975,22 +10104,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="39.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="17.140625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="1" max="1" width="39.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="21" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="47.25" r="1" spans="1:13">
+    <row r="1" spans="1:13" ht="47.25" customHeight="1">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -12038,15 +10167,38 @@
       <c r="B2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>213</v>
+      </c>
       <c r="E2" s="15" t="s">
         <v>1</v>
       </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>213</v>
+      </c>
       <c r="H2" s="33" t="s">
         <v>37</v>
       </c>
+      <c r="I2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" t="s">
+        <v>213</v>
+      </c>
       <c r="K2" s="15" t="s">
         <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -12056,15 +10208,38 @@
       <c r="B3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>213</v>
+      </c>
       <c r="E3" s="15" t="s">
         <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>213</v>
       </c>
       <c r="H3" s="33" t="s">
         <v>221</v>
       </c>
+      <c r="I3" t="s">
+        <v>221</v>
+      </c>
+      <c r="J3" t="s">
+        <v>213</v>
+      </c>
       <c r="K3" s="15" t="s">
         <v>11</v>
+      </c>
+      <c r="L3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -12074,15 +10249,38 @@
       <c r="B4" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>213</v>
+      </c>
       <c r="E4" s="15" t="s">
         <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>213</v>
       </c>
       <c r="H4" s="33" t="s">
         <v>222</v>
       </c>
+      <c r="I4" t="s">
+        <v>222</v>
+      </c>
+      <c r="J4" t="s">
+        <v>213</v>
+      </c>
       <c r="K4" s="15" t="s">
         <v>11</v>
+      </c>
+      <c r="L4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -12092,15 +10290,38 @@
       <c r="B5" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>213</v>
+      </c>
       <c r="E5" s="15" t="s">
         <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>213</v>
       </c>
       <c r="H5" s="33" t="s">
         <v>223</v>
       </c>
+      <c r="I5" t="s">
+        <v>223</v>
+      </c>
+      <c r="J5" t="s">
+        <v>213</v>
+      </c>
       <c r="K5" s="15" t="s">
         <v>11</v>
+      </c>
+      <c r="L5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -12110,15 +10331,38 @@
       <c r="B6" s="15" t="s">
         <v>214</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="C6" t="s">
+        <v>214</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>213</v>
+      </c>
       <c r="E6" s="15" t="s">
         <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>213</v>
       </c>
       <c r="H6" s="33" t="s">
         <v>224</v>
       </c>
+      <c r="I6" t="s">
+        <v>224</v>
+      </c>
+      <c r="J6" t="s">
+        <v>213</v>
+      </c>
       <c r="K6" s="33" t="s">
         <v>214</v>
+      </c>
+      <c r="L6" t="s">
+        <v>214</v>
+      </c>
+      <c r="M6" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -12128,15 +10372,38 @@
       <c r="B7" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>213</v>
+      </c>
       <c r="E7" s="15" t="s">
         <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>213</v>
       </c>
       <c r="H7" s="33" t="s">
         <v>225</v>
       </c>
+      <c r="I7" t="s">
+        <v>225</v>
+      </c>
+      <c r="J7" t="s">
+        <v>213</v>
+      </c>
       <c r="K7" s="33" t="s">
         <v>37</v>
+      </c>
+      <c r="L7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M7" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -12146,15 +10413,38 @@
       <c r="B8" s="15" t="s">
         <v>320</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="C8" t="s">
+        <v>320</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>213</v>
+      </c>
       <c r="E8" s="15" t="s">
         <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>213</v>
       </c>
       <c r="H8" s="33" t="s">
         <v>327</v>
       </c>
+      <c r="I8" t="s">
+        <v>327</v>
+      </c>
+      <c r="J8" t="s">
+        <v>213</v>
+      </c>
       <c r="K8" s="33" t="s">
         <v>320</v>
+      </c>
+      <c r="L8" t="s">
+        <v>320</v>
+      </c>
+      <c r="M8" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -12164,15 +10454,38 @@
       <c r="B9" s="15" t="s">
         <v>320</v>
       </c>
-      <c r="D9" s="34"/>
+      <c r="C9" t="s">
+        <v>320</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>213</v>
+      </c>
       <c r="E9" s="15" t="s">
         <v>11</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" t="s">
+        <v>213</v>
       </c>
       <c r="H9" s="33" t="s">
         <v>327</v>
       </c>
+      <c r="I9" t="s">
+        <v>327</v>
+      </c>
+      <c r="J9" t="s">
+        <v>213</v>
+      </c>
       <c r="K9" s="33" t="s">
         <v>320</v>
+      </c>
+      <c r="L9" t="s">
+        <v>320</v>
+      </c>
+      <c r="M9" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -12182,15 +10495,38 @@
       <c r="B10" s="15" t="s">
         <v>320</v>
       </c>
-      <c r="D10" s="34"/>
+      <c r="C10" t="s">
+        <v>320</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>213</v>
+      </c>
       <c r="E10" s="15" t="s">
         <v>37</v>
+      </c>
+      <c r="F10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" t="s">
+        <v>213</v>
       </c>
       <c r="H10" s="33" t="s">
         <v>327</v>
       </c>
+      <c r="I10" t="s">
+        <v>327</v>
+      </c>
+      <c r="J10" t="s">
+        <v>213</v>
+      </c>
       <c r="K10" s="33" t="s">
         <v>320</v>
+      </c>
+      <c r="L10" t="s">
+        <v>320</v>
+      </c>
+      <c r="M10" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -12200,96 +10536,603 @@
       <c r="B11" s="15" t="s">
         <v>324</v>
       </c>
-      <c r="D11" s="34"/>
+      <c r="C11" t="s">
+        <v>324</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>213</v>
+      </c>
       <c r="E11" s="15" t="s">
         <v>37</v>
+      </c>
+      <c r="F11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" t="s">
+        <v>213</v>
       </c>
       <c r="H11" s="33" t="s">
         <v>327</v>
       </c>
+      <c r="I11" t="s">
+        <v>327</v>
+      </c>
+      <c r="J11" t="s">
+        <v>213</v>
+      </c>
       <c r="K11" s="33" t="s">
         <v>324</v>
       </c>
+      <c r="L11" t="s">
+        <v>324</v>
+      </c>
+      <c r="M11" t="s">
+        <v>213</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06C48AC9-F330-4A09-80E5-D6F115B6D1F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06C48AC9-F330-4A09-80E5-D6F115B6D1F9}">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:M11"/>
+  <sheetViews>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="39.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="21" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="47.25" customHeight="1">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="I1" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>300</v>
+      </c>
+      <c r="K1" s="18" t="s">
+        <v>303</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>304</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>213</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" t="s">
+        <v>213</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>213</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="I3" t="s">
+        <v>221</v>
+      </c>
+      <c r="J3" t="s">
+        <v>213</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>213</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="I4" t="s">
+        <v>222</v>
+      </c>
+      <c r="J4" t="s">
+        <v>213</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="L4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>213</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="I5" t="s">
+        <v>223</v>
+      </c>
+      <c r="J5" t="s">
+        <v>213</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="L5" t="s">
+        <v>1</v>
+      </c>
+      <c r="M5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" t="s">
+        <v>213</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="I6" t="s">
+        <v>224</v>
+      </c>
+      <c r="J6" t="s">
+        <v>213</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="L6" t="s">
+        <v>1</v>
+      </c>
+      <c r="M6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" t="s">
+        <v>213</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="I7" t="s">
+        <v>225</v>
+      </c>
+      <c r="J7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="C8" t="s">
+        <v>330</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="F8" t="s">
+        <v>321</v>
+      </c>
+      <c r="G8" t="s">
+        <v>213</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="I8" t="s">
+        <v>327</v>
+      </c>
+      <c r="J8" t="s">
+        <v>213</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="L8" t="s">
+        <v>330</v>
+      </c>
+      <c r="M8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="C9" t="s">
+        <v>330</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="F9" t="s">
+        <v>322</v>
+      </c>
+      <c r="G9" t="s">
+        <v>213</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="I9" t="s">
+        <v>327</v>
+      </c>
+      <c r="J9" t="s">
+        <v>213</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="L9" t="s">
+        <v>330</v>
+      </c>
+      <c r="M9" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>330</v>
+      </c>
+      <c r="C10" t="s">
+        <v>330</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="F10" t="s">
+        <v>323</v>
+      </c>
+      <c r="G10" t="s">
+        <v>213</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="I10" t="s">
+        <v>327</v>
+      </c>
+      <c r="J10" t="s">
+        <v>213</v>
+      </c>
+      <c r="K10" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="L10" t="s">
+        <v>330</v>
+      </c>
+      <c r="M10" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="C11" t="s">
+        <v>331</v>
+      </c>
+      <c r="D11" s="40" t="s">
+        <v>213</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="F11" t="s">
+        <v>323</v>
+      </c>
+      <c r="G11" t="s">
+        <v>213</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="I11" t="s">
+        <v>327</v>
+      </c>
+      <c r="J11" t="s">
+        <v>213</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="L11" t="s">
+        <v>331</v>
+      </c>
+      <c r="M11" t="s">
+        <v>213</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D072EF3-C383-438B-A84C-F3EBA934BAA2}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="39.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="17.140625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="1" max="1" width="39.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="21" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="47.25" r="1" spans="1:13">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:13" s="4" customFormat="1" ht="31.5" customHeight="1">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="28" t="s">
         <v>301</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="28" t="s">
         <v>302</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="28" t="s">
         <v>300</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="28" t="s">
         <v>303</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="L1" s="28" t="s">
         <v>304</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="M1" s="28" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="B2" s="12" t="s">
+    <row r="2" spans="1:13" s="4" customFormat="1">
+      <c r="A2" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2" s="50" t="s">
         <v>1</v>
       </c>
       <c r="C2" t="s">
@@ -12298,7 +11141,7 @@
       <c r="D2" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="50" t="s">
         <v>1</v>
       </c>
       <c r="F2" t="s">
@@ -12307,7 +11150,7 @@
       <c r="G2" t="s">
         <v>213</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="51" t="s">
         <v>37</v>
       </c>
       <c r="I2" t="s">
@@ -12316,7 +11159,7 @@
       <c r="J2" t="s">
         <v>213</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="51" t="s">
         <v>1</v>
       </c>
       <c r="L2" t="s">
@@ -12326,29 +11169,29 @@
         <v>213</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>1</v>
+    <row r="3" spans="1:13" s="4" customFormat="1">
+      <c r="A3" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B3" s="50" t="s">
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="E3" s="15" t="s">
-        <v>11</v>
+      <c r="E3" s="50" t="s">
+        <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G3" t="s">
         <v>213</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="51" t="s">
         <v>221</v>
       </c>
       <c r="I3" t="s">
@@ -12357,39 +11200,39 @@
       <c r="J3" t="s">
         <v>213</v>
       </c>
-      <c r="K3" s="15" t="s">
-        <v>1</v>
+      <c r="K3" s="51" t="s">
+        <v>11</v>
       </c>
       <c r="L3" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="M3" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>1</v>
+    <row r="4" spans="1:13" s="4" customFormat="1">
+      <c r="A4" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B4" s="50" t="s">
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="E4" s="15" t="s">
-        <v>11</v>
+      <c r="E4" s="50" t="s">
+        <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G4" t="s">
         <v>213</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="51" t="s">
         <v>222</v>
       </c>
       <c r="I4" t="s">
@@ -12398,39 +11241,39 @@
       <c r="J4" t="s">
         <v>213</v>
       </c>
-      <c r="K4" s="15" t="s">
-        <v>1</v>
+      <c r="K4" s="51" t="s">
+        <v>11</v>
       </c>
       <c r="L4" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="M4" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>1</v>
+    <row r="5" spans="1:13" s="4" customFormat="1">
+      <c r="A5" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B5" s="50" t="s">
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="E5" s="15" t="s">
-        <v>11</v>
+      <c r="E5" s="50" t="s">
+        <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G5" t="s">
         <v>213</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="51" t="s">
         <v>223</v>
       </c>
       <c r="I5" t="s">
@@ -12439,39 +11282,39 @@
       <c r="J5" t="s">
         <v>213</v>
       </c>
-      <c r="K5" s="15" t="s">
-        <v>1</v>
+      <c r="K5" s="51" t="s">
+        <v>11</v>
       </c>
       <c r="L5" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="M5" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>1</v>
+    <row r="6" spans="1:13" s="4" customFormat="1">
+      <c r="A6" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B6" s="50" t="s">
+        <v>214</v>
       </c>
       <c r="C6" t="s">
-        <v>1</v>
+        <v>214</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="E6" s="15" t="s">
-        <v>37</v>
+      <c r="E6" s="50" t="s">
+        <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="G6" t="s">
         <v>213</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="51" t="s">
         <v>224</v>
       </c>
       <c r="I6" t="s">
@@ -12480,39 +11323,39 @@
       <c r="J6" t="s">
         <v>213</v>
       </c>
-      <c r="K6" s="15" t="s">
-        <v>1</v>
+      <c r="K6" s="51" t="s">
+        <v>214</v>
       </c>
       <c r="L6" t="s">
-        <v>1</v>
+        <v>214</v>
       </c>
       <c r="M6" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>11</v>
+    <row r="7" spans="1:13" s="4" customFormat="1">
+      <c r="A7" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B7" s="50" t="s">
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="E7" s="15" t="s">
-        <v>37</v>
+      <c r="E7" s="50" t="s">
+        <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="G7" t="s">
         <v>213</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="51" t="s">
         <v>225</v>
       </c>
       <c r="I7" t="s">
@@ -12521,39 +11364,39 @@
       <c r="J7" t="s">
         <v>213</v>
       </c>
-      <c r="K7" s="15" t="s">
-        <v>11</v>
+      <c r="K7" s="51" t="s">
+        <v>37</v>
       </c>
       <c r="L7" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="M7" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>330</v>
+    <row r="8" spans="1:13" s="4" customFormat="1">
+      <c r="A8" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B8" s="50" t="s">
+        <v>320</v>
       </c>
       <c r="C8" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="E8" s="15" t="s">
-        <v>321</v>
+      <c r="E8" s="50" t="s">
+        <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>321</v>
+        <v>1</v>
       </c>
       <c r="G8" t="s">
         <v>213</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="51" t="s">
         <v>327</v>
       </c>
       <c r="I8" t="s">
@@ -12562,39 +11405,39 @@
       <c r="J8" t="s">
         <v>213</v>
       </c>
-      <c r="K8" s="15" t="s">
-        <v>330</v>
+      <c r="K8" s="51" t="s">
+        <v>320</v>
       </c>
       <c r="L8" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="M8" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>330</v>
+    <row r="9" spans="1:13" s="4" customFormat="1">
+      <c r="A9" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="B9" s="50" t="s">
+        <v>320</v>
       </c>
       <c r="C9" t="s">
-        <v>330</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>322</v>
+        <v>320</v>
+      </c>
+      <c r="D9" s="52" t="s">
+        <v>213</v>
+      </c>
+      <c r="E9" s="50" t="s">
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>322</v>
+        <v>11</v>
       </c>
       <c r="G9" t="s">
         <v>213</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="51" t="s">
         <v>327</v>
       </c>
       <c r="I9" t="s">
@@ -12603,39 +11446,39 @@
       <c r="J9" t="s">
         <v>213</v>
       </c>
-      <c r="K9" s="15" t="s">
-        <v>330</v>
+      <c r="K9" s="51" t="s">
+        <v>320</v>
       </c>
       <c r="L9" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="M9" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>330</v>
+    <row r="10" spans="1:13" s="4" customFormat="1">
+      <c r="A10" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="B10" s="50" t="s">
+        <v>320</v>
       </c>
       <c r="C10" t="s">
-        <v>330</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>323</v>
+        <v>320</v>
+      </c>
+      <c r="D10" s="52" t="s">
+        <v>213</v>
+      </c>
+      <c r="E10" s="50" t="s">
+        <v>37</v>
       </c>
       <c r="F10" t="s">
-        <v>323</v>
+        <v>37</v>
       </c>
       <c r="G10" t="s">
         <v>213</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="51" t="s">
         <v>327</v>
       </c>
       <c r="I10" t="s">
@@ -12644,39 +11487,39 @@
       <c r="J10" t="s">
         <v>213</v>
       </c>
-      <c r="K10" s="15" t="s">
-        <v>330</v>
+      <c r="K10" s="51" t="s">
+        <v>320</v>
       </c>
       <c r="L10" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="M10" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" s="4" customFormat="1">
       <c r="A11" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>331</v>
+        <v>259</v>
+      </c>
+      <c r="B11" s="50" t="s">
+        <v>324</v>
       </c>
       <c r="C11" t="s">
-        <v>331</v>
-      </c>
-      <c r="D11" s="40" t="s">
-        <v>213</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>323</v>
+        <v>324</v>
+      </c>
+      <c r="D11" s="52" t="s">
+        <v>213</v>
+      </c>
+      <c r="E11" s="50" t="s">
+        <v>37</v>
       </c>
       <c r="F11" t="s">
-        <v>323</v>
+        <v>37</v>
       </c>
       <c r="G11" t="s">
         <v>213</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="H11" s="51" t="s">
         <v>327</v>
       </c>
       <c r="I11" t="s">
@@ -12685,531 +11528,47 @@
       <c r="J11" t="s">
         <v>213</v>
       </c>
-      <c r="K11" s="15" t="s">
-        <v>331</v>
+      <c r="K11" s="51" t="s">
+        <v>324</v>
       </c>
       <c r="L11" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="M11" t="s">
         <v>213</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D072EF3-C383-438B-A84C-F3EBA934BAA2}">
-  <sheetPr>
-    <tabColor rgb="FF00B050"/>
-  </sheetPr>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EA6F492-DB74-41B2-BCBA-D107A1D751F7}">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="39.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="17.140625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="1" max="1" width="39.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="21" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="31.5" r="1" s="4" spans="1:13">
-      <c r="A1" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="28" t="s">
-        <v>301</v>
-      </c>
-      <c r="I1" s="28" t="s">
-        <v>302</v>
-      </c>
-      <c r="J1" s="28" t="s">
-        <v>300</v>
-      </c>
-      <c r="K1" s="28" t="s">
-        <v>303</v>
-      </c>
-      <c r="L1" s="28" t="s">
-        <v>304</v>
-      </c>
-      <c r="M1" s="28" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row customFormat="1" r="2" s="4" spans="1:13">
-      <c r="A2" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B2" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E2" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="H2" s="51" t="s">
-        <v>37</v>
-      </c>
-      <c r="I2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="K2" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="L2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row customFormat="1" r="3" s="4" spans="1:13">
-      <c r="A3" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B3" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E3" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="H3" s="51" t="s">
-        <v>221</v>
-      </c>
-      <c r="I3" t="s">
-        <v>221</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="K3" s="51" t="s">
-        <v>11</v>
-      </c>
-      <c r="L3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row customFormat="1" r="4" s="4" spans="1:13">
-      <c r="A4" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B4" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E4" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="H4" s="51" t="s">
-        <v>222</v>
-      </c>
-      <c r="I4" t="s">
-        <v>222</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="K4" s="51" t="s">
-        <v>11</v>
-      </c>
-      <c r="L4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row customFormat="1" r="5" s="4" spans="1:13">
-      <c r="A5" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B5" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E5" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="H5" s="51" t="s">
-        <v>223</v>
-      </c>
-      <c r="I5" t="s">
-        <v>223</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="K5" s="51" t="s">
-        <v>11</v>
-      </c>
-      <c r="L5" t="s">
-        <v>11</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row customFormat="1" r="6" s="4" spans="1:13">
-      <c r="A6" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B6" s="50" t="s">
-        <v>214</v>
-      </c>
-      <c r="C6" t="s">
-        <v>214</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E6" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="H6" s="51" t="s">
-        <v>224</v>
-      </c>
-      <c r="I6" t="s">
-        <v>224</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="K6" s="51" t="s">
-        <v>214</v>
-      </c>
-      <c r="L6" t="s">
-        <v>214</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row customFormat="1" r="7" s="4" spans="1:13">
-      <c r="A7" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B7" s="50" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E7" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="H7" s="51" t="s">
-        <v>225</v>
-      </c>
-      <c r="I7" t="s">
-        <v>225</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="K7" s="51" t="s">
-        <v>37</v>
-      </c>
-      <c r="L7" t="s">
-        <v>37</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row customFormat="1" r="8" s="4" spans="1:13">
-      <c r="A8" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="B8" s="50" t="s">
-        <v>320</v>
-      </c>
-      <c r="C8" t="s">
-        <v>320</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E8" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" t="s">
-        <v>1</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="H8" s="51" t="s">
-        <v>327</v>
-      </c>
-      <c r="I8" t="s">
-        <v>327</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="K8" s="51" t="s">
-        <v>320</v>
-      </c>
-      <c r="L8" t="s">
-        <v>320</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row customFormat="1" r="9" s="4" spans="1:13">
-      <c r="A9" s="21" t="s">
-        <v>257</v>
-      </c>
-      <c r="B9" s="50" t="s">
-        <v>320</v>
-      </c>
-      <c r="C9" t="s">
-        <v>320</v>
-      </c>
-      <c r="D9" s="52" t="s">
-        <v>213</v>
-      </c>
-      <c r="E9" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="H9" s="51" t="s">
-        <v>327</v>
-      </c>
-      <c r="I9" t="s">
-        <v>327</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="K9" s="51" t="s">
-        <v>320</v>
-      </c>
-      <c r="L9" t="s">
-        <v>320</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row customFormat="1" r="10" s="4" spans="1:13">
-      <c r="A10" s="21" t="s">
-        <v>258</v>
-      </c>
-      <c r="B10" s="50" t="s">
-        <v>320</v>
-      </c>
-      <c r="C10" t="s">
-        <v>320</v>
-      </c>
-      <c r="D10" s="52" t="s">
-        <v>213</v>
-      </c>
-      <c r="E10" s="50" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="H10" s="51" t="s">
-        <v>327</v>
-      </c>
-      <c r="I10" t="s">
-        <v>327</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="K10" s="51" t="s">
-        <v>320</v>
-      </c>
-      <c r="L10" t="s">
-        <v>320</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row customFormat="1" r="11" s="4" spans="1:13">
-      <c r="A11" s="21" t="s">
-        <v>259</v>
-      </c>
-      <c r="B11" s="50" t="s">
-        <v>324</v>
-      </c>
-      <c r="C11" t="s">
-        <v>324</v>
-      </c>
-      <c r="D11" s="52" t="s">
-        <v>213</v>
-      </c>
-      <c r="E11" s="50" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="H11" s="51" t="s">
-        <v>327</v>
-      </c>
-      <c r="I11" t="s">
-        <v>327</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="K11" s="51" t="s">
-        <v>324</v>
-      </c>
-      <c r="L11" t="s">
-        <v>324</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>213</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EA6F492-DB74-41B2-BCBA-D107A1D751F7}">
-  <dimension ref="A1:M11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="39.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="17.140625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row customHeight="1" ht="47.25" r="1" spans="1:13">
+    <row r="1" spans="1:13" ht="47.25" customHeight="1">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -13661,12 +12020,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12DC616B-EF69-4B57-BFAA-C71392BCCD82}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12DC616B-EF69-4B57-BFAA-C71392BCCD82}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -13678,25 +12037,25 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="37.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="17.140625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="16" max="17" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="1" max="1" width="37.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="21" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="21" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="17" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="47.25" r="1" spans="1:13">
+    <row r="1" spans="1:13" ht="47.25" customHeight="1">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -14148,13 +12507,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7C21921-00C3-49CD-A01C-12068C7F0F90}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7C21921-00C3-49CD-A01C-12068C7F0F90}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -14166,22 +12525,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="37.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="17.140625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="1" max="1" width="37.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="21" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="47.25" r="1" spans="1:13">
+    <row r="1" spans="1:13" ht="47.25" customHeight="1">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -14695,39 +13054,39 @@
       <c r="K23" s="12"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FBB53FB-4204-4CEE-B9D2-B379A803B8D4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FBB53FB-4204-4CEE-B9D2-B379A803B8D4}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="37.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="17.140625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="1" max="1" width="37.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="21" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="47.25" r="1" spans="1:13">
+    <row r="1" spans="1:13" ht="47.25" customHeight="1">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -14775,38 +13134,15 @@
       <c r="B2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>213</v>
-      </c>
+      <c r="D2" s="2"/>
       <c r="E2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="F2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>213</v>
-      </c>
       <c r="H2" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="I2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J2" t="s">
-        <v>213</v>
-      </c>
       <c r="K2" s="15" t="s">
         <v>1</v>
-      </c>
-      <c r="L2" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -14816,38 +13152,15 @@
       <c r="B3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>213</v>
-      </c>
+      <c r="D3" s="2"/>
       <c r="E3" s="15" t="s">
         <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s">
-        <v>213</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="I3" t="s">
-        <v>221</v>
-      </c>
-      <c r="J3" t="s">
-        <v>213</v>
-      </c>
       <c r="K3" s="15" t="s">
         <v>1</v>
-      </c>
-      <c r="L3" t="s">
-        <v>1</v>
-      </c>
-      <c r="M3" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -14857,38 +13170,15 @@
       <c r="B4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>213</v>
-      </c>
+      <c r="D4" s="2"/>
       <c r="E4" s="15" t="s">
         <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s">
-        <v>213</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="I4" t="s">
-        <v>222</v>
-      </c>
-      <c r="J4" t="s">
-        <v>213</v>
-      </c>
       <c r="K4" s="15" t="s">
         <v>1</v>
-      </c>
-      <c r="L4" t="s">
-        <v>1</v>
-      </c>
-      <c r="M4" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -14898,38 +13188,15 @@
       <c r="B5" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>213</v>
-      </c>
+      <c r="D5" s="2"/>
       <c r="E5" s="15" t="s">
         <v>11</v>
-      </c>
-      <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s">
-        <v>213</v>
       </c>
       <c r="H5" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="I5" t="s">
-        <v>223</v>
-      </c>
-      <c r="J5" t="s">
-        <v>213</v>
-      </c>
       <c r="K5" s="15" t="s">
         <v>1</v>
-      </c>
-      <c r="L5" t="s">
-        <v>1</v>
-      </c>
-      <c r="M5" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -14939,38 +13206,15 @@
       <c r="B6" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>213</v>
-      </c>
+      <c r="D6" s="2"/>
       <c r="E6" s="15" t="s">
         <v>37</v>
-      </c>
-      <c r="F6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" t="s">
-        <v>213</v>
       </c>
       <c r="H6" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="I6" t="s">
-        <v>224</v>
-      </c>
-      <c r="J6" t="s">
-        <v>213</v>
-      </c>
       <c r="K6" s="15" t="s">
         <v>1</v>
-      </c>
-      <c r="L6" t="s">
-        <v>1</v>
-      </c>
-      <c r="M6" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -14980,38 +13224,15 @@
       <c r="B7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>213</v>
-      </c>
+      <c r="D7" s="2"/>
       <c r="E7" s="15" t="s">
         <v>37</v>
-      </c>
-      <c r="F7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" t="s">
-        <v>213</v>
       </c>
       <c r="H7" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="I7" t="s">
-        <v>225</v>
-      </c>
-      <c r="J7" t="s">
-        <v>213</v>
-      </c>
       <c r="K7" s="33" t="s">
         <v>11</v>
-      </c>
-      <c r="L7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -15021,38 +13242,15 @@
       <c r="B8" s="12" t="s">
         <v>318</v>
       </c>
-      <c r="C8" t="s">
-        <v>318</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>213</v>
-      </c>
+      <c r="D8" s="2"/>
       <c r="E8" s="15" t="s">
         <v>316</v>
       </c>
-      <c r="F8" t="s">
-        <v>316</v>
-      </c>
-      <c r="G8" t="s">
-        <v>213</v>
-      </c>
       <c r="H8" s="12" t="s">
         <v>314</v>
       </c>
-      <c r="I8" t="s">
-        <v>314</v>
-      </c>
-      <c r="J8" t="s">
-        <v>213</v>
-      </c>
       <c r="K8" s="33" t="s">
         <v>318</v>
-      </c>
-      <c r="L8" t="s">
-        <v>318</v>
-      </c>
-      <c r="M8" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -15062,38 +13260,15 @@
       <c r="B9" s="12" t="s">
         <v>318</v>
       </c>
-      <c r="C9" t="s">
-        <v>318</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>213</v>
-      </c>
+      <c r="D9" s="2"/>
       <c r="E9" s="15" t="s">
         <v>309</v>
       </c>
-      <c r="F9" t="s">
-        <v>309</v>
-      </c>
-      <c r="G9" t="s">
-        <v>213</v>
-      </c>
       <c r="H9" s="12" t="s">
         <v>314</v>
       </c>
-      <c r="I9" t="s">
-        <v>314</v>
-      </c>
-      <c r="J9" t="s">
-        <v>213</v>
-      </c>
       <c r="K9" s="33" t="s">
         <v>318</v>
-      </c>
-      <c r="L9" t="s">
-        <v>318</v>
-      </c>
-      <c r="M9" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -15103,38 +13278,15 @@
       <c r="B10" s="12" t="s">
         <v>318</v>
       </c>
-      <c r="C10" t="s">
-        <v>318</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>213</v>
-      </c>
+      <c r="D10" s="2"/>
       <c r="E10" s="15" t="s">
         <v>310</v>
       </c>
-      <c r="F10" t="s">
-        <v>310</v>
-      </c>
-      <c r="G10" t="s">
-        <v>213</v>
-      </c>
       <c r="H10" s="12" t="s">
         <v>314</v>
       </c>
-      <c r="I10" t="s">
-        <v>314</v>
-      </c>
-      <c r="J10" t="s">
-        <v>213</v>
-      </c>
       <c r="K10" s="33" t="s">
         <v>318</v>
-      </c>
-      <c r="L10" t="s">
-        <v>318</v>
-      </c>
-      <c r="M10" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -15144,47 +13296,24 @@
       <c r="B11" s="12" t="s">
         <v>319</v>
       </c>
-      <c r="C11" t="s">
-        <v>319</v>
-      </c>
-      <c r="D11" s="34" t="s">
-        <v>213</v>
-      </c>
+      <c r="D11" s="34"/>
       <c r="E11" s="15" t="s">
         <v>310</v>
       </c>
-      <c r="F11" t="s">
-        <v>310</v>
-      </c>
-      <c r="G11" t="s">
-        <v>213</v>
-      </c>
       <c r="H11" s="12" t="s">
         <v>314</v>
       </c>
-      <c r="I11" t="s">
-        <v>314</v>
-      </c>
-      <c r="J11" t="s">
-        <v>213</v>
-      </c>
       <c r="K11" s="33" t="s">
         <v>319</v>
       </c>
-      <c r="L11" t="s">
-        <v>319</v>
-      </c>
-      <c r="M11" t="s">
-        <v>213</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05FC4E69-FC21-418E-B95D-0A0DB70ECA1C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05FC4E69-FC21-418E-B95D-0A0DB70ECA1C}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -15196,22 +13325,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="37.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="17.140625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="1" max="1" width="37.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="21" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="47.25" r="1" spans="1:13">
+    <row r="1" spans="1:13" ht="47.25" customHeight="1">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -15663,12 +13792,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B2EDAAE-63E8-4E33-BC6C-1DA5EB4B4213}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B2EDAAE-63E8-4E33-BC6C-1DA5EB4B4213}">
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15677,22 +13806,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="37.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="17.140625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="1" max="1" width="37.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="21" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="47.25" r="1" spans="1:13">
+    <row r="1" spans="1:13" ht="47.25" customHeight="1">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -16144,12 +14273,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A8D3B25-1D37-4A76-96CB-CE96D5B7495D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A8D3B25-1D37-4A76-96CB-CE96D5B7495D}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -16161,22 +14290,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="37.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="17.140625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="1" max="1" width="37.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="21" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="47.25" r="1" spans="1:13">
+    <row r="1" spans="1:13" ht="47.25" customHeight="1">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -16586,7 +14715,7 @@
         <v>213</v>
       </c>
     </row>
-    <row customHeight="1" ht="20.25" r="11" spans="1:13">
+    <row r="11" spans="1:13" ht="20.25" customHeight="1">
       <c r="A11" t="s">
         <v>281</v>
       </c>
@@ -16627,7 +14756,7 @@
         <v>213</v>
       </c>
     </row>
-    <row customHeight="1" ht="19.5" r="12" spans="1:13">
+    <row r="12" spans="1:13" ht="19.5" customHeight="1">
       <c r="A12" t="s">
         <v>282</v>
       </c>
@@ -16675,13 +14804,13 @@
       <c r="D15" s="34"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{084EB483-EA10-4F7B-A86C-815ADF0A22BD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{084EB483-EA10-4F7B-A86C-815ADF0A22BD}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -16693,22 +14822,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="37.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="17.140625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="1" max="1" width="37.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="21" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="47.25" r="1" spans="1:13">
+    <row r="1" spans="1:13" ht="47.25" customHeight="1">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -17160,6 +15289,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/PayrollProject/OutPutTestResult/HMRC Payroll NI Output Test result tax year 201920.xlsx
+++ b/PayrollProject/OutPutTestResult/HMRC Payroll NI Output Test result tax year 201920.xlsx
@@ -1,53 +1,53 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AzizMugdal\git\24-7PeopleXCDPayroll\PayrollProject\OutPutTestResult\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C9607CC-43F1-4BEF-BED8-50B61297A0D6}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{F92C3213-9C76-49D1-A54D-957EAB8FBD4F}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5040" windowWidth="11370" windowHeight="4650" firstSheet="25" activeTab="27" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="19" firstSheet="11" windowHeight="4650" windowWidth="11370" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="7560"/>
   </bookViews>
   <sheets>
-    <sheet name="NI2WeeklyCAReport" sheetId="33" r:id="rId1"/>
-    <sheet name="NI2WeeklyCBReport" sheetId="4" r:id="rId2"/>
-    <sheet name="NI2WeeklyCCReport" sheetId="5" r:id="rId3"/>
-    <sheet name="NI2WeeklyCHReport" sheetId="6" r:id="rId4"/>
-    <sheet name="NI2WeeklyCJReport" sheetId="7" r:id="rId5"/>
-    <sheet name="NI2WeeklyCMReport" sheetId="8" r:id="rId6"/>
-    <sheet name="NI2WeeklyCZReport" sheetId="9" r:id="rId7"/>
-    <sheet name="NIMonthlyCAReport" sheetId="10" r:id="rId8"/>
-    <sheet name="NIMonthlyCBReport" sheetId="11" r:id="rId9"/>
-    <sheet name="NIMonthlyCCReport" sheetId="13" r:id="rId10"/>
-    <sheet name="NIMonthlyCHReport" sheetId="35" r:id="rId11"/>
-    <sheet name="NIMonthlyCJReport" sheetId="36" r:id="rId12"/>
-    <sheet name="NIMonthlyCMReport" sheetId="16" r:id="rId13"/>
-    <sheet name="NIMonthlyCZReport" sheetId="17" r:id="rId14"/>
-    <sheet name="NIWeeklyCAReport" sheetId="18" r:id="rId15"/>
-    <sheet name="NIWeeklyCBReport" sheetId="19" r:id="rId16"/>
-    <sheet name="NIWeeklyCCReport" sheetId="20" r:id="rId17"/>
-    <sheet name="NIWeeklyCHReport" sheetId="21" r:id="rId18"/>
-    <sheet name="NIWeeklyCJReport" sheetId="22" r:id="rId19"/>
-    <sheet name="NIWeeklyCMReport" sheetId="23" r:id="rId20"/>
-    <sheet name="NIWeeklyCZReport" sheetId="24" r:id="rId21"/>
-    <sheet name="NIFourWeeklyCAReport" sheetId="25" r:id="rId22"/>
-    <sheet name="NIFourWeeklyCBReport" sheetId="26" r:id="rId23"/>
-    <sheet name="NIFourWeeklyCCReport" sheetId="27" r:id="rId24"/>
-    <sheet name="NIFourWeeklyCHReport" sheetId="28" r:id="rId25"/>
-    <sheet name="NIFourWeeklyCJReport" sheetId="29" r:id="rId26"/>
-    <sheet name="NIFourWeeklyCMReport" sheetId="34" r:id="rId27"/>
-    <sheet name="NIFourWeeklyCZReport" sheetId="31" r:id="rId28"/>
+    <sheet name="NI2WeeklyCAReport" r:id="rId1" sheetId="33"/>
+    <sheet name="NI2WeeklyCBReport" r:id="rId2" sheetId="4"/>
+    <sheet name="NI2WeeklyCCReport" r:id="rId3" sheetId="5"/>
+    <sheet name="NI2WeeklyCHReport" r:id="rId4" sheetId="6"/>
+    <sheet name="NI2WeeklyCJReport" r:id="rId5" sheetId="7"/>
+    <sheet name="NI2WeeklyCMReport" r:id="rId6" sheetId="8"/>
+    <sheet name="NI2WeeklyCZReport" r:id="rId7" sheetId="9"/>
+    <sheet name="NIMonthlyCAReport" r:id="rId8" sheetId="10"/>
+    <sheet name="NIMonthlyCBReport" r:id="rId9" sheetId="11"/>
+    <sheet name="NIMonthlyCCReport" r:id="rId10" sheetId="13"/>
+    <sheet name="NIMonthlyCHReport" r:id="rId11" sheetId="35"/>
+    <sheet name="NIMonthlyCJReport" r:id="rId12" sheetId="36"/>
+    <sheet name="NIMonthlyCMReport" r:id="rId13" sheetId="16"/>
+    <sheet name="NIMonthlyCZReport" r:id="rId14" sheetId="17"/>
+    <sheet name="NIWeeklyCAReport" r:id="rId15" sheetId="18"/>
+    <sheet name="NIWeeklyCBReport" r:id="rId16" sheetId="19"/>
+    <sheet name="NIWeeklyCCReport" r:id="rId17" sheetId="20"/>
+    <sheet name="NIWeeklyCHReport" r:id="rId18" sheetId="21"/>
+    <sheet name="NIWeeklyCJReport" r:id="rId19" sheetId="22"/>
+    <sheet name="NIWeeklyCMReport" r:id="rId20" sheetId="23"/>
+    <sheet name="NIWeeklyCZReport" r:id="rId21" sheetId="24"/>
+    <sheet name="NIFourWeeklyCAReport" r:id="rId22" sheetId="25"/>
+    <sheet name="NIFourWeeklyCBReport" r:id="rId23" sheetId="26"/>
+    <sheet name="NIFourWeeklyCCReport" r:id="rId24" sheetId="27"/>
+    <sheet name="NIFourWeeklyCHReport" r:id="rId25" sheetId="28"/>
+    <sheet name="NIFourWeeklyCJReport" r:id="rId26" sheetId="29"/>
+    <sheet name="NIFourWeeklyCMReport" r:id="rId27" sheetId="34"/>
+    <sheet name="NIFourWeeklyCZReport" r:id="rId28" sheetId="31"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3976" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4737" uniqueCount="345">
   <si>
     <t>EmployeeName</t>
   </si>
@@ -1079,17 +1079,21 @@
   </si>
   <si>
     <t>GBP 68.97</t>
+  </si>
+  <si>
+    <t>FALSE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="&quot;£&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="###0.00"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="663">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1188,6 +1192,3894 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
   </fonts>
   <fills count="10">
@@ -1246,7 +5138,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="325">
     <border>
       <left/>
       <right/>
@@ -1254,191 +5146,1811 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="13" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="720">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="8" numFmtId="164" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="9" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="8" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="10" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="8" numFmtId="4" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="4" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="3" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="8" numFmtId="4" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="8" numFmtId="164" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="8" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="9" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyFont="1" borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="5" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="6" fontId="3" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="6" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="7" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="7" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="8" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="9" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
+    <xf applyAlignment="1" applyFill="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyBorder="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="15" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="1" fillId="0" fontId="16" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="17" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="2" fillId="0" fontId="18" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="19" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="3" fillId="0" fontId="20" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="21" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="4" fillId="0" fontId="22" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="23" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="5" fillId="0" fontId="24" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="25" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="6" fillId="0" fontId="26" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="27" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="7" fillId="0" fontId="28" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="29" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="8" fillId="0" fontId="30" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="31" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="9" fillId="0" fontId="32" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="33" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="10" fillId="0" fontId="34" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="35" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="11" fillId="0" fontId="36" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="37" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="12" fillId="0" fontId="38" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="39" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="13" fillId="0" fontId="40" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="41" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="14" fillId="0" fontId="42" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="43" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="15" fillId="0" fontId="44" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="45" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="16" fillId="0" fontId="46" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="47" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="17" fillId="0" fontId="48" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="49" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="18" fillId="0" fontId="50" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="51" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="19" fillId="0" fontId="52" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="53" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="20" fillId="0" fontId="54" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="55" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="21" fillId="0" fontId="56" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="57" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="22" fillId="0" fontId="58" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="59" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="23" fillId="0" fontId="60" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="61" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="24" fillId="0" fontId="62" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="63" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="25" fillId="0" fontId="64" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="65" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="26" fillId="0" fontId="66" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="67" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="27" fillId="0" fontId="68" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="69" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="28" fillId="0" fontId="70" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="71" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="29" fillId="0" fontId="72" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="73" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="30" fillId="0" fontId="74" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="75" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="31" fillId="0" fontId="76" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="77" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="32" fillId="0" fontId="78" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="79" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="33" fillId="0" fontId="80" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="81" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="34" fillId="0" fontId="82" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="83" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="35" fillId="0" fontId="84" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="85" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="36" fillId="0" fontId="86" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="87" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="37" fillId="0" fontId="88" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="89" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="38" fillId="0" fontId="90" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="91" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="39" fillId="0" fontId="92" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="93" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="40" fillId="0" fontId="94" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="95" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="41" fillId="0" fontId="96" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="97" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="42" fillId="0" fontId="98" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="99" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="43" fillId="0" fontId="100" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="101" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="44" fillId="0" fontId="102" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="103" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="45" fillId="0" fontId="104" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="105" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="46" fillId="0" fontId="106" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="107" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="47" fillId="0" fontId="108" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="109" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="48" fillId="0" fontId="110" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="111" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="49" fillId="0" fontId="112" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="113" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="50" fillId="0" fontId="114" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="115" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="51" fillId="0" fontId="116" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="117" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="52" fillId="0" fontId="118" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="119" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="53" fillId="0" fontId="120" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="121" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="122" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="123" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="55" fillId="0" fontId="124" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="125" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="56" fillId="0" fontId="126" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="127" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="57" fillId="0" fontId="128" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="129" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="58" fillId="0" fontId="130" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="131" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="59" fillId="0" fontId="132" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="133" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="60" fillId="0" fontId="134" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="135" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="61" fillId="0" fontId="136" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="137" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="62" fillId="0" fontId="138" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="139" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="63" fillId="0" fontId="140" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="141" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="64" fillId="0" fontId="142" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="143" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="65" fillId="0" fontId="144" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="145" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="66" fillId="0" fontId="146" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="147" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="67" fillId="0" fontId="148" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="149" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="68" fillId="0" fontId="150" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="151" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="69" fillId="0" fontId="152" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="153" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="70" fillId="0" fontId="154" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="155" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="71" fillId="0" fontId="156" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="157" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="72" fillId="0" fontId="158" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="159" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="73" fillId="0" fontId="160" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="161" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="74" fillId="0" fontId="162" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="163" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="75" fillId="0" fontId="164" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="165" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="76" fillId="0" fontId="166" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="167" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="77" fillId="0" fontId="168" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="169" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="78" fillId="0" fontId="170" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="171" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="79" fillId="0" fontId="172" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="173" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="80" fillId="0" fontId="174" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="175" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="81" fillId="0" fontId="176" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="177" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="82" fillId="0" fontId="178" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="179" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="83" fillId="0" fontId="180" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="181" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="84" fillId="0" fontId="182" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="183" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="85" fillId="0" fontId="184" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="185" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="86" fillId="0" fontId="186" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="187" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="87" fillId="0" fontId="188" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="189" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="88" fillId="0" fontId="190" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="191" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="89" fillId="0" fontId="192" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="193" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="90" fillId="0" fontId="194" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="195" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="91" fillId="0" fontId="196" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="197" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="92" fillId="0" fontId="198" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="199" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="93" fillId="0" fontId="200" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="201" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="94" fillId="0" fontId="202" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="203" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="95" fillId="0" fontId="204" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="205" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="96" fillId="0" fontId="206" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="207" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="97" fillId="0" fontId="208" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="209" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="98" fillId="0" fontId="210" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="211" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="99" fillId="0" fontId="212" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="213" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="100" fillId="0" fontId="214" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="215" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="101" fillId="0" fontId="216" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="217" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="102" fillId="0" fontId="218" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="219" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="103" fillId="0" fontId="220" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="221" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="104" fillId="0" fontId="222" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="223" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="105" fillId="0" fontId="224" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="225" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="106" fillId="0" fontId="226" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="227" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="107" fillId="0" fontId="228" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="229" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="108" fillId="0" fontId="230" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="231" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="109" fillId="0" fontId="232" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="233" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="110" fillId="0" fontId="234" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="235" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="111" fillId="0" fontId="236" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="237" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="112" fillId="0" fontId="238" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="239" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="113" fillId="0" fontId="240" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="241" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="114" fillId="0" fontId="242" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="243" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="115" fillId="0" fontId="244" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="245" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="116" fillId="0" fontId="246" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="247" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="117" fillId="0" fontId="248" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="249" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="118" fillId="0" fontId="250" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="251" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="119" fillId="0" fontId="252" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="253" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="120" fillId="0" fontId="254" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="255" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="121" fillId="0" fontId="256" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="257" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="122" fillId="0" fontId="258" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="259" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="123" fillId="0" fontId="260" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="261" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="124" fillId="0" fontId="262" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="263" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="125" fillId="0" fontId="264" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="265" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="126" fillId="0" fontId="266" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="267" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="127" fillId="0" fontId="268" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="269" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="128" fillId="0" fontId="270" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="271" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="129" fillId="0" fontId="272" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="273" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="130" fillId="0" fontId="274" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="275" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="131" fillId="0" fontId="276" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="277" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="132" fillId="0" fontId="278" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="279" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="133" fillId="0" fontId="280" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="281" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="134" fillId="0" fontId="282" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="283" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="135" fillId="0" fontId="284" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="285" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="136" fillId="0" fontId="286" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="287" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="137" fillId="0" fontId="288" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="289" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="138" fillId="0" fontId="290" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="291" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="139" fillId="0" fontId="292" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="293" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="140" fillId="0" fontId="294" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="295" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="141" fillId="0" fontId="296" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="297" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="142" fillId="0" fontId="298" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="299" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="143" fillId="0" fontId="300" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="301" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="144" fillId="0" fontId="302" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="303" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="145" fillId="0" fontId="304" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="305" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="146" fillId="0" fontId="306" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="307" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="147" fillId="0" fontId="308" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="309" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="148" fillId="0" fontId="310" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="311" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="149" fillId="0" fontId="312" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="313" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="150" fillId="0" fontId="314" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="315" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="151" fillId="0" fontId="316" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="317" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="152" fillId="0" fontId="318" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="319" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="153" fillId="0" fontId="320" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="321" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="154" fillId="0" fontId="322" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="323" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="155" fillId="0" fontId="324" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="325" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="156" fillId="0" fontId="326" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="327" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="157" fillId="0" fontId="328" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="329" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="158" fillId="0" fontId="330" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="331" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="159" fillId="0" fontId="332" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="333" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="160" fillId="0" fontId="334" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="335" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="161" fillId="0" fontId="336" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="337" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="162" fillId="0" fontId="338" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="339" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="163" fillId="0" fontId="340" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="341" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="164" fillId="0" fontId="342" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="343" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="165" fillId="0" fontId="344" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="345" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="166" fillId="0" fontId="346" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="347" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="167" fillId="0" fontId="348" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="349" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="168" fillId="0" fontId="350" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="351" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="169" fillId="0" fontId="352" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="353" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="170" fillId="0" fontId="354" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="355" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="171" fillId="0" fontId="356" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="357" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="172" fillId="0" fontId="358" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="359" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="173" fillId="0" fontId="360" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="361" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="174" fillId="0" fontId="362" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="363" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="175" fillId="0" fontId="364" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="365" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="176" fillId="0" fontId="366" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="367" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="177" fillId="0" fontId="368" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="369" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="178" fillId="0" fontId="370" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="371" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="179" fillId="0" fontId="372" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="373" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="180" fillId="0" fontId="374" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="375" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="181" fillId="0" fontId="376" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="377" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="182" fillId="0" fontId="378" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="379" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="183" fillId="0" fontId="380" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="381" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="184" fillId="0" fontId="382" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="383" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="185" fillId="0" fontId="384" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="385" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="186" fillId="0" fontId="386" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="387" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="187" fillId="0" fontId="388" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="389" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="188" fillId="0" fontId="390" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="391" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="189" fillId="0" fontId="392" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="393" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="190" fillId="0" fontId="394" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="395" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="191" fillId="0" fontId="396" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="397" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="192" fillId="0" fontId="398" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="399" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="193" fillId="0" fontId="400" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="401" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="194" fillId="0" fontId="402" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="403" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="195" fillId="0" fontId="404" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="405" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="196" fillId="0" fontId="406" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="407" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="197" fillId="0" fontId="408" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="409" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="198" fillId="0" fontId="410" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="411" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="199" fillId="0" fontId="412" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="413" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="200" fillId="0" fontId="414" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="415" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="201" fillId="0" fontId="416" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="417" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="202" fillId="0" fontId="418" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="419" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="203" fillId="0" fontId="420" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="421" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="204" fillId="0" fontId="422" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="423" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="205" fillId="0" fontId="424" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="425" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="206" fillId="0" fontId="426" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="427" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="207" fillId="0" fontId="428" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="429" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="208" fillId="0" fontId="430" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="431" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="209" fillId="0" fontId="432" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="433" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="210" fillId="0" fontId="434" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="435" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="211" fillId="0" fontId="436" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="437" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="212" fillId="0" fontId="438" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="439" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="213" fillId="0" fontId="440" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="441" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="214" fillId="0" fontId="442" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="443" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="215" fillId="0" fontId="444" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="445" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="216" fillId="0" fontId="446" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="447" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="217" fillId="0" fontId="448" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="449" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="218" fillId="0" fontId="450" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="451" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="219" fillId="0" fontId="452" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="453" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="220" fillId="0" fontId="454" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="455" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="221" fillId="0" fontId="456" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="457" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="222" fillId="0" fontId="458" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="459" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="223" fillId="0" fontId="460" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="461" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="224" fillId="0" fontId="462" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="463" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="225" fillId="0" fontId="464" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="465" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="226" fillId="0" fontId="466" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="467" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="227" fillId="0" fontId="468" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="469" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="228" fillId="0" fontId="470" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="471" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="229" fillId="0" fontId="472" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="473" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="230" fillId="0" fontId="474" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="475" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="231" fillId="0" fontId="476" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="477" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="232" fillId="0" fontId="478" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="479" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="233" fillId="0" fontId="480" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="481" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="234" fillId="0" fontId="482" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="483" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="235" fillId="0" fontId="484" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="485" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="236" fillId="0" fontId="486" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="487" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="237" fillId="0" fontId="488" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="489" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="238" fillId="0" fontId="490" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="491" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="239" fillId="0" fontId="492" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="493" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="240" fillId="0" fontId="494" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="495" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="241" fillId="0" fontId="496" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="497" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="242" fillId="0" fontId="498" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="499" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="243" fillId="0" fontId="500" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="501" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="244" fillId="0" fontId="502" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="503" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="245" fillId="0" fontId="504" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="505" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="246" fillId="0" fontId="506" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="507" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="247" fillId="0" fontId="508" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="509" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="248" fillId="0" fontId="510" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="511" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="249" fillId="0" fontId="512" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="513" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="250" fillId="0" fontId="514" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="515" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="251" fillId="0" fontId="516" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="517" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="252" fillId="0" fontId="518" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="519" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="253" fillId="0" fontId="520" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="521" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="254" fillId="0" fontId="522" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="523" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="255" fillId="0" fontId="524" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="525" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="256" fillId="0" fontId="526" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="527" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="257" fillId="0" fontId="528" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="529" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="258" fillId="0" fontId="530" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="531" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="259" fillId="0" fontId="532" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="533" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="260" fillId="0" fontId="534" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="535" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="261" fillId="0" fontId="536" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="537" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="262" fillId="0" fontId="538" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="539" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="263" fillId="0" fontId="540" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="541" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="264" fillId="0" fontId="542" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="543" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="265" fillId="0" fontId="544" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="545" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="266" fillId="0" fontId="546" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="547" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="267" fillId="0" fontId="548" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="549" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="268" fillId="0" fontId="550" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="551" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="269" fillId="0" fontId="552" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="553" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="270" fillId="0" fontId="554" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="555" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="271" fillId="0" fontId="556" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="557" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="272" fillId="0" fontId="558" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="559" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="273" fillId="0" fontId="560" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="561" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="274" fillId="0" fontId="562" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="563" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="275" fillId="0" fontId="564" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="565" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="276" fillId="0" fontId="566" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="567" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="277" fillId="0" fontId="568" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="569" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="278" fillId="0" fontId="570" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="571" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="279" fillId="0" fontId="572" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="573" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="280" fillId="0" fontId="574" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="575" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="281" fillId="0" fontId="576" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="577" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="282" fillId="0" fontId="578" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="579" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="283" fillId="0" fontId="580" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="581" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="284" fillId="0" fontId="582" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="583" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="285" fillId="0" fontId="584" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="585" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="286" fillId="0" fontId="586" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="587" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="287" fillId="0" fontId="588" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="589" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="288" fillId="0" fontId="590" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="591" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="289" fillId="0" fontId="592" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="593" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="290" fillId="0" fontId="594" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="595" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="291" fillId="0" fontId="596" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="597" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="292" fillId="0" fontId="598" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="599" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="293" fillId="0" fontId="600" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="601" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="294" fillId="0" fontId="602" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="603" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="295" fillId="0" fontId="604" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="605" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="296" fillId="0" fontId="606" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="607" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="297" fillId="0" fontId="608" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="609" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="298" fillId="0" fontId="610" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="611" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="299" fillId="0" fontId="612" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="613" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="300" fillId="0" fontId="614" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="615" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="301" fillId="0" fontId="616" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="617" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="302" fillId="0" fontId="618" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="619" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="303" fillId="0" fontId="620" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="621" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="304" fillId="0" fontId="622" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="623" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="305" fillId="0" fontId="624" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="625" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="306" fillId="0" fontId="626" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="627" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="307" fillId="0" fontId="628" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="629" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="308" fillId="0" fontId="630" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="631" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="309" fillId="0" fontId="632" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="633" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="310" fillId="0" fontId="634" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="635" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="311" fillId="0" fontId="636" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="637" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="312" fillId="0" fontId="638" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="639" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="313" fillId="0" fontId="640" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="641" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="314" fillId="0" fontId="642" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="643" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="315" fillId="0" fontId="644" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="645" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="316" fillId="0" fontId="646" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="647" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="317" fillId="0" fontId="648" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="649" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="318" fillId="0" fontId="650" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="651" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="319" fillId="0" fontId="652" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="653" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="320" fillId="0" fontId="654" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="655" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="321" fillId="0" fontId="656" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="657" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="322" fillId="0" fontId="658" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="659" numFmtId="166" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="323" fillId="0" fontId="660" numFmtId="49" xfId="0"/>
+    <xf numFmtId="166" fontId="661" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="662" fillId="0" borderId="324" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1455,10 +6967,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1622,21 +7134,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1653,7 +7165,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1707,7 +7219,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34F72FA2-57A0-4B2D-A21C-941F8BC29773}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34F72FA2-57A0-4B2D-A21C-941F8BC29773}">
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1716,22 +7228,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="37.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="30.75" customHeight="1">
+    <row customHeight="1" ht="30.75" r="1" spans="1:13">
       <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
@@ -1772,7 +7284,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="29.25" customHeight="1">
+    <row customHeight="1" ht="29.25" r="2" spans="1:13">
       <c r="A2" s="22" t="s">
         <v>2</v>
       </c>
@@ -1813,7 +7325,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="24.75" customHeight="1">
+    <row customHeight="1" ht="24.75" r="3" spans="1:13">
       <c r="A3" s="22" t="s">
         <v>3</v>
       </c>
@@ -1854,7 +7366,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="30.75" customHeight="1">
+    <row customHeight="1" ht="30.75" r="4" spans="1:13">
       <c r="A4" s="22" t="s">
         <v>4</v>
       </c>
@@ -1895,7 +7407,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="30.75" customHeight="1">
+    <row customHeight="1" ht="30.75" r="5" spans="1:13">
       <c r="A5" s="22" t="s">
         <v>5</v>
       </c>
@@ -1936,7 +7448,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="25.5" customHeight="1">
+    <row customHeight="1" ht="25.5" r="6" spans="1:13">
       <c r="A6" s="22" t="s">
         <v>6</v>
       </c>
@@ -1977,7 +7489,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="24.75" customHeight="1">
+    <row customHeight="1" ht="24.75" r="7" spans="1:13">
       <c r="A7" s="22" t="s">
         <v>7</v>
       </c>
@@ -2018,7 +7530,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="24" customHeight="1">
+    <row customHeight="1" ht="24" r="8" spans="1:13">
       <c r="A8" s="22" t="s">
         <v>8</v>
       </c>
@@ -2059,7 +7571,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="33" customHeight="1">
+    <row customHeight="1" ht="33" r="9" spans="1:13">
       <c r="A9" s="22" t="s">
         <v>9</v>
       </c>
@@ -2100,7 +7612,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="24" customHeight="1">
+    <row customHeight="1" ht="24" r="10" spans="1:13">
       <c r="A10" s="22" t="s">
         <v>10</v>
       </c>
@@ -2141,7 +7653,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="27" customHeight="1">
+    <row customHeight="1" ht="27" r="11" spans="1:13">
       <c r="A11" s="1" t="s">
         <v>263</v>
       </c>
@@ -2182,7 +7694,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="23.25" customHeight="1">
+    <row customHeight="1" ht="23.25" r="12" spans="1:13">
       <c r="A12" s="1" t="s">
         <v>264</v>
       </c>
@@ -2224,36 +7736,36 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD509B95-552A-4B73-AAA1-3B581A11A07B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD509B95-552A-4B73-AAA1-3B581A11A07B}">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="25.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="37.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="47.25" customHeight="1">
+    <row customHeight="1" ht="47.25" r="1" spans="1:13">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -2705,36 +8217,36 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{734F0C59-6E5F-4AE9-A477-05F4174621EE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{734F0C59-6E5F-4AE9-A477-05F4174621EE}">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="37.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="57" customFormat="1" ht="47.25" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="47.25" r="1" s="57" spans="1:13">
       <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
@@ -2775,7 +8287,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="60" customFormat="1">
+    <row customFormat="1" r="2" s="60" spans="1:13">
       <c r="A2" s="58" t="s">
         <v>86</v>
       </c>
@@ -2816,7 +8328,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="60" customFormat="1">
+    <row customFormat="1" r="3" s="60" spans="1:13">
       <c r="A3" s="58" t="s">
         <v>87</v>
       </c>
@@ -2857,7 +8369,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="60" customFormat="1">
+    <row customFormat="1" r="4" s="60" spans="1:13">
       <c r="A4" s="58" t="s">
         <v>88</v>
       </c>
@@ -2898,7 +8410,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="60" customFormat="1">
+    <row customFormat="1" r="5" s="60" spans="1:13">
       <c r="A5" s="58" t="s">
         <v>89</v>
       </c>
@@ -2939,7 +8451,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="60" customFormat="1">
+    <row customFormat="1" r="6" s="60" spans="1:13">
       <c r="A6" s="58" t="s">
         <v>90</v>
       </c>
@@ -2980,7 +8492,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="60" customFormat="1">
+    <row customFormat="1" r="7" s="60" spans="1:13">
       <c r="A7" s="58" t="s">
         <v>91</v>
       </c>
@@ -3021,7 +8533,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="60" customFormat="1">
+    <row customFormat="1" r="8" s="60" spans="1:13">
       <c r="A8" s="58" t="s">
         <v>92</v>
       </c>
@@ -3062,7 +8574,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="60" customFormat="1">
+    <row customFormat="1" r="9" s="60" spans="1:13">
       <c r="A9" s="60" t="s">
         <v>289</v>
       </c>
@@ -3103,7 +8615,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="60" customFormat="1">
+    <row customFormat="1" r="10" s="60" spans="1:13">
       <c r="A10" s="60" t="s">
         <v>290</v>
       </c>
@@ -3144,7 +8656,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="60" customFormat="1">
+    <row customFormat="1" r="11" s="60" spans="1:13">
       <c r="A11" s="60" t="s">
         <v>291</v>
       </c>
@@ -3186,36 +8698,36 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F489B8B4-03B0-4C90-9420-E0AB22EC195E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F489B8B4-03B0-4C90-9420-E0AB22EC195E}">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="37.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="4" customFormat="1" ht="33.75" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="33.75" r="1" s="4" spans="1:13">
       <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
@@ -3667,36 +9179,36 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDCB0BEA-C4D2-4659-9D1C-5D3C4EE914D8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDCB0BEA-C4D2-4659-9D1C-5D3C4EE914D8}">
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="37.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="4" customFormat="1" ht="47.25" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="47.25" r="1" s="4" spans="1:13">
       <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
@@ -4148,40 +9660,40 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3D4A22B-419C-4744-AB85-C09E8204D0B2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3D4A22B-419C-4744-AB85-C09E8204D0B2}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView topLeftCell="G1" workbookViewId="0" zoomScaleNormal="100">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.140625" style="65" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20" style="65" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.5703125" style="65" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27.140625" style="65" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.7109375" style="65" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.140625" style="65" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26" style="65" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="23.42578125" style="65" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="20.85546875" style="65" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="29.7109375" style="65" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.5703125" style="65" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="21" style="65" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="29.7109375" style="65" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="16384" width="9.140625" style="65" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="65" width="37.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="65" width="20.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="65" width="17.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="65" width="27.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="65" width="19.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="65" width="17.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="65" width="26.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="65" width="23.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="65" width="20.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="65" width="29.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="65" width="23.5703125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="65" width="21.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="65" width="29.7109375" collapsed="true"/>
+    <col min="14" max="16384" style="65" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="62" customFormat="1" ht="27.75" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="27.75" r="1" s="62" spans="1:13">
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
@@ -4222,7 +9734,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="26.25" customHeight="1">
+    <row customHeight="1" ht="26.25" r="2" spans="1:13">
       <c r="A2" s="63" t="s">
         <v>109</v>
       </c>
@@ -4263,7 +9775,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="26.25" customHeight="1">
+    <row customHeight="1" ht="26.25" r="3" spans="1:13">
       <c r="A3" s="63" t="s">
         <v>110</v>
       </c>
@@ -4304,7 +9816,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="23.25" customHeight="1">
+    <row customHeight="1" ht="23.25" r="4" spans="1:13">
       <c r="A4" s="63" t="s">
         <v>111</v>
       </c>
@@ -4345,7 +9857,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="25.5" customHeight="1">
+    <row customHeight="1" ht="25.5" r="5" spans="1:13">
       <c r="A5" s="63" t="s">
         <v>112</v>
       </c>
@@ -4386,7 +9898,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="23.25" customHeight="1">
+    <row customHeight="1" ht="23.25" r="6" spans="1:13">
       <c r="A6" s="63" t="s">
         <v>113</v>
       </c>
@@ -4427,7 +9939,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="24" customHeight="1">
+    <row customHeight="1" ht="24" r="7" spans="1:13">
       <c r="A7" s="63" t="s">
         <v>114</v>
       </c>
@@ -4468,7 +9980,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="24" customHeight="1">
+    <row customHeight="1" ht="24" r="8" spans="1:13">
       <c r="A8" s="63" t="s">
         <v>115</v>
       </c>
@@ -4509,7 +10021,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="22.5" customHeight="1">
+    <row customHeight="1" ht="22.5" r="9" spans="1:13">
       <c r="A9" s="65" t="s">
         <v>296</v>
       </c>
@@ -4550,7 +10062,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="27" customHeight="1">
+    <row customHeight="1" ht="27" r="10" spans="1:13">
       <c r="A10" s="65" t="s">
         <v>297</v>
       </c>
@@ -4591,7 +10103,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="22.5" customHeight="1">
+    <row customHeight="1" ht="22.5" r="11" spans="1:13">
       <c r="A11" s="65" t="s">
         <v>298</v>
       </c>
@@ -4642,38 +10154,38 @@
       <c r="I17" s="70"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46F959A7-BC56-497D-B8C5-7F4054119E8D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46F959A7-BC56-497D-B8C5-7F4054119E8D}">
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView topLeftCell="G4" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="35.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="75.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="35.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="75.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="4" customFormat="1" ht="32.25" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="32.25" r="1" s="4" spans="1:15">
       <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
@@ -4715,374 +10227,194 @@
       </c>
       <c r="O1" s="31"/>
     </row>
-    <row r="2" spans="1:15" ht="30">
+    <row ht="30" r="2" spans="1:15">
       <c r="A2" s="22" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>213</v>
-      </c>
+      <c r="C2" s="32"/>
       <c r="E2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>213</v>
-      </c>
+      <c r="F2" s="32"/>
       <c r="H2" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="J2" t="s">
-        <v>213</v>
-      </c>
+      <c r="I2" s="32"/>
       <c r="K2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="M2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="30">
+      <c r="L2" s="32"/>
+    </row>
+    <row ht="30" r="3" spans="1:15">
       <c r="A3" s="22" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>213</v>
-      </c>
+      <c r="C3" s="32"/>
       <c r="E3" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s">
-        <v>213</v>
-      </c>
+      <c r="F3" s="32"/>
       <c r="H3" s="32" t="s">
         <v>221</v>
       </c>
-      <c r="I3" s="32" t="s">
-        <v>221</v>
-      </c>
-      <c r="J3" t="s">
-        <v>213</v>
-      </c>
+      <c r="I3" s="32"/>
       <c r="K3" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="M3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="30">
+      <c r="L3" s="32"/>
+    </row>
+    <row ht="30" r="4" spans="1:15">
       <c r="A4" s="22" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>213</v>
-      </c>
+      <c r="C4" s="32"/>
       <c r="E4" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s">
-        <v>213</v>
-      </c>
+      <c r="F4" s="32"/>
       <c r="H4" s="32" t="s">
         <v>222</v>
       </c>
-      <c r="I4" s="32" t="s">
-        <v>222</v>
-      </c>
-      <c r="J4" t="s">
-        <v>213</v>
-      </c>
+      <c r="I4" s="32"/>
       <c r="K4" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="M4" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="30">
+      <c r="L4" s="32"/>
+    </row>
+    <row ht="30" r="5" spans="1:15">
       <c r="A5" s="22" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>213</v>
-      </c>
+      <c r="C5" s="32"/>
       <c r="E5" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s">
-        <v>213</v>
-      </c>
+      <c r="F5" s="32"/>
       <c r="H5" s="32" t="s">
         <v>223</v>
       </c>
-      <c r="I5" s="32" t="s">
-        <v>223</v>
-      </c>
-      <c r="J5" t="s">
-        <v>213</v>
-      </c>
+      <c r="I5" s="32"/>
       <c r="K5" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="L5" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="M5" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="30">
+      <c r="L5" s="32"/>
+    </row>
+    <row ht="30" r="6" spans="1:15">
       <c r="A6" s="22" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="32" t="s">
         <v>214</v>
       </c>
-      <c r="C6" s="32" t="s">
-        <v>214</v>
-      </c>
-      <c r="D6" t="s">
-        <v>213</v>
-      </c>
+      <c r="C6" s="32"/>
       <c r="E6" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" t="s">
-        <v>213</v>
-      </c>
+      <c r="F6" s="32"/>
       <c r="H6" s="32" t="s">
         <v>224</v>
       </c>
-      <c r="I6" s="32" t="s">
-        <v>224</v>
-      </c>
-      <c r="J6" t="s">
-        <v>213</v>
-      </c>
+      <c r="I6" s="32"/>
       <c r="K6" s="32" t="s">
         <v>214</v>
       </c>
-      <c r="L6" s="32" t="s">
-        <v>214</v>
-      </c>
-      <c r="M6" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="30">
+      <c r="L6" s="32"/>
+    </row>
+    <row ht="30" r="7" spans="1:15">
       <c r="A7" s="22" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" t="s">
-        <v>213</v>
-      </c>
+      <c r="C7" s="32"/>
       <c r="E7" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" t="s">
-        <v>213</v>
-      </c>
+      <c r="F7" s="32"/>
       <c r="H7" s="32" t="s">
         <v>225</v>
       </c>
-      <c r="I7" s="32" t="s">
-        <v>225</v>
-      </c>
-      <c r="J7" t="s">
-        <v>213</v>
-      </c>
+      <c r="I7" s="32"/>
       <c r="K7" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="L7" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="M7" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="30">
+      <c r="L7" s="32"/>
+    </row>
+    <row ht="30" r="8" spans="1:15">
       <c r="A8" s="22" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="32" t="s">
         <v>307</v>
       </c>
-      <c r="C8" s="32" t="s">
-        <v>307</v>
-      </c>
-      <c r="D8" t="s">
-        <v>213</v>
-      </c>
+      <c r="C8" s="32"/>
       <c r="E8" s="32" t="s">
         <v>308</v>
       </c>
-      <c r="F8" s="32" t="s">
-        <v>308</v>
-      </c>
-      <c r="G8" t="s">
-        <v>213</v>
-      </c>
+      <c r="F8" s="32"/>
       <c r="H8" s="32" t="s">
         <v>314</v>
       </c>
-      <c r="I8" s="32" t="s">
-        <v>314</v>
-      </c>
-      <c r="J8" t="s">
-        <v>213</v>
-      </c>
+      <c r="I8" s="32"/>
       <c r="K8" s="32" t="s">
         <v>307</v>
       </c>
-      <c r="L8" s="32" t="s">
-        <v>307</v>
-      </c>
-      <c r="M8" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="30">
+      <c r="L8" s="32"/>
+    </row>
+    <row ht="30" r="9" spans="1:15">
       <c r="A9" s="22" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="32" t="s">
         <v>307</v>
       </c>
-      <c r="C9" s="32" t="s">
-        <v>307</v>
-      </c>
-      <c r="D9" t="s">
-        <v>213</v>
-      </c>
+      <c r="C9" s="32"/>
       <c r="E9" s="32" t="s">
         <v>309</v>
       </c>
-      <c r="F9" s="32" t="s">
-        <v>309</v>
-      </c>
-      <c r="G9" t="s">
-        <v>213</v>
-      </c>
+      <c r="F9" s="32"/>
       <c r="H9" s="32" t="s">
         <v>314</v>
       </c>
-      <c r="I9" s="32" t="s">
-        <v>314</v>
-      </c>
-      <c r="J9" t="s">
-        <v>213</v>
-      </c>
+      <c r="I9" s="32"/>
       <c r="K9" s="32" t="s">
         <v>307</v>
       </c>
-      <c r="L9" s="32" t="s">
-        <v>307</v>
-      </c>
-      <c r="M9" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="30">
+      <c r="L9" s="32"/>
+    </row>
+    <row ht="30" r="10" spans="1:15">
       <c r="A10" s="22" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="32" t="s">
         <v>307</v>
       </c>
-      <c r="C10" s="32" t="s">
-        <v>307</v>
-      </c>
-      <c r="D10" t="s">
-        <v>213</v>
-      </c>
+      <c r="C10" s="32"/>
       <c r="E10" s="32" t="s">
         <v>310</v>
       </c>
-      <c r="F10" s="32" t="s">
-        <v>310</v>
-      </c>
-      <c r="G10" t="s">
-        <v>213</v>
-      </c>
+      <c r="F10" s="32"/>
       <c r="H10" s="32" t="s">
         <v>314</v>
       </c>
-      <c r="I10" s="32" t="s">
-        <v>314</v>
-      </c>
-      <c r="J10" t="s">
-        <v>213</v>
-      </c>
+      <c r="I10" s="32"/>
       <c r="K10" s="32" t="s">
         <v>307</v>
       </c>
-      <c r="L10" s="32" t="s">
-        <v>307</v>
-      </c>
-      <c r="M10" t="s">
-        <v>213</v>
-      </c>
+      <c r="L10" s="32"/>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
@@ -5091,39 +10423,19 @@
       <c r="B11" s="32" t="s">
         <v>311</v>
       </c>
-      <c r="C11" s="32" t="s">
-        <v>311</v>
-      </c>
-      <c r="D11" t="s">
-        <v>213</v>
-      </c>
+      <c r="C11" s="32"/>
       <c r="E11" s="32" t="s">
         <v>310</v>
       </c>
-      <c r="F11" s="32" t="s">
-        <v>310</v>
-      </c>
-      <c r="G11" t="s">
-        <v>213</v>
-      </c>
+      <c r="F11" s="32"/>
       <c r="H11" s="32" t="s">
         <v>314</v>
       </c>
-      <c r="I11" s="32" t="s">
-        <v>314</v>
-      </c>
-      <c r="J11" t="s">
-        <v>213</v>
-      </c>
+      <c r="I11" s="32"/>
       <c r="K11" s="32" t="s">
         <v>311</v>
       </c>
-      <c r="L11" s="32" t="s">
-        <v>311</v>
-      </c>
-      <c r="M11" t="s">
-        <v>213</v>
-      </c>
+      <c r="L11" s="32"/>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1" t="s">
@@ -5132,39 +10444,19 @@
       <c r="B12" s="32" t="s">
         <v>312</v>
       </c>
-      <c r="C12" s="32" t="s">
-        <v>312</v>
-      </c>
-      <c r="D12" t="s">
-        <v>213</v>
-      </c>
+      <c r="C12" s="32"/>
       <c r="E12" s="32" t="s">
         <v>313</v>
       </c>
-      <c r="F12" s="32" t="s">
-        <v>313</v>
-      </c>
-      <c r="G12" t="s">
-        <v>213</v>
-      </c>
+      <c r="F12" s="32"/>
       <c r="H12" s="32" t="s">
         <v>314</v>
       </c>
-      <c r="I12" s="32" t="s">
-        <v>314</v>
-      </c>
-      <c r="J12" t="s">
-        <v>213</v>
-      </c>
+      <c r="I12" s="32"/>
       <c r="K12" s="32" t="s">
         <v>312</v>
       </c>
-      <c r="L12" s="32" t="s">
-        <v>312</v>
-      </c>
-      <c r="M12" t="s">
-        <v>213</v>
-      </c>
+      <c r="L12" s="32"/>
     </row>
     <row r="13" spans="1:15">
       <c r="B13" s="25"/>
@@ -5180,13 +10472,13 @@
       <c r="L13" s="25"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6693F9A1-2D12-4878-8B10-57875A837F73}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6693F9A1-2D12-4878-8B10-57875A837F73}">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5195,22 +10487,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="39.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="39.12890625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.04296875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.50390625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.13671875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="19.71484375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="17.17578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="25.94921875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="23.4296875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="20.890625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5390625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="29.7734375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="4" customFormat="1" ht="36.75" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="36.75" r="1" s="4" spans="1:13">
       <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
@@ -5671,13 +10963,13 @@
       <c r="J16" s="71"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CCAF450-D838-4D0A-9377-0C9688C59049}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CCAF450-D838-4D0A-9377-0C9688C59049}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -5689,22 +10981,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="39.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="39.12890625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.04296875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.50390625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.13671875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="19.71484375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="17.17578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="25.94921875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="23.4296875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="20.890625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5390625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="29.7734375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="47.25" customHeight="1">
+    <row customHeight="1" ht="47.25" r="1" spans="1:13">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -6156,12 +11448,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AA0DF4E-EF72-4E33-A5FC-C9EB633E9A47}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AA0DF4E-EF72-4E33-A5FC-C9EB633E9A47}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -6173,22 +11465,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="39.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="39.12890625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.04296875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.50390625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.13671875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="19.71484375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="17.17578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="25.94921875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="23.4296875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="20.890625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5390625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="29.7734375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="47.25" customHeight="1">
+    <row customHeight="1" ht="47.25" r="1" spans="1:13">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -6640,12 +11932,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBD33C00-F8EF-4387-8505-A5B3395811FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBD33C00-F8EF-4387-8505-A5B3395811FB}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -6657,22 +11949,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="39.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="39.12890625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.04296875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.50390625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.13671875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="19.71484375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="17.17578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="25.94921875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="23.4296875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="20.890625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5390625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="29.7734375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="47.25" customHeight="1">
+    <row customHeight="1" ht="47.25" r="1" spans="1:13">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -7124,12 +12416,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DCC897F-D1E0-4A96-B2EE-32DA2865AE79}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DCC897F-D1E0-4A96-B2EE-32DA2865AE79}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -7141,22 +12433,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="37.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="47.25" customHeight="1">
+    <row customHeight="1" ht="47.25" r="1" spans="1:13">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -7608,12 +12900,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{081CF5B3-B626-4823-9177-2583326D20ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{081CF5B3-B626-4823-9177-2583326D20ED}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -7625,22 +12917,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="39.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="39.12890625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.04296875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.50390625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.13671875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="19.71484375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="17.17578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="25.94921875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="23.4296875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="20.890625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5390625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="29.7734375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="47.25" customHeight="1">
+    <row customHeight="1" ht="47.25" r="1" spans="1:13">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -7968,7 +13260,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="21.75" customHeight="1">
+    <row customHeight="1" ht="21.75" r="9" spans="1:13">
       <c r="A9" s="21" t="s">
         <v>239</v>
       </c>
@@ -8009,7 +13301,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="24.75" customHeight="1">
+    <row customHeight="1" ht="24.75" r="10" spans="1:13">
       <c r="A10" s="21" t="s">
         <v>240</v>
       </c>
@@ -8050,7 +13342,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="23.25" customHeight="1">
+    <row customHeight="1" ht="23.25" r="11" spans="1:13">
       <c r="A11" s="21" t="s">
         <v>241</v>
       </c>
@@ -8092,12 +13384,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AE77434-BDB6-4925-8AEB-DF38B4AD3203}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AE77434-BDB6-4925-8AEB-DF38B4AD3203}">
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8106,22 +13398,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="39.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="39.12890625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.04296875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.50390625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.13671875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="19.71484375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="17.17578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="25.94921875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="23.4296875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="20.890625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5390625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="29.7734375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="47.25" customHeight="1">
+    <row customHeight="1" ht="47.25" r="1" spans="1:13">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -8573,13 +13865,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54AE7F14-C03B-419D-9FD0-0B4AC5880298}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54AE7F14-C03B-419D-9FD0-0B4AC5880298}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -8591,22 +13883,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="39.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="39.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="47.25" customHeight="1">
+    <row customHeight="1" ht="47.25" r="1" spans="1:13">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -9099,13 +14391,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{432CEA1D-6991-4BC1-AFF9-9C3BF074AE0D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{432CEA1D-6991-4BC1-AFF9-9C3BF074AE0D}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -9117,22 +14409,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="39.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="39.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="47.25" customHeight="1">
+    <row customHeight="1" ht="47.25" r="1" spans="1:13">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -9596,12 +14888,12 @@
       <c r="E13" s="11"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{928D7B68-3D2E-4B39-AD3A-4761C2BD9933}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{928D7B68-3D2E-4B39-AD3A-4761C2BD9933}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -9613,22 +14905,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="39.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="39.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="47.25" customHeight="1">
+    <row customHeight="1" ht="47.25" r="1" spans="1:13">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -10086,13 +15378,13 @@
       <c r="G14" s="39"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EDDD2D8-453C-4BBB-89CA-194FD7B751CF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EDDD2D8-453C-4BBB-89CA-194FD7B751CF}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -10104,22 +15396,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="39.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="39.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="47.25" customHeight="1">
+    <row customHeight="1" ht="47.25" r="1" spans="1:13">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -10571,12 +15863,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06C48AC9-F330-4A09-80E5-D6F115B6D1F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06C48AC9-F330-4A09-80E5-D6F115B6D1F9}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -10588,22 +15880,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="39.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="39.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="47.25" customHeight="1">
+    <row customHeight="1" ht="47.25" r="1" spans="1:13">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -11055,12 +16347,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D072EF3-C383-438B-A84C-F3EBA934BAA2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D072EF3-C383-438B-A84C-F3EBA934BAA2}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -11072,22 +16364,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="39.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="39.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="4" customFormat="1" ht="31.5" customHeight="1">
+    <row customFormat="1" customHeight="1" ht="31.5" r="1" s="4" spans="1:13">
       <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
@@ -11128,7 +16420,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="4" customFormat="1">
+    <row customFormat="1" r="2" s="4" spans="1:13">
       <c r="A2" s="1" t="s">
         <v>199</v>
       </c>
@@ -11169,7 +16461,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="4" customFormat="1">
+    <row customFormat="1" r="3" s="4" spans="1:13">
       <c r="A3" s="1" t="s">
         <v>200</v>
       </c>
@@ -11210,7 +16502,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="4" customFormat="1">
+    <row customFormat="1" r="4" s="4" spans="1:13">
       <c r="A4" s="1" t="s">
         <v>201</v>
       </c>
@@ -11251,7 +16543,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="4" customFormat="1">
+    <row customFormat="1" r="5" s="4" spans="1:13">
       <c r="A5" s="1" t="s">
         <v>202</v>
       </c>
@@ -11292,7 +16584,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="4" customFormat="1">
+    <row customFormat="1" r="6" s="4" spans="1:13">
       <c r="A6" s="1" t="s">
         <v>203</v>
       </c>
@@ -11333,7 +16625,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="4" customFormat="1">
+    <row customFormat="1" r="7" s="4" spans="1:13">
       <c r="A7" s="1" t="s">
         <v>204</v>
       </c>
@@ -11374,7 +16666,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="4" customFormat="1">
+    <row customFormat="1" r="8" s="4" spans="1:13">
       <c r="A8" s="1" t="s">
         <v>205</v>
       </c>
@@ -11415,7 +16707,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="4" customFormat="1">
+    <row customFormat="1" r="9" s="4" spans="1:13">
       <c r="A9" s="21" t="s">
         <v>257</v>
       </c>
@@ -11456,7 +16748,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="4" customFormat="1">
+    <row customFormat="1" r="10" s="4" spans="1:13">
       <c r="A10" s="21" t="s">
         <v>258</v>
       </c>
@@ -11497,7 +16789,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="4" customFormat="1">
+    <row customFormat="1" r="11" s="4" spans="1:13">
       <c r="A11" s="21" t="s">
         <v>259</v>
       </c>
@@ -11539,36 +16831,36 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EA6F492-DB74-41B2-BCBA-D107A1D751F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EA6F492-DB74-41B2-BCBA-D107A1D751F7}">
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="39.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="39.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="47.25" customHeight="1">
+    <row customHeight="1" ht="47.25" r="1" spans="1:13">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -12020,12 +17312,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12DC616B-EF69-4B57-BFAA-C71392BCCD82}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12DC616B-EF69-4B57-BFAA-C71392BCCD82}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -12037,25 +17329,25 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="17" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="37.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="16" max="17" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="47.25" customHeight="1">
+    <row customHeight="1" ht="47.25" r="1" spans="1:13">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -12507,13 +17799,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7C21921-00C3-49CD-A01C-12068C7F0F90}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7C21921-00C3-49CD-A01C-12068C7F0F90}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -12525,22 +17817,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="37.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="47.25" customHeight="1">
+    <row customHeight="1" ht="47.25" r="1" spans="1:13">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -13054,12 +18346,12 @@
       <c r="K23" s="12"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FBB53FB-4204-4CEE-B9D2-B379A803B8D4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FBB53FB-4204-4CEE-B9D2-B379A803B8D4}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -13071,22 +18363,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="37.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="47.25" customHeight="1">
+    <row customHeight="1" ht="47.25" r="1" spans="1:13">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -13308,12 +18600,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05FC4E69-FC21-418E-B95D-0A0DB70ECA1C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05FC4E69-FC21-418E-B95D-0A0DB70ECA1C}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -13325,22 +18617,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="37.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="47.25" customHeight="1">
+    <row customHeight="1" ht="47.25" r="1" spans="1:13">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -13792,12 +19084,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B2EDAAE-63E8-4E33-BC6C-1DA5EB4B4213}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B2EDAAE-63E8-4E33-BC6C-1DA5EB4B4213}">
   <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13806,22 +19098,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="37.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="47.25" customHeight="1">
+    <row customHeight="1" ht="47.25" r="1" spans="1:13">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -14273,39 +19565,39 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A8D3B25-1D37-4A76-96CB-CE96D5B7495D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A8D3B25-1D37-4A76-96CB-CE96D5B7495D}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="37.07421875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.04296875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.50390625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.13671875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="19.71484375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="17.17578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="25.94921875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="23.4296875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="20.890625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="29.6640625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5390625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="29.7734375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="47.25" customHeight="1">
+    <row customHeight="1" ht="47.25" r="1" spans="1:13">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -14357,7 +19649,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>213</v>
+        <v>344</v>
       </c>
       <c r="E2" s="53" t="s">
         <v>1</v>
@@ -14366,7 +19658,7 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>213</v>
+        <v>344</v>
       </c>
       <c r="H2" s="12" t="s">
         <v>37</v>
@@ -14375,7 +19667,7 @@
         <v>37</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>213</v>
+        <v>344</v>
       </c>
       <c r="K2" s="15" t="s">
         <v>1</v>
@@ -14384,7 +19676,7 @@
         <v>1</v>
       </c>
       <c r="M2" t="s">
-        <v>213</v>
+        <v>344</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -14398,7 +19690,7 @@
         <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>213</v>
+        <v>344</v>
       </c>
       <c r="E3" s="53" t="s">
         <v>11</v>
@@ -14407,7 +19699,7 @@
         <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>213</v>
+        <v>344</v>
       </c>
       <c r="H3" s="12" t="s">
         <v>221</v>
@@ -14416,7 +19708,7 @@
         <v>221</v>
       </c>
       <c r="J3" s="12" t="s">
-        <v>213</v>
+        <v>344</v>
       </c>
       <c r="K3" s="15" t="s">
         <v>11</v>
@@ -14425,7 +19717,7 @@
         <v>11</v>
       </c>
       <c r="M3" t="s">
-        <v>213</v>
+        <v>344</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -14439,7 +19731,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>213</v>
+        <v>344</v>
       </c>
       <c r="E4" s="53" t="s">
         <v>11</v>
@@ -14448,7 +19740,7 @@
         <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>213</v>
+        <v>344</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>222</v>
@@ -14457,7 +19749,7 @@
         <v>222</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>213</v>
+        <v>344</v>
       </c>
       <c r="K4" s="15" t="s">
         <v>11</v>
@@ -14466,7 +19758,7 @@
         <v>11</v>
       </c>
       <c r="M4" t="s">
-        <v>213</v>
+        <v>344</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -14480,7 +19772,7 @@
         <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>213</v>
+        <v>344</v>
       </c>
       <c r="E5" s="53" t="s">
         <v>11</v>
@@ -14489,7 +19781,7 @@
         <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>213</v>
+        <v>344</v>
       </c>
       <c r="H5" s="12" t="s">
         <v>223</v>
@@ -14498,7 +19790,7 @@
         <v>223</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>213</v>
+        <v>344</v>
       </c>
       <c r="K5" s="15" t="s">
         <v>11</v>
@@ -14507,7 +19799,7 @@
         <v>11</v>
       </c>
       <c r="M5" t="s">
-        <v>213</v>
+        <v>344</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -14521,7 +19813,7 @@
         <v>214</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>213</v>
+        <v>344</v>
       </c>
       <c r="E6" s="53" t="s">
         <v>37</v>
@@ -14530,7 +19822,7 @@
         <v>37</v>
       </c>
       <c r="G6" t="s">
-        <v>213</v>
+        <v>344</v>
       </c>
       <c r="H6" s="12" t="s">
         <v>224</v>
@@ -14539,7 +19831,7 @@
         <v>224</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>213</v>
+        <v>344</v>
       </c>
       <c r="K6" s="15" t="s">
         <v>214</v>
@@ -14548,7 +19840,7 @@
         <v>214</v>
       </c>
       <c r="M6" t="s">
-        <v>213</v>
+        <v>344</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -14562,7 +19854,7 @@
         <v>37</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>213</v>
+        <v>344</v>
       </c>
       <c r="E7" s="53" t="s">
         <v>37</v>
@@ -14571,7 +19863,7 @@
         <v>37</v>
       </c>
       <c r="G7" t="s">
-        <v>213</v>
+        <v>344</v>
       </c>
       <c r="H7" s="12" t="s">
         <v>225</v>
@@ -14580,7 +19872,7 @@
         <v>225</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>213</v>
+        <v>344</v>
       </c>
       <c r="K7" s="15" t="s">
         <v>37</v>
@@ -14589,7 +19881,7 @@
         <v>37</v>
       </c>
       <c r="M7" t="s">
-        <v>213</v>
+        <v>344</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -14603,7 +19895,7 @@
         <v>332</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>213</v>
+        <v>344</v>
       </c>
       <c r="E8" s="53" t="s">
         <v>333</v>
@@ -14612,7 +19904,7 @@
         <v>333</v>
       </c>
       <c r="G8" t="s">
-        <v>213</v>
+        <v>344</v>
       </c>
       <c r="H8" s="12" t="s">
         <v>339</v>
@@ -14621,7 +19913,7 @@
         <v>339</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>213</v>
+        <v>344</v>
       </c>
       <c r="K8" s="15" t="s">
         <v>332</v>
@@ -14630,7 +19922,7 @@
         <v>332</v>
       </c>
       <c r="M8" t="s">
-        <v>213</v>
+        <v>344</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -14644,7 +19936,7 @@
         <v>332</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>213</v>
+        <v>344</v>
       </c>
       <c r="E9" s="53" t="s">
         <v>334</v>
@@ -14653,7 +19945,7 @@
         <v>334</v>
       </c>
       <c r="G9" t="s">
-        <v>213</v>
+        <v>344</v>
       </c>
       <c r="H9" s="12" t="s">
         <v>339</v>
@@ -14662,7 +19954,7 @@
         <v>339</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>213</v>
+        <v>344</v>
       </c>
       <c r="K9" s="15" t="s">
         <v>332</v>
@@ -14671,7 +19963,7 @@
         <v>332</v>
       </c>
       <c r="M9" t="s">
-        <v>213</v>
+        <v>344</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -14685,7 +19977,7 @@
         <v>332</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>213</v>
+        <v>344</v>
       </c>
       <c r="E10" s="53" t="s">
         <v>335</v>
@@ -14694,7 +19986,7 @@
         <v>335</v>
       </c>
       <c r="G10" t="s">
-        <v>213</v>
+        <v>344</v>
       </c>
       <c r="H10" s="12" t="s">
         <v>339</v>
@@ -14703,7 +19995,7 @@
         <v>339</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>213</v>
+        <v>344</v>
       </c>
       <c r="K10" s="15" t="s">
         <v>332</v>
@@ -14712,10 +20004,10 @@
         <v>332</v>
       </c>
       <c r="M10" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="20.25" customHeight="1">
+        <v>344</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="20.25" r="11" spans="1:13">
       <c r="A11" t="s">
         <v>281</v>
       </c>
@@ -14726,7 +20018,7 @@
         <v>336</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>213</v>
+        <v>344</v>
       </c>
       <c r="E11" s="53" t="s">
         <v>335</v>
@@ -14735,7 +20027,7 @@
         <v>335</v>
       </c>
       <c r="G11" t="s">
-        <v>213</v>
+        <v>344</v>
       </c>
       <c r="H11" s="12" t="s">
         <v>339</v>
@@ -14744,7 +20036,7 @@
         <v>339</v>
       </c>
       <c r="J11" s="12" t="s">
-        <v>213</v>
+        <v>344</v>
       </c>
       <c r="K11" s="15" t="s">
         <v>336</v>
@@ -14753,10 +20045,10 @@
         <v>336</v>
       </c>
       <c r="M11" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="19.5" customHeight="1">
+        <v>344</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="19.5" r="12" spans="1:13">
       <c r="A12" t="s">
         <v>282</v>
       </c>
@@ -14767,7 +20059,7 @@
         <v>337</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>213</v>
+        <v>344</v>
       </c>
       <c r="E12" s="53" t="s">
         <v>338</v>
@@ -14776,7 +20068,7 @@
         <v>338</v>
       </c>
       <c r="G12" t="s">
-        <v>213</v>
+        <v>344</v>
       </c>
       <c r="H12" s="12" t="s">
         <v>339</v>
@@ -14785,7 +20077,7 @@
         <v>339</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>213</v>
+        <v>344</v>
       </c>
       <c r="K12" s="15" t="s">
         <v>337</v>
@@ -14794,7 +20086,7 @@
         <v>337</v>
       </c>
       <c r="M12" t="s">
-        <v>213</v>
+        <v>344</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -14804,40 +20096,40 @@
       <c r="D15" s="34"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{084EB483-EA10-4F7B-A86C-815ADF0A22BD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{084EB483-EA10-4F7B-A86C-815ADF0A22BD}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="29.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="37.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="29.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="47.25" customHeight="1">
+    <row customHeight="1" ht="47.25" r="1" spans="1:13">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -15289,6 +20581,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>